--- a/news_data/2020_03.xlsx
+++ b/news_data/2020_03.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>naver_news_title</t>
   </si>
@@ -22,6 +22,66 @@
     <t>naver_news_articles</t>
   </si>
   <si>
+    <t>제주도관광협회, 코로나19에 회원사 1분기 회비 면제</t>
+  </si>
+  <si>
+    <t>남미 여행 후 '제주도' 관광하다 코로나 확진 받은 여대생은 '마스크'를 쓰지...</t>
+  </si>
+  <si>
+    <t>제주도 자가격리 무시, 공항 도주 관광객 '강제 격리'</t>
+  </si>
+  <si>
+    <t>'제주 관광' 美유학생, 동행한 어머니 코로나19 확진…제주도 "민사소송 검토...</t>
+  </si>
+  <si>
+    <t>“이기적 관광객 필요없다”…제주도, 유증상에도 여행한 확진자에 손배소</t>
+  </si>
+  <si>
+    <t>제주도 중문관광단지 맛집 '색달식당 중문본점' 수국축제, 엉덩물계곡 등 찾는...</t>
+  </si>
+  <si>
+    <t>제주도, 유니크베뉴 및 MICE 특화 관광상품 공모</t>
+  </si>
+  <si>
+    <t>제주도청, 강남구 코로나 확진자 등 동선발표..관광지·편의점·식당·병원·...</t>
+  </si>
+  <si>
+    <t>제주도관광협회, '팜팜버스'대상마을 모집</t>
+  </si>
+  <si>
+    <t>“제주도는 피난처가 아닙니다”…관광지 제주의 딜레마</t>
+  </si>
+  <si>
+    <t>코로나19 확진 판정 전 제주도 관광하며 활보한 '구로 콜센터' 확진자</t>
+  </si>
+  <si>
+    <t>제주도 여행객 잇단 코로나19 확진…관광제주 '딜레마'</t>
+  </si>
+  <si>
+    <t>제주도-관광산업체, 코로나19 퇴치 '한마음'</t>
+  </si>
+  <si>
+    <t>제주도, 공공도서관·관광지·복지시설 등 851개소 휴관 연장</t>
+  </si>
+  <si>
+    <t>제주도, 대구ㆍ경북 여행 도민ㆍ관광객 관리 나선다</t>
+  </si>
+  <si>
+    <t>'우한 코로나'로 그 난리 겪고도 중국인 관광객 적극 유치하겠다는 제주도</t>
+  </si>
+  <si>
+    <t>롯데관광개발, 3년간 제주도내 교육사업에 37억 투입</t>
+  </si>
+  <si>
+    <t>코로나19로 무사증 중단…제주도 중국인 관광객 97.3%↓</t>
+  </si>
+  <si>
+    <t>제주도, 코로나19 위기극복 관광·건설경기 부양 ‘잰걸음’</t>
+  </si>
+  <si>
+    <t xml:space="preserve">제주도 관광사업체, 매주 금요일 코로나19 일제 방역 실시 </t>
+  </si>
+  <si>
     <t>제주도관광협회, 1·2월 '베스트 관광인' 선정</t>
   </si>
   <si>
@@ -52,31 +112,88 @@
     <t>제주도 갈치조림 중문관광단지 맛집 '색달식당 중문본점' 이색적인 갈치조림으...</t>
   </si>
   <si>
-    <t>미디어제주 × 전체기사 뉴스 전체 정치 경제 사회 문화 교육 스포츠 사람들 포토뉴스 Advertorial section 기획특집 전체 생생스포츠현장 박물관, 그리고 제주 이야기 이사람 이주민, 그들을 말한다 다 함께 사는 세상 해외 특파원 보고 교육! 학교 현장 기획특집 미디어누리 전체 어린이기자 시민기자 청소년기자 오피니언 전체 미디어窓 미디어칼럼 건강칼럼 기고 미디어TV 전체 영상뉴스 UCC동영상콘테스트 유치부축구대회 시정가이드 전체 제주시 서귀포시 최종편집 2022-10-04 10:40 (화) 로그인 회원가입 모바일웹 전체 뉴스 전체기사 정치 경제 사회 문화 교육 스포츠 사람들 포토뉴스 Advertorial section 기획특집 박물관, 그리고 제주 이야기 이사람 다 함께 사는 세상 해외 특파원 보고 교육! 학교 현장 미디어누리 어린이기자 시민기자 기사쓰기 오피니언 미디어窓 미디어칼럼 건강칼럼 기고 행사 유치부 축구대회 아름다운 동행 기사검색 검색 S2N2 이전 다음 제주도관광협회, 1·2월 ‘베스트 관광인’ 선정 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 뉴스 경제 제주도관광협회, 1·2월 ‘베스트 관광인’ 선정 김형훈 기자 승인 2020.03.16 14:26 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 제주특별자치도관광협회(회장 부동석)가 지난 12일 올해 1월과 2월의 ‘베스트 관광인’을 선정하고, 선정패를 전달했다. 1월의 베스트 관광인은 탐라승마장 강정열 팀장이다. 그는 항상 밝고 긍정적인 마인드로 관광객을 맞이하고 승마체험을 통해 관광객들에게 좋은 추억과 인상을 심어줄 수 있도록 노력했다. 2월 베스트 관광인으로 선정된 하나C&amp;C 이봉민 실장이다. 그는 은 제주관광과 관련된 디자인 및 출판물제작 업무를 책임지고 있으며 제주관광의 이미지 향상에 노력한 점이 인정을 받았다. 저작권자 © 미디어제주 무단전재 및 재배포 금지 김형훈 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 댓글입력 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 실시간 댓글 밥을 같이 먹는 식구가 서로 살아갈 힘을 주고 받듯 책을 함께 공유하는 것이 같은 원리라는 말이 깊이 와 닿네요~ 아이들 어릴적 책을 읽어 주면서 정서적 교감했던 행복한 기억이 있네요. 요즘은 바쁘다는 핑계로 책 읽어주기를 못했는데 다시 도전해봐야 겠네요. 혼자보다 함께 해야 하는 현 시대에 필요한 맞춤형 독서지도라는 생각이 듭니다 잘 읽었습니다. 내년엔 저도 참여해보고 싶네요~~ 여러 권 읽는 것보다 한 권을 여러 명이 토론하는 것이 낫다는 말 공감합니다^^ 가장 많이 읽은 기사 1제19회 賢테니스회장배 전도클럽대항 테니스대회 ‘후끈’ 2한글서예 ‘한평생 한길’, 한곬 현병찬 선생 세종문화상 수상 3서귀포시, '중장년 스타트업 부트캠프' 참가자 모집 4제주의 얼을 담다 ... 탐라문화제, 3년만에 대면행사로 5선흘 동백동산에서 평화의 노래를 "제주4.3 평화음악축제" 6제주TP 생물자원연구, 한국자원식물학회에서도 ‘주목’ SPONSORED 신문사소개 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 중앙로 270-1 5층(이도이동, 백두빌딩) 대표전화 : 064-725-3456 팩스 : 064-725-3458 명칭 : (주) 미디어제주 제호 : 미디어제주 등록번호 : 제주 아 01003 등록일 : 2005-10-17 발행인 : 고승영 편집인 : 고승영 청소년보호책임자 : 고승영 미디어제주 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 미디어제주. All rights reserved. mail to mediajeju@mediajeju.com 위로</t>
-  </si>
-  <si>
-    <t>제주도관광협회 1·2월 베스트 관광인 시상 &lt; 동네방네 &lt; 일과 사람들 &lt; 기사본문 - 제민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 로그인 회원가입 구독신청 한국어 영어 중국어 일본어 베트남어 스페인어 러시아어 일과 사람들 최종편집 2022-10-04 (화) 08:29 facebook twitter instagram youtube 기사검색 검색 제민방송 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 뉴스 정치 경제 사회/복지 교육 스포츠/레져 기획 진행 연재 지난 연재 오피니언 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 문화뉴스 공연/전시 출판/문학 방송/영화 Life/건강 WEEK&amp;팡 종교 연예 일과 사람들 동네방네 인사 화촉 부음 WeLove 진행 프로젝트 지난 프로젝트 해녀 특별기획 4∙3 4·3뉴스 4·3은 말한다 4·3기획 WEEK&amp;팡 진행연재 지난연재 コリアニユ-ス 동네방네 인사 화촉 부음 본문영역 이전 기사보기 다음 기사보기 제주도관광협회 1·2월 베스트 관광인 시상 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 일과 사람들 동네방네 제주도관광협회 1·2월 베스트 관광인 시상 기자명 고 미 기자 입력 2020.03.15 14:51 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 탐라승마장 팀장 강정열(사진 왼쪽)과 이봉민 하나 C&amp;C실장강정열 탐라승마장 팀장·이봉민 하나C&amp;C 실장제주특별자치도관광협회(회장 부동석)의 1·2월 베스트 관광인에 강정열 탐라승마장 팀장과 이봉민 하나C&amp;C 실장이 각각 선정됐다. 강 팀장은 밝은 미소와 긍정적인 마인드로 이용객 만족도 극대화에 노력하며 동종 업계의 모범이 됐다. 이 실장은 관광 관련 디자인과 출판물 제작에 힘쓰며 관련 공모전에서 입상하는 등 제주 관광 이미지 제고에 노력한 점을 인정받았다. 도관광협회는 이들 베스트 관광인들에게 선정패와 친절 키움 꽃 화분을 전달했다. 고 미 기자 popmee@hanmail.net 다른기사 보기 저작권자 © 제민일보 무단전재 및 재배포 금지 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 최신뉴스 오늘의 운세 10월4일 (음력9월 9일) 2022년 미디어 콘테스트 부문별 최우수상 [무공침] "안전산행 위해 예방수칙 준수" [사설] 低임금 제주경제 언제까지 놔둘건가 [사설] 고령화 속도가 보내는 신호를 읽어라 포토뉴스 [포토뉴스] 은색 물드는 새별오름 [포토뉴스] 오늘은 犬이 주인공 [사진뉴스] "우리의 소중한 유산 무형문화재 함께 즐겨요" [포토뉴스] 추석 분위가 나는 제주시오일장 인기뉴스 1 20년 이상 아파트 33곳 '재건축' 계획 제시 2 제주 국악인들 전국대회 대상 쾌거 3 폐현수막 의상 '눈길'..."제주 탐라문화제 새바람 기대" 4 환경과 문화가 만나면, 푸르게 더 푸르게 5 저금리 갈아타기 제주 소상공인 '사각' 6 한라산 백록담 60대 응급환자...헬기 이송 7 제주도선수단 제103회 전국체전 '출전'…"메달 68개 이상 목표" 8 [시론담론]인사와 임기, 그리고 권력 하단영역 하단메뉴 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 RSS 매체정보 발행·편집인 : 양치석 청소년보호책임자 : 김태음 제주특별자치도 제주시 평화로 2700 제민일보사 등록번호 : 제주특별자치도 아01133 등록일 : 2021-09-06 대표전화 : (064) 741-3111 팩스 : (064) 741-3117 기사제보 : (064) 741-3220 광고문의 : (064) 741-3121 제민일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제민일보. All rights reserved. mail to edijemin@chol.com 위로 전체메뉴 전체기사 제민방송 전체 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 정치 전체 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 경제 전체 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 사회 전체 사회종합 사건/사고 환경 해양 노동 복지 도민기자 마당 청소년기자 마당 날씨 교육 전체 교육종합 대학가 입시정보 우리학교소식 청소년/어린이 스포츠/레져 전체 스포츠종합 축구 야구 농구/배구 골프 경마 평화마라톤 백록기 제민기 기획 전체 진행 연재 지난 연재 오피니언 전체 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 전체 문화뉴스 공연/전시 출판/문학 방송/영화 연예 Life/건강 WEEK&amp;팡 종교 책 읽어주는 남자 강혜명의 제주아리아 일과 사람들 전체 동네방네 인사 화촉 부음 WeLove 전체 진행 프로젝트 지난 프로젝트 해녀 전체 특별기획 4∙3 전체 4·3뉴스 4·3은 말한다 4·3기획 제주4·3 이제는 기록유산으로 コリアニユ-ス 핫뉴스 전체 무공침 제민포커스 와이드 진단 해설 제민현장 지역뉴스 전체 종합 제주시 서귀포시 읍면동 농사정보 WEEK&amp;팡 전체 진행연재 지난연재 News Archive 전체 신년∙창간특집호 Voice 만화/만평 오늘의 운세 기타 독자게시판 제민일보 안내 전체 알림/사고 올해의 제주인 독자위원회의/윤리교육 주요 사업 코로나19 [6·1 지방선거] 안테나 전체 제주도지사 제주도교육감 도의원(제주시) 도의원(서귀포시) 교육의원 제주시을 국회의원 보궐선거 [2022 6·1지방선거] 우리동네 현안 해결사는 [2022 6·1지방선거] 파워인터뷰 [6·1 지방선거 및 보궐선거] 후보 주요 일정 제민일보 소개 회장인사말 비전 연혁 사업 출판 찾아오시는길 PDF 보기 전체메뉴닫기</t>
-  </si>
-  <si>
-    <t>장애물 없는 관광환경 조성...제주도 리프트차량 지원사업 추진 &lt; 정치 &lt; 기사본문 - 제민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 로그인 회원가입 구독신청 한국어 영어 중국어 일본어 베트남어 스페인어 러시아어 정치 최종편집 2022-10-04 (화) 08:29 facebook twitter instagram youtube 기사검색 검색 제민방송 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 뉴스 정치 경제 사회/복지 교육 스포츠/레져 기획 진행 연재 지난 연재 오피니언 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 문화뉴스 공연/전시 출판/문학 방송/영화 Life/건강 WEEK&amp;팡 종교 연예 일과 사람들 동네방네 인사 화촉 부음 WeLove 진행 프로젝트 지난 프로젝트 해녀 특별기획 4∙3 4·3뉴스 4·3은 말한다 4·3기획 WEEK&amp;팡 진행연재 지난연재 コリアニユ-ス 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 본문영역 이전 기사보기 다음 기사보기 장애물 없는 관광환경 조성...제주도 리프트차량 지원사업 추진 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 정치 장애물 없는 관광환경 조성...제주도 리프트차량 지원사업 추진 기자명 이은지 기자 입력 2020.03.15 13:49 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 27일까지 전세버스 업자 대상 모집…최대 2억원 지원 제주도가 장애물 없는 관광환경 조성을 위해 '관광약자 전용 리프트차량 지원사업'을 추진한다. 제주도는 오는 27일까지 관광약자 전용 리프트차량 지원사업을 홈페이지에 공고하고 사업에 참여할 전세버스 업체를 공모한다고 15일 밝혔다. 올해에는 기존 3대 지원 규모에서 1대를 추가, 모두 4대를 지원할 계획이다. 선정업체는 2억원 범위 내에서 리프트차량 도입비용의 90%를 지원받을 수 있다. 참여를 희망하는 업체는 오는 27일까지 공고문에 첨부된 신청 서식의 사업계획서, 재무제표 등 구비서류를 갖춰 제주도 관광정책과로 제출하면 된다. 이은지 기자 이은지 기자 ez1707@daum.net 다른기사 보기 저작권자 © 제민일보 무단전재 및 재배포 금지 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 최신뉴스 오늘의 운세 10월4일 (음력9월 9일) 2022년 미디어 콘테스트 부문별 최우수상 [무공침] "안전산행 위해 예방수칙 준수" [사설] 低임금 제주경제 언제까지 놔둘건가 [사설] 고령화 속도가 보내는 신호를 읽어라 포토뉴스 [포토뉴스] 은색 물드는 새별오름 [포토뉴스] 오늘은 犬이 주인공 [사진뉴스] "우리의 소중한 유산 무형문화재 함께 즐겨요" [포토뉴스] 추석 분위가 나는 제주시오일장 인기뉴스 1 20년 이상 아파트 33곳 '재건축' 계획 제시 2 제주 국악인들 전국대회 대상 쾌거 3 폐현수막 의상 '눈길'..."제주 탐라문화제 새바람 기대" 4 환경과 문화가 만나면, 푸르게 더 푸르게 5 저금리 갈아타기 제주 소상공인 '사각' 6 한라산 백록담 60대 응급환자...헬기 이송 7 제주도선수단 제103회 전국체전 '출전'…"메달 68개 이상 목표" 8 [시론담론]인사와 임기, 그리고 권력 하단영역 하단메뉴 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 RSS 매체정보 발행·편집인 : 양치석 청소년보호책임자 : 김태음 제주특별자치도 제주시 평화로 2700 제민일보사 등록번호 : 제주특별자치도 아01133 등록일 : 2021-09-06 대표전화 : (064) 741-3111 팩스 : (064) 741-3117 기사제보 : (064) 741-3220 광고문의 : (064) 741-3121 제민일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제민일보. All rights reserved. mail to edijemin@chol.com 위로 전체메뉴 전체기사 제민방송 전체 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 정치 전체 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 경제 전체 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 사회 전체 사회종합 사건/사고 환경 해양 노동 복지 도민기자 마당 청소년기자 마당 날씨 교육 전체 교육종합 대학가 입시정보 우리학교소식 청소년/어린이 스포츠/레져 전체 스포츠종합 축구 야구 농구/배구 골프 경마 평화마라톤 백록기 제민기 기획 전체 진행 연재 지난 연재 오피니언 전체 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 전체 문화뉴스 공연/전시 출판/문학 방송/영화 연예 Life/건강 WEEK&amp;팡 종교 책 읽어주는 남자 강혜명의 제주아리아 일과 사람들 전체 동네방네 인사 화촉 부음 WeLove 전체 진행 프로젝트 지난 프로젝트 해녀 전체 특별기획 4∙3 전체 4·3뉴스 4·3은 말한다 4·3기획 제주4·3 이제는 기록유산으로 コリアニユ-ス 핫뉴스 전체 무공침 제민포커스 와이드 진단 해설 제민현장 지역뉴스 전체 종합 제주시 서귀포시 읍면동 농사정보 WEEK&amp;팡 전체 진행연재 지난연재 News Archive 전체 신년∙창간특집호 Voice 만화/만평 오늘의 운세 기타 독자게시판 제민일보 안내 전체 알림/사고 올해의 제주인 독자위원회의/윤리교육 주요 사업 코로나19 [6·1 지방선거] 안테나 전체 제주도지사 제주도교육감 도의원(제주시) 도의원(서귀포시) 교육의원 제주시을 국회의원 보궐선거 [2022 6·1지방선거] 우리동네 현안 해결사는 [2022 6·1지방선거] 파워인터뷰 [6·1 지방선거 및 보궐선거] 후보 주요 일정 제민일보 소개 회장인사말 비전 연혁 사업 출판 찾아오시는길 PDF 보기 전체메뉴닫기</t>
-  </si>
-  <si>
-    <t>제주도 중문관광단지 맛집 ‘색달식당 중문본점’ 향토맛을 그대로 살린 갈치조림 이목 받아 &lt; 일반 &lt; 사회문화 &lt; 기사본문 - 뉴스저널리즘 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 편집. 2022-10-04 10:40 (화) 로그인 회원가입 모바일웹 naver post Mobile 종합뉴스 정치 경제 사회문화 영화 공연·전시 미디어 라이프 일반 대중문학 문학 시·시 비평 소설 작가의 시선 포토 · 영상 전체메뉴 버튼 검색버튼 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도 중문관광단지 맛집 ‘색달식당 중문본점’ 향토맛을 그대로 살린 갈치조림 이목 받아 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 일반 제주도 중문관광단지 맛집 ‘색달식당 중문본점’ 향토맛을 그대로 살린 갈치조림 이목 받아 기자명 최태협 입력 2020.03.14 11:00 댓글 0 다른 공유 찾기 바로가기 본문 글씨 키우기 본문 글씨 줄이기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 구글+(으)로 기사보내기 네이버밴드(으)로 기사보내기 네이버블로그(으)로 기사보내기 핀터레스트(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 봄철 푸른 바다와 봄 꽃들이 만개한 제주도를 찾는 여행객들이 늘고 있다. 3월 제주도는 제주유채꽃축제 등 봄 내음이 물씬 풍기는 축제들과 행사들이 열린다. 또한 서귀포 상효원과 튤립 축제가 펼쳐지는 한림공원도 빼놓기엔 아쉽다. 특히 제주도 여행의 힐링코스라 할 수 있는 오설록 티 뮤지엄은 녹차밭을 보며 녹차로 만든 디저트와 함께 여행으로 지친 몸을 달래면서 낭만과 여유를 느낄 수 있어 많은 여행객들이 찾는 곳이다.또한 제주도의 봄철여행과 함께 놓칠 수 없는 것이 바로 맛집이다. 제주도에는 특색 있는 맛집들이 많아 식도락 여행지로도 더할 나위 없이 좋은 여행지중 한곳이다. 이중 색달식당 중문본점은 중문관광단지에서 1분 거리에 위치해 있으며 이곳의 메인 요리는 통갈치조림으로 생물갈치다.또한 더불어 세트메뉴도 가성비 좋게 먹을 수 있어 가성비를 챙길 수가 있으며 이곳은 픽업서비스를 제공해서 근처 숙소에서 편하게 갈 수 있다.제주 서귀포 맛집으로 손꼽히고 있을 정도로 정갈하고 맛 좋은 메뉴들이 인기가 많으며 기본적으로 많이 인기가 있는 메뉴는 문어통갈치세트 메뉴이다. 이는 고등어구이가 서비스로 나오고 돌솥밥과 성게미역국이 기본으로 포함 되어 나오기 때문에 가격대 또한 합리적이라고 유명하다. 손질도 직원분들이 다 하고 있기 때문에 편안하게 먹을 수 있는 중문관광단지 맛집이다.또한 근처에 있는 관광지 중문색달해변 등은 필수 제주도 방문 코스이며, 제주신라호텔 숙소 근처에 위치하고 있어 많은 사람들에게 사랑받고 있다.제주도 명소를 돌다 보면 허기가져 많은 사람들이 맛집을 검색하지만 대부분 다 비슷한 메뉴들과는 차원이 다른 색달식당 중문점으로 중문관광단지 입구에서 1분 거리에 대표적으로 즐길 수 있으며 모든 메뉴의 구성이 잘 되어 있어 합리적으로 식사를 할 수 있고 부드러운 식감도 느껴볼 수 있다.가족들이나 연인, 친구끼리 가기에도 좋은 가격대와 코스요리를 준비하고 있어 저녁시간에 식사하기에 전혀 부족함이 없다. 또한 이곳은 오랫동안 연구해온 방법으로 조리하고 있어 부담이 없으며 건강에도 좋은 재료들을 사용하고 있기 때문에, 남녀노소 누구나 편하게 즐길 수 있는 맛도 느낄 수 있다.친철한 서비스는 물론 알찬 구성을 통해서 손님들에게 만족감을 제공하고 있어 꾸준한 인기를 받고 있다. 제주 갈치조림 맛집 알아보는 사람들이라면 중문관광단지 맛집 ‘색달식당 중문본점’ 방문해 볼 수 있다. 최태협 newspaper3859@naver.com 저작권자 © 뉴스저널리즘 무단전재 및 재배포 금지 SNS 기사보내기 공유 이메일 기사저장 주요기사 文 정부 금융위 산하 공공기관 6곳, 비정규직 제로화에 혈세 71억 투입 현대건설 등 대기업 10곳, 2년 8개월간 안전보건교육 미실시 문재인 정부, 탈원전 공약 이행하려면 전기요금 40% 올려야 보고 받고도 묵살 '코리아세일페스타', 배우 차태현 홍보모델 발탁 지난 5년간 반도체 원재료 '중국 의존도' 크게 늘어나...對日 낮추자 對中 ↑ 신용보증기금, 반도체 건설산업에 ‘공동 프로젝트 보증’ 지원 이 시각 추천뉴스 강성노조 경험 안해본 한화그룹, 대우조선 노조가 인수 '걸림돌' 이정재X정우성 '헌트', IPTV·OTT에서 극장 동시 서비스 한화-대우조선 인수설에 한화에어로스페이스 주가급락, 대우조선해양은 급등세 2년 만에 2200선 깨진 코스피…증권가 "더 떨어진다" "이기적이고 악랄하다"...현대제철 당진 노조를 바라보는 수요업체의 비판 현대산업개발·삼표산업·DL이앤씨 등 건설사 대표들 줄줄이 국감 선다 기후변화 대응을 위해…서울환경연합, BTS ‘지민 숲’ 조성 강성노조 경험 안해본 한화그룹, 대우조선 노조가 인수 '걸림돌' 개의 댓글 회원로그인 댓글 내용입력 0 / 400 등록 댓글 정렬 BEST댓글 BEST 댓글 답글과 추천수를 합산하여 자동으로 노출됩니다. 닫기 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 [재계산책] [재계산책] 제약업계 오너 2·3세 전면 배치...'경영권 바통터치' [재계산책] 식품업계 오너가 3세, 핵심 보직 '착착'… 앞당겨지는 '3세 경영' 많이 본 뉴스 1 강성노조 경험 안해본 한화그룹, 대우조선 노조가 인수 '걸림돌' 2 이정재X정우성 '헌트', IPTV·OTT에서 극장 동시 서비스 3 한화-대우조선 인수설에 한화에어로스페이스 주가급락, 대우조선해양은 급등세 4 2년 만에 2200선 깨진 코스피…증권가 "더 떨어진다" 5 "이기적이고 악랄하다"...현대제철 당진 노조를 바라보는 수요업체의 비판 6 현대산업개발·삼표산업·DL이앤씨 등 건설사 대표들 줄줄이 국감 선다 7 기후변화 대응을 위해…서울환경연합, BTS ‘지민 숲’ 조성 8 美 물가상승감축법 시행되면 국내 자동차업계 '비상'...수출길 막힌다 9 올해 국감에도 대기업 총수 증인신청 빗발쳐...기업가 '흠집내기' 재탕될까 10 식약처, 국감 증인으로 기업인 10명 무더기 소환 Opinion [키워드로 본 2021] 재계, 성과급 논란·재벌가 집안 싸움 '시끌' [키워드로 보는 2021] 자동차업계, 반도체 공급부족·현대차그룹 내수지배력 확대·전기차 시대 개화 등 [키워드로 본 2021] IT·전자업계, LG폰 철수·반도체 공급부족·미국 투자 붐·빨라진 세대교체 등 이슈 [재계산책] 제약업계 오너 2·3세 전면 배치...'경영권 바통터치' [재계산책] 식품업계 오너가 3세, 핵심 보직 '착착'… 앞당겨지는 '3세 경영' 이 시각 헤드라인 삼성전자, 2025년 2나노·2027년 1.4나노 양산 돌입 현대차, 수소차 보급으로 제주 그린수소 글로벌 허브 구축 "이기적이고 악랄하다"...현대제철 당진 노조를 바라보는 수요업체의 비판 치킨업계 1위 윤진호 교촌 대표 국감 소환 이유는? 정용진 신세계 부회장 "업무에 참고하십시오"…이마트 바비큐존 직접 홍보 NJ Fact Chack [NJ Fact Check] 우리금융 민영화, 비가격 요소로 판가름 [NJ Fact Check] 루이비통, 亞 전초기지 한국에서 중국으로 [NJ Fact Check] 메리츠금융, 주주가치보다 기업가치 생각할 때 매체소개 찾아오시는 길 개인정보처리방침 청소년보호정책 저작권보호정책 기사제보 광고문의 매체정보 서울특별시 중구 서소문로 38 (센트럴타워) 610호 대표전화 : 02-393-9400 팩스 : 02-393-4242 청소년보호책임자 : 이재우 법인명 : (주)이도문화 제호 : 뉴스저널리즘 등록번호 : 경기,아53038 등록일 : 2018-01-03 발행일 : 2018-01-03 발행인 : 원경민 편집인 : 서영백 뉴스저널리즘 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. 「열린보도원칙」 당 매체는 독자와 취재원 등 뉴스이용자의 권리 보장을 위해 반론이나 정정보도, 추후보도를 요청할 수 있는 창구를 열어두고 있음을 알려드립니다. 고충처리인 신용준 02-393-9400 comaritime@naver.com Copyright © 2022 뉴스저널리즘. All rights reserved. mail to mibking@ngetnews.com 위로 전체메뉴 전체기사 정치 경제 사회문화 전체 영화 공연·전시 미디어 라이프 기획특집 대중문학 전체 문학 시·시 비평 소설 작가의 시선 인사동정 포토 · 영상 전체메뉴닫기</t>
-  </si>
-  <si>
-    <t>제주도 내국인 관광객 70% 줄었다...외국인은 90% 감소 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-04 10:32 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도 내국인 관광객 70% 줄었다...외국인은 90% 감소 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 경제 제주도 내국인 관광객 70% 줄었다...외국인은 90% 감소 원성심 기자 headlinejeju@headlinejeju.co.kr 승인 2020.03.02 18:16 댓글 3 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 코로나19 직격탄 제주도 관광시장 초토화 코로나19 위기경보가 '심각' 단계로 격상된 후 제주도를 방문한 관광객이 무려 70% 정도 감소한 것으로 나타났다. 2일 제주특별자치도와 제주도관광협회의 관광객 통계자료에 따르면, 삼일절인 1일 제주도를 찾은 관광객은 1만 3739명에 불과했다. 지난해 삼일절에 4만6664명이 방문했던 것과 비교하면 3분 1수준으로, 무려 70.6%의 감소율을 보였다. 외국인은 337명이 입도해 지난해 같은 날(3820명)과 비교해 91.2% 감소한 것으로 나타났다. 지난달 4일 '무비자 입국'이 중단된 후 제주국제공항의 중국노선 항공편이 완전히 끊기면서 비자를 발급받아 방문하는 중국인은 하루 몇십에 불과한 상황이다. 여기에 국내 코로나19 확산으로 일본인 관광객은 완전히 끊겼다. 1일 제주를 방문한 일본인은 단 '8명'에 불과했다. 외국인 시장이 완전히 초토화된데 이어, 내국인 관광객도 하루가 다르게 감소폭이 커지고 있다. 1일 제주도를 방문한 내국인은 1만3402명으로 지난해 같은 날 4만2884명과 비교해 68.7% 줄었다. 내국인 관광객은 지난 2월 중순까지만 하더라도 30~40%의 감소율을 보였으나, 지난달 23일 코로나19 위기경보가 심각단계로 격상된 후에는 감소율이 50%대에 이어 60%대로 급격히 높아졌고, 현재 70% 수준에 달했다. 문제는 현재 국내 코로나19 사태 추이를 볼 때 앞으로 내국인 방문객의 감소폭은 더 커질 수 있다는 것. 호텔업계의 한 관계자는 "관광시장이 현 시점이 최악으로 바닥을 친 것이라면 좋은데, 아직 바닥을 친 것이 아닌 것으로 보인다"면서 "3월 중순까지는 더 추락할 수도 있어 걱정이 크다"고 말했다. 한편, 관광객이 크게 줄어들면서 제주국제공항은 국제선은 물론이고 국내선도 매우 한산한 분위기가 이어지고 있다. 국내 일부 저비용항공사에서는 고육지책으로 김포 출발 제주행 항공권을 단돈 1만원도 안되는 가격에 판매하는 초저가 특판을 이어가고 있다. &lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 원성심 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 관련기사 비행기 탑승객 65% 감소...제주행 '3500원' 항공권 다시 등장 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 3 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 멍개 2020-03-03 18:52:01 | 223.***.***.56 더보기 삭제하기 수정하기 제주경제 큰 걱정입니다. 다 죽게됐어요. 중국을 막아야 하는데~ 답글쓰기 1 2 이지히 2020-03-02 22:25:32 | 211.***.***.17 더보기 삭제하기 수정하기 중국비행기 다시들어오기 시작하던데 답글쓰기 0 1 도민 2020-03-02 19:41:59 | 14.***.***.188 더보기 삭제하기 수정하기 아주 돟아요 도로가 뻥뚫어 대박이고 짱개 개소리 없고.. 쓰레기 엊ㅅ고...... 답글쓰기 5 3 오늘의 주요 뉴스 제주형 구직청년 재난지원금, 8365명에 42억원 지급 공익제보 사실로 밝혀졌으나...신고자는 4년째 외로운 싸움 제주, JDC 지방세 감면율 축소...착한 임대인 세제감면 연장 제주, 도시주거환경정비 기본계획 첫 수립...재건축 예정구역 지정 설왕설래 說往說來 제주, 초등 돌봄교실 '오후 8시까지' 운영계획에 노조 반발...왜? 사건사고 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 배우 곽도원, 제주서 음주운전 적발...공익광고 송출 중단 많이 본 뉴스 실시간 댓글 1 공익제보 사실로 밝혀졌으나...신고자는 4년째 외로운 싸움 2 "사람에게 가장 필요한 것은, 사랑이죠" 임피제 신부님 추모음악회 3 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 4 서귀포 읍면 6개지구, 지적재조사지구 경계확정 통지 5 제1회 국제농기계 전동화·자율주행 엑스포, 내달 8~10일 개최 6 제9회 전국 노인 게이트볼 대회, 제주선수단 첫 우승 7 [강철수의 포토 에세이] 제주와 인연 깊은 강진만 끝자락 마량항 8 서귀포시 동부보건소, '찾아가는 노인 결핵검진' 실시 9 꼭 필요한 장애인에게 장애인주차표지 발급 10 가을 골프시즌 알리는 KLPGA 대회 제주서 개최 1 참으로 무식한 시민단체라고 할 수 밖에... 공장도 없애야 하고 자동차도 다 없애자고 주장하고. 제주도행 비행기도 운항 중단해야 한다고 주장하는 거랑 뭐가 다른지... 누가 저렇게 하라고 시민단체에게 지시하는 사람이 있나요. 2 묘산봉관광지 개발 에 앞서 일주동로에서 관광지까지의 현행 왕복 2차선도로 부터 당장 4차선이상의 도로를 확보 하는것과 주변 인근도로확보가 우선시 되어야하며 주변 경관정비또한 힘써야 할것입니다 3 언론 국회 종교단체 행정관청(고용노동부 지방노동위원회 금감원 국세청 국가인권위원회 국가권익우원회 등)에 억울함과 부당함을 호소해도 외면당한다. 내가 삶을 잘못 살아서일까 아님 대기업을 상대로 무모한 행동을 해서일까? 아니면 거짓말을 해서일까? 이런 어려움과 고통을 당하는이유는 삼성보다 더한 교보생명의 노조탄압결과이다. 언론에 알려진 교보생명과 회사내에서 벌어지는 갑질과 횡포는 상상이상이다. 직원들 위협하여 징계자료를 조작하고 위조하고 법인세를 탈루(국세청 21.1월 신고-아직도 서울지방국세청 조사4국에서는 조사중 이라고만 한다) 회장과 임원보수도 주주총회 이사회 이사회 산하 보수의원회 의결없이 지급하다 노조위원장이 지적하고 21.10월 금융감독원 지적을 당하고 나서야 보수의원회 의결을 거친다. 그래도 법인세법 위반이다. 이런 기본적인 사실도 모르는 곳이 교보생명이다. 산업안전보건법에 의한 산업안전보건위 미개최 신고로 과태료를 부과받았고 4 이런 분들을 보호하지 못하는 진짜 이유가 있다 법으로 보호해줘야 한다는 말도 맞다 그러나 그보다는 조직 내 사람들이 문제이다 이런 분들을 동료들이 먼저 보호하려 해야 하는데 동료들은 다 자기 먹고 살 생각만 한다 노조는 뭐하나. 이런데 자극 나서야지 5 아니 불법주정차 안한다면서ㅋㅋ 주민체육대회때 다 불법주차 아닌가? 삼양초 주변으로 차 둘러쌓여서 난리도 아니었는데 ㅋㅋ 불법주차 않하기?ㅋ 6 오랜시간 기억 할겁니다. 그리고 간단한것 부터 실천해야 겠습니다. 좋은글 감사합니다. 7 현장에서의 음악적 감동과 임신부님이 우리에게 전하는 메시지까지 전달되네요. 같은 공간에 함께 있었던 것만으로도 감동입니다. 8 제발 고가도로 같은걸로 신호안받고 바로 보내는걸로 만들어줘 9 보존관리지구 임야는 소유주가 아무 경영계획도 할 수 없어서 전혀 소득이 없는데 종합합산 고율의 세율을 적용한다는 것이 납득이 안갑니다. 법령을 수정 보완해야 할 여지가 있다고 봅니다. 10 축하합니다. 대단하십니다. 부럽습니다~~~ 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
-  </si>
-  <si>
-    <t>제주도 중문관광단지 맛집 ‘색달식당 중문본점’ 제주도 갈치조림 현지인들 즐겨찾는 곳으로 이목 &lt; 일반 &lt; 사회문화 &lt; 기사본문 - 뉴스저널리즘 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 편집. 2022-10-04 10:40 (화) 로그인 회원가입 모바일웹 naver post Mobile 종합뉴스 정치 경제 사회문화 영화 공연·전시 미디어 라이프 일반 대중문학 문학 시·시 비평 소설 작가의 시선 포토 · 영상 전체메뉴 버튼 검색버튼 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도 중문관광단지 맛집 ‘색달식당 중문본점’ 제주도 갈치조림 현지인들 즐겨찾는 곳으로 이목 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 일반 제주도 중문관광단지 맛집 ‘색달식당 중문본점’ 제주도 갈치조림 현지인들 즐겨찾는 곳으로 이목 기자명 최태협 입력 2020.03.09 11:00 댓글 0 다른 공유 찾기 바로가기 본문 글씨 키우기 본문 글씨 줄이기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 구글+(으)로 기사보내기 네이버밴드(으)로 기사보내기 네이버블로그(으)로 기사보내기 핀터레스트(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 2월이 가고 3월이 찾아오며 선선한 날씨의 봄이 다가오고 있다. 봄 하면 가장 먼저 떠오르는 여행지인 제주도를 찾는 여행객도 많아지고 있다. 제주도하면 가장 먼저 떠오르는 것은 서귀포이다. 사면이 바다로 둘러싸여 있는 관광명소답게 아름다운 바다를 즐겨볼 수 있다.색달식당은 제주도 맛집, 서귀포 맛집으로 유명하다. 메인 요리는 통갈치 조림으로 제주 갈치조림 맛집으로도 불리고 있다.중문관광단지에서 약 1분거리에 위치하고 있는데 제주 중문 맛집, 중문관광단지 맛집을 찾는 관광객들로 연일 북새통이다. 세트메뉴 또한 가성비 좋게 식사를 즐겨볼 수 있다는 장점이 있어 제주 갈치조림 맛집인 색달식당을 찾는 이들이 늘어나고 있다.픽업서비스 또한 제공하고 있기 때문에 근처 숙소를 예약하면 식사를 하러 편히 방문할 수 있다.친절한 서비스는 물론이고 속이 꽉 찬 구성을 통하여 찾는 손님들의 만족도가 높다. 통갈치 조림 외에도 인기가 좋은 메뉴는 문어 통갈치 세트메뉴이다. 통갈치와 문어를 함께 즐겨볼 수 있는 메뉴로 고등어구이가 서비스로 제공이 된다. 돌솥밥과 성게 미역국또한 기본으로 포함이 되어 제공되며, 손질도 직원이 전부 해주기 때문에 편하게 식사가 가능하다.산방산과 카멜리아힐, 중문 색달 해변과 같은 관광 명소들이 주변에 있기 때문에 관광을 하다가 허기가 질 때 찾기 좋다. 제주 롯데호텔과 제주 신라호텔과도 인접하여있기 때문에 관광객들이 찾아오기 좋은 장소에 위치하고 있다는 평이 많다.생물갈치를 사용하여 쫀득한 식감과 신선함을 살려 식사가 가능한 제주도 맛집 색달식당은 단품과 세트메뉴 모두 알차고 가성비 좋은 구성으로 남녀노소를 불문하고 편하게 즐겨볼 수 있다.중문관광단지 맛집 색달식당 중문본점은 오전 9시부터 오후 9시 30분까지 영업을 하기 때문에 허기지고 편한 시간대에 방문하여 식사를 할 수 있다. 푸짐한 양과 오랜 시간 동안 숙달된 손맛으로 특히나 가족 단위 여행객들에게 인기가 높다.마지막 주문 시간은 오후 8시 30분이며, 여유로운 식사가 가능하다. 자세한 내용은 전화문의나, 중문 맛집 홈페이지서 확인이 가능하다. 최태협 newspaper3859@naver.com 저작권자 © 뉴스저널리즘 무단전재 및 재배포 금지 SNS 기사보내기 공유 이메일 기사저장 주요기사 文 정부 금융위 산하 공공기관 6곳, 비정규직 제로화에 혈세 71억 투입 현대건설 등 대기업 10곳, 2년 8개월간 안전보건교육 미실시 문재인 정부, 탈원전 공약 이행하려면 전기요금 40% 올려야 보고 받고도 묵살 '코리아세일페스타', 배우 차태현 홍보모델 발탁 지난 5년간 반도체 원재료 '중국 의존도' 크게 늘어나...對日 낮추자 對中 ↑ 신용보증기금, 반도체 건설산업에 ‘공동 프로젝트 보증’ 지원 이 시각 추천뉴스 강성노조 경험 안해본 한화그룹, 대우조선 노조가 인수 '걸림돌' 이정재X정우성 '헌트', IPTV·OTT에서 극장 동시 서비스 한화-대우조선 인수설에 한화에어로스페이스 주가급락, 대우조선해양은 급등세 2년 만에 2200선 깨진 코스피…증권가 "더 떨어진다" "이기적이고 악랄하다"...현대제철 당진 노조를 바라보는 수요업체의 비판 현대산업개발·삼표산업·DL이앤씨 등 건설사 대표들 줄줄이 국감 선다 기후변화 대응을 위해…서울환경연합, BTS ‘지민 숲’ 조성 강성노조 경험 안해본 한화그룹, 대우조선 노조가 인수 '걸림돌' 개의 댓글 회원로그인 댓글 내용입력 0 / 400 등록 댓글 정렬 BEST댓글 BEST 댓글 답글과 추천수를 합산하여 자동으로 노출됩니다. 닫기 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 [재계산책] [재계산책] 제약업계 오너 2·3세 전면 배치...'경영권 바통터치' [재계산책] 식품업계 오너가 3세, 핵심 보직 '착착'… 앞당겨지는 '3세 경영' 많이 본 뉴스 1 강성노조 경험 안해본 한화그룹, 대우조선 노조가 인수 '걸림돌' 2 이정재X정우성 '헌트', IPTV·OTT에서 극장 동시 서비스 3 한화-대우조선 인수설에 한화에어로스페이스 주가급락, 대우조선해양은 급등세 4 2년 만에 2200선 깨진 코스피…증권가 "더 떨어진다" 5 "이기적이고 악랄하다"...현대제철 당진 노조를 바라보는 수요업체의 비판 6 현대산업개발·삼표산업·DL이앤씨 등 건설사 대표들 줄줄이 국감 선다 7 기후변화 대응을 위해…서울환경연합, BTS ‘지민 숲’ 조성 8 美 물가상승감축법 시행되면 국내 자동차업계 '비상'...수출길 막힌다 9 올해 국감에도 대기업 총수 증인신청 빗발쳐...기업가 '흠집내기' 재탕될까 10 식약처, 국감 증인으로 기업인 10명 무더기 소환 Opinion [키워드로 본 2021] 재계, 성과급 논란·재벌가 집안 싸움 '시끌' [키워드로 보는 2021] 자동차업계, 반도체 공급부족·현대차그룹 내수지배력 확대·전기차 시대 개화 등 [키워드로 본 2021] IT·전자업계, LG폰 철수·반도체 공급부족·미국 투자 붐·빨라진 세대교체 등 이슈 [재계산책] 제약업계 오너 2·3세 전면 배치...'경영권 바통터치' [재계산책] 식품업계 오너가 3세, 핵심 보직 '착착'… 앞당겨지는 '3세 경영' 이 시각 헤드라인 삼성전자, 2025년 2나노·2027년 1.4나노 양산 돌입 현대차, 수소차 보급으로 제주 그린수소 글로벌 허브 구축 "이기적이고 악랄하다"...현대제철 당진 노조를 바라보는 수요업체의 비판 치킨업계 1위 윤진호 교촌 대표 국감 소환 이유는? 정용진 신세계 부회장 "업무에 참고하십시오"…이마트 바비큐존 직접 홍보 NJ Fact Chack [NJ Fact Check] 우리금융 민영화, 비가격 요소로 판가름 [NJ Fact Check] 루이비통, 亞 전초기지 한국에서 중국으로 [NJ Fact Check] 메리츠금융, 주주가치보다 기업가치 생각할 때 매체소개 찾아오시는 길 개인정보처리방침 청소년보호정책 저작권보호정책 기사제보 광고문의 매체정보 서울특별시 중구 서소문로 38 (센트럴타워) 610호 대표전화 : 02-393-9400 팩스 : 02-393-4242 청소년보호책임자 : 이재우 법인명 : (주)이도문화 제호 : 뉴스저널리즘 등록번호 : 경기,아53038 등록일 : 2018-01-03 발행일 : 2018-01-03 발행인 : 원경민 편집인 : 서영백 뉴스저널리즘 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. 「열린보도원칙」 당 매체는 독자와 취재원 등 뉴스이용자의 권리 보장을 위해 반론이나 정정보도, 추후보도를 요청할 수 있는 창구를 열어두고 있음을 알려드립니다. 고충처리인 신용준 02-393-9400 comaritime@naver.com Copyright © 2022 뉴스저널리즘. All rights reserved. mail to mibking@ngetnews.com 위로 전체메뉴 전체기사 정치 경제 사회문화 전체 영화 공연·전시 미디어 라이프 기획특집 대중문학 전체 문학 시·시 비평 소설 작가의 시선 인사동정 포토 · 영상 전체메뉴닫기</t>
-  </si>
-  <si>
-    <t>제주도 중문관광단지 맛집 ‘색달식당 중문본점’ 갈치조림 만족스러운 퀄리티로 이목 끌어 &lt; 일반 &lt; 사회문화 &lt; 기사본문 - 뉴스저널리즘 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 편집. 2022-10-04 10:40 (화) 로그인 회원가입 모바일웹 naver post Mobile 종합뉴스 정치 경제 사회문화 영화 공연·전시 미디어 라이프 일반 대중문학 문학 시·시 비평 소설 작가의 시선 포토 · 영상 전체메뉴 버튼 검색버튼 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도 중문관광단지 맛집 ‘색달식당 중문본점’ 갈치조림 만족스러운 퀄리티로 이목 끌어 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 일반 제주도 중문관광단지 맛집 ‘색달식당 중문본점’ 갈치조림 만족스러운 퀄리티로 이목 끌어 기자명 최태협 입력 2020.03.07 11:00 댓글 0 다른 공유 찾기 바로가기 본문 글씨 키우기 본문 글씨 줄이기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 구글+(으)로 기사보내기 네이버밴드(으)로 기사보내기 네이버블로그(으)로 기사보내기 핀터레스트(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 제주도 여행을 선택하는 사람들이 제주도 중문 맛집으로 방문하는 색달식당 중문본점이 인기가 많다. 최근에는 평일에도 많은 사람들이 제주도 여행을 하고 있지만 사실상 짧은 기간동안 맛집을 찾기에는 시간이 부족할 수 있다.이에 유명한 색달식당은 중문관광단지에서 1분 거리에 위치해 있으며 이곳의 메인 요리는 통갈치조림으로 생물갈치다.또한 더불어 세트메뉴도 가성비 좋게 먹을 수 있어 가성비를 챙길 수가 있으며 이곳은 픽업서비스를 제공해서 근처 숙소에서 편하게 갈 수 있다.제주 서귀포 맛집으로 손꼽히고 있을 정도로 정갈하고 맛좋은 메뉴들이 인기가 많으며 기본적으로 많이 인기가 있는 메뉴는 문어통갈치세트 메뉴이다. 이는 고등어구이가 서비스로 나오고 돌솥밥과 성게미역국이 기본으로 포함되서 나오기 때문에 가격대 또한 합리적이라고 유명하다. 손질도 직원분들이 다 하고 있기 때문에 편안하게 먹을 수 있는 중문관광단지 맛집이다.또한 근처에 있는 관광지 산방산, 카멜리아힐은 필수 제주도 방문 코스이며, 호텔 숙소 근처에 위치하고 있어 많은 사람들에게 사랑받고 있다.제주도 명소를 돌다 보면 허기가져 많은 사람들이 맛집을 검색하지만 대부분 다 비슷한 메뉴들과는 차원이 다른 색달식당 중문점으로 중문관광단지 입구에서 1분 거리에 대표적으로 즐길 수 있으며 모든 메뉴의 구성이 잘 되어 있어 합리적으로 식사를 할 수 있고 부드러운 식감도 느껴볼 수 있다.가족들이나 연인, 친구끼리 가기에도 좋은 가격대와 코스요리를 준비하고 있어 저녁시간에 식사하기에 전혀 부족함이 없다. 또한 이곳은 오랫동안 연구해온 방법으로 조리하고 있어 부담이 없으며 건강에도 좋은 재료들을 사용하고 있기 때문에, 남녀노소 누구나 편하게 즐길 수 있는 맛도 느낄 수 있다.친철한 서비스는 물론 알찬 구성을 통해서 손님들에게 만족감을 제공하고 있어 꾸준한 인기를 받고 있다. 제주 갈치조림을 알아보는 사람들이라면 중문관광단지 맛집 ‘색달식당 중문본점’ 방문해 볼 수 있다. 최태협 newspaper3859@naver.com 저작권자 © 뉴스저널리즘 무단전재 및 재배포 금지 SNS 기사보내기 공유 이메일 기사저장 주요기사 文 정부 금융위 산하 공공기관 6곳, 비정규직 제로화에 혈세 71억 투입 현대건설 등 대기업 10곳, 2년 8개월간 안전보건교육 미실시 문재인 정부, 탈원전 공약 이행하려면 전기요금 40% 올려야 보고 받고도 묵살 '코리아세일페스타', 배우 차태현 홍보모델 발탁 지난 5년간 반도체 원재료 '중국 의존도' 크게 늘어나...對日 낮추자 對中 ↑ 신용보증기금, 반도체 건설산업에 ‘공동 프로젝트 보증’ 지원 이 시각 추천뉴스 강성노조 경험 안해본 한화그룹, 대우조선 노조가 인수 '걸림돌' 이정재X정우성 '헌트', IPTV·OTT에서 극장 동시 서비스 한화-대우조선 인수설에 한화에어로스페이스 주가급락, 대우조선해양은 급등세 2년 만에 2200선 깨진 코스피…증권가 "더 떨어진다" "이기적이고 악랄하다"...현대제철 당진 노조를 바라보는 수요업체의 비판 현대산업개발·삼표산업·DL이앤씨 등 건설사 대표들 줄줄이 국감 선다 기후변화 대응을 위해…서울환경연합, BTS ‘지민 숲’ 조성 강성노조 경험 안해본 한화그룹, 대우조선 노조가 인수 '걸림돌' 개의 댓글 회원로그인 댓글 내용입력 0 / 400 등록 댓글 정렬 BEST댓글 BEST 댓글 답글과 추천수를 합산하여 자동으로 노출됩니다. 닫기 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 [재계산책] [재계산책] 제약업계 오너 2·3세 전면 배치...'경영권 바통터치' [재계산책] 식품업계 오너가 3세, 핵심 보직 '착착'… 앞당겨지는 '3세 경영' 많이 본 뉴스 1 강성노조 경험 안해본 한화그룹, 대우조선 노조가 인수 '걸림돌' 2 이정재X정우성 '헌트', IPTV·OTT에서 극장 동시 서비스 3 한화-대우조선 인수설에 한화에어로스페이스 주가급락, 대우조선해양은 급등세 4 2년 만에 2200선 깨진 코스피…증권가 "더 떨어진다" 5 "이기적이고 악랄하다"...현대제철 당진 노조를 바라보는 수요업체의 비판 6 현대산업개발·삼표산업·DL이앤씨 등 건설사 대표들 줄줄이 국감 선다 7 기후변화 대응을 위해…서울환경연합, BTS ‘지민 숲’ 조성 8 美 물가상승감축법 시행되면 국내 자동차업계 '비상'...수출길 막힌다 9 올해 국감에도 대기업 총수 증인신청 빗발쳐...기업가 '흠집내기' 재탕될까 10 식약처, 국감 증인으로 기업인 10명 무더기 소환 Opinion [키워드로 본 2021] 재계, 성과급 논란·재벌가 집안 싸움 '시끌' [키워드로 보는 2021] 자동차업계, 반도체 공급부족·현대차그룹 내수지배력 확대·전기차 시대 개화 등 [키워드로 본 2021] IT·전자업계, LG폰 철수·반도체 공급부족·미국 투자 붐·빨라진 세대교체 등 이슈 [재계산책] 제약업계 오너 2·3세 전면 배치...'경영권 바통터치' [재계산책] 식품업계 오너가 3세, 핵심 보직 '착착'… 앞당겨지는 '3세 경영' 이 시각 헤드라인 삼성전자, 2025년 2나노·2027년 1.4나노 양산 돌입 현대차, 수소차 보급으로 제주 그린수소 글로벌 허브 구축 "이기적이고 악랄하다"...현대제철 당진 노조를 바라보는 수요업체의 비판 치킨업계 1위 윤진호 교촌 대표 국감 소환 이유는? 정용진 신세계 부회장 "업무에 참고하십시오"…이마트 바비큐존 직접 홍보 NJ Fact Chack [NJ Fact Check] 우리금융 민영화, 비가격 요소로 판가름 [NJ Fact Check] 루이비통, 亞 전초기지 한국에서 중국으로 [NJ Fact Check] 메리츠금융, 주주가치보다 기업가치 생각할 때 매체소개 찾아오시는 길 개인정보처리방침 청소년보호정책 저작권보호정책 기사제보 광고문의 매체정보 서울특별시 중구 서소문로 38 (센트럴타워) 610호 대표전화 : 02-393-9400 팩스 : 02-393-4242 청소년보호책임자 : 이재우 법인명 : (주)이도문화 제호 : 뉴스저널리즘 등록번호 : 경기,아53038 등록일 : 2018-01-03 발행일 : 2018-01-03 발행인 : 원경민 편집인 : 서영백 뉴스저널리즘 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. 「열린보도원칙」 당 매체는 독자와 취재원 등 뉴스이용자의 권리 보장을 위해 반론이나 정정보도, 추후보도를 요청할 수 있는 창구를 열어두고 있음을 알려드립니다. 고충처리인 신용준 02-393-9400 comaritime@naver.com Copyright © 2022 뉴스저널리즘. All rights reserved. mail to mibking@ngetnews.com 위로 전체메뉴 전체기사 정치 경제 사회문화 전체 영화 공연·전시 미디어 라이프 기획특집 대중문학 전체 문학 시·시 비평 소설 작가의 시선 인사동정 포토 · 영상 전체메뉴닫기</t>
-  </si>
-  <si>
-    <t>제주도, 관광약자 리프트차량 지원사업 참여업체 모집 - 뉴제주일보 × 전체기사 정치/행정 전체 제주도정 청와대 도의회 국회 선거 후보자 정부 도내정가 재·보궐 선거 북한 社告 중앙정가 국정감사 조합장선거 제주시 갑 제주시 을 서귀포시 경제 전체 경제일반 금융 창립기념일 손해사정사 이명헌의보험이야기 사회 전체 사회일반 법원검찰 경찰 기상 사건·사고 사회단체 의료 횡단로 교육/과학 전체 대학 교육청 일반 과학 어린이판 지역 전체 제주시 서귀포시 문화 전체 일반 공연 영화/연예 전시 홈닥터 해연풍 사진으로 본 제주 시와 그림으로 보는 제주어 스포츠 전체 일반 백호기 야구 축구 육상 농구 배구 골프 동계스포츠 태권도 배드민턴 우슈 수영 탁구 체조 레슬링 유도 정구 양궁 격투기 검도 바둑 경마 댄스 올림픽 사람과 사람 전체 동정 프로필 인터뷰 오피니언 전체 사설 부영주 칼럼 "아침" 홍성배 칼럼 제주포럼 기자수첩 기자석 김미영의 뷰티톡 김태윤 박사의 환경, 그리고 인생 이야기 김호성의 정치·행정 이야기 정영민 변호사의 법 이야기 김원현의 아동성장 이야기 제주칼럼 제주시론 제주광장 정흥남 칼럼 강은숙의 가정법률이야기 김종배의 세상털기 배진섭의 공연 이야기 한동명 변호사의 법률 Q&amp;A 제주만평 열린페이지 전체 제주기고 결혼 부음 알림 인사 보도자료 제주 4·3 전체 4.3길을걷다 국제 진행중인 기획 전체 제주어바웃 食(식) 기행 문희주의 제주오롬 스토리 이세끼 주제주일본국총영사가 만난 제주 문화예술산책 송재웅의 책 이야기 김창집의 길이야기 임안순의 농농농 제주&amp;제주인 메이드인 제주 JDC와 함께하는 제주야 시민기자가 뛴다! 창간특집 신년특집 새해설계 기획총괄 특별기획 제주 커피로드 서재철의 섬기행, 섬을 걷다 셰프 인 제주 아이♥제주 제주 농업, 청년이 미래다 종료된 기획 전체 제주미래성장동력,자연에서 찾는다 jdc의 여정과미래 代를 잇는 제주기업 2017 생명을 지키는 약속 내일을 JOB자! 특성화GO! 희망! 나래를 펴다 新제주인 공감愛공간 탐라에서 세계로 제주&amp;제주인 더불어 제주 생존수영 경제매거진 IN제주 메이드인제주ll-향토기업 총선 열전현장 총선 일반 4.13 총선 여론조사 제20대 4.13총선후보에게듣는다 총선브리핑 2017 대권주자에게듣는다 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 유권자가 주인이다 민심탐방 포토에세이 제주의 독립운동가를 찾아서 제주경제, 위기를 기회로 제주인 life 국제전기자동차 엑스포 나눔ㆍ봉사ㆍ행복 삶다도 실력이 인정받는 제주 시네톡 제주한의약, 그 역사속으로 김창집의 올레이야기 2016 우리는 제주 인포그래픽 제주의 마을속으로 자연의 역습 기후변화 나눔이 희망 입니다 4·3 길을 걷다 희망을 나누는 사람들 특성화고 날개를 달다 10대, 나도 저자다! 위클리 커버 제주동네책방 탐방 사서가 추천하는 이달의 도서 시민 문화기획자를 만나다 서재철의 오지기행 화촉 라이프 전체 레저 건강 출판/문학 부고 동영상 인사 방송동영상 현안 진단 뉴스 전체 방송/연예 6·13 지방선거 LIFE in BIZ 전체 일반 최종편집일. 2022-10-04 10:40 (화) 로그인 회원가입 모바일웹 정치 경제 사회 교육/과학 지역 문화 스포츠 기획 오피니언 화촉 부음 기사검색 검색 신임 제주문화예술진흥원장에 김태관 공연 기획자 내정 신임 제주문화예술진흥원장에 김태관 공연 기획자 내정 신임 제주특별자치도 문화예술진흥원장에 제주 출신 김태관 전문 공연 기획자가 내정됐다.제주도는 지난달 28일 도 문화예술진흥원장 최종 임용후보자를 응시번호로 공개했고, 본지 취재 결... 4일부터 요양시설 접촉면회 재허용 4일부터 요양시설 접촉면회 재허용 4일부터 요양병원·시설 입소자와 가족들이 다시 접촉 면회를 할 수 있게 됐다.3일 정부와 제주특별자치도에 따르면 4일부터 요양병원·시설, 정신병원·시설 등 감염취약시설의 코로나19... SNS P  D  F 지면보기 이전 다음 제주도, 관광약자 리프트차량 지원사업 참여업체 모집 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 정치/행정 제주도정 제주도, 관광약자 리프트차량 지원사업 참여업체 모집 현대성 기자 승인 2020.03.13 11:05 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 제주특별자치도는 오는 27일까지 도내 전세버스 업체를 대상으로 관광약자 전용 리프트차량 지원사업 참여 희망 업체를 공모한다고 13일 밝혔다. 제주도는 2억원 범위 내에서 리프트차량 도입 비용의 90%를 지원한다. 올해 지원 대상은 기존 3대에서 4대로 확대됐다. 제주도는 이번 사업이 마무리되면 전세버스 리프트차량이 12대로 늘어나 관광약자의 제주 나들이가 훨씬 수월해질 것으로 전망하고 있다. 사업 신청을 희망하는 업체는 사업계획서, 재무재표 등 관련 서류를 제주도 관광정책과로 제출하면 된다. 문의=710-3310(제주도 관광정책과). 현대성 기자  cannon@jejuilbo.net 저작권자 © 뉴제주일보 무단전재 및 재배포 금지 현대성 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 제8회 전국동시지방선거 (예비)후보자 및 그의 배우자, 직계존·비속이나 형제자매에 관하여 허위의 사실을 유포하거나, 이들을 비방하는 경우 「공직선거법」에 위반됩니다.대한민국의 깨끗한 선거문화 실현에 동참하여 주시기 바랍니다. - 중앙선거관리위원회- 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 인기기사 1암보험 약관에 규정하는 알고 있어야 할 사항들 2디지털 자산 제도화 분기점, 투자는 어떻게(?) 3세계 최초 '국제농기계 전동화.자율주행 엑스포' 한 달 앞으로 4경제 비상사태, 비상한 대처 있어야 한다 5제주고·제주여상, 전도사격대회 고등부 단체전 정상 6버스 준공영제 대폭 손질…도민 부담 전가 ‘우려’ 7깊어가는 가을, 코스모스 활짝 84일부터 요양시설 접촉면회 재허용 9김경학 의장 “도민복지 증진 지방자치 본질…민생의정 구현 총력” 10기업경기 내리막, 민·관 머리 맞대 돌파구 찾아야 신문사소개 고충처리인 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 서사로 25 3-5층(삼도이동, 수정빌딩) 대표전화 : 064-757-3114 광고·구독 : 064-757-5000 편집국 FAX : 064-756-7114 영업본부 : 064-702-7114 법인명(단체명) : 주식회사 제주일보방송 등록번호 : 제주 아01134 등록일 : 2021-09-07 대표자 : 김대형 발행인 : 김대형 주필 : 부영주 편집인 : 부영주 편집국장 : 부남철 뉴제주일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. 청소년보호책임자 : 김대형 Copyright © 2022 뉴제주일보. All rights reserved. mail to webmaster@jejuilbo.net 위로</t>
-  </si>
-  <si>
-    <t>제주도 갈치조림 중문관광단지 맛집 '색달식당 중문본점' 이색적인 갈치조림으로 범국민적인 인기 &lt; 일반 &lt; 사회문화 &lt; 기사본문 - 뉴스저널리즘 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 편집. 2022-10-04 10:40 (화) 로그인 회원가입 모바일웹 naver post Mobile 종합뉴스 정치 경제 사회문화 영화 공연·전시 미디어 라이프 일반 대중문학 문학 시·시 비평 소설 작가의 시선 포토 · 영상 전체메뉴 버튼 검색버튼 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도 갈치조림 중문관광단지 맛집 '색달식당 중문본점' 이색적인 갈치조림으로 범국민적인 인기 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 일반 제주도 갈치조림 중문관광단지 맛집 '색달식당 중문본점' 이색적인 갈치조림으로 범국민적인 인기 기자명 최태협 입력 2020.03.02 11:00 댓글 0 다른 공유 찾기 바로가기 본문 글씨 키우기 본문 글씨 줄이기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 구글+(으)로 기사보내기 네이버밴드(으)로 기사보내기 네이버블로그(으)로 기사보내기 핀터레스트(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 제주도는 우리나라의 대표적인 관광 명소 임과 더불어 대표적인 수산지이기도 하다. 그래서 해산물 요리로 제주도 맛집으로 칭송받는 곳들은 무수히 많으며, 지역 주민들과 더불어 관광객의 발길을 사로잡고 있다. 최근에는 제주도 맛집, 중문관광단지 맛집을 넘어서 전국적인 인지도를 자랑하는 맛집들도 속속들이 등장하고 있는데, 그 중에서 현재 가장 주목받고 있는 맛집은 '색달식당 중문본점'이다.색달식당 중문본점은 중문관광단지와 불과 1분 거리에 위치하고 있기 때문에, 중문관광단지를 찾는 사람들은 물론이고, 인접한 카멜리아 힐, 성산 일출봉 등을 방문하는 사람들이 주로 이용하곤 한다. 픽업도 함께 운영하고 있어서 인접한 제주롯데호텔, 제주신라호텔 등에 묵는 손님들의 아침, 저녁을 책임지는 식당으로도 유명한데, 색달식당 중문본점을 대표하는 메뉴는 '통문어갈치세트'이다.이는 갈치조림에 문어와 전복, 대하를 통째로 넣고 손님 상에서 조리해먹는 것으로, 갈치조림의 호화판이라고 생각하면 이해가 쉽다. 이와 함께 성게미역국과 돌솥밥, 고등어구이 등이 차례로 상에 올라오는데, 한 상 가득한 차림새가 어느 일류 레스토랑 부럽지 않은 푸짐한 구성을 자랑한다. 그러나 갈치조림은 우리가 일상에서도 흔하게 먹는 메뉴이기 때문에, 갈치조림이라는 단어만 듣고서는 색달식당의 특색에 대해서 확실히 이해할 수 없다. 색달식당은 제주도 향토 음식을 표방하여 운영하고 있으며, 대표 메뉴인 갈치조림 또한 제주 전통의 방식으로 조리하는 것이기 때문에, 주로 내륙 지방에서 건너오는 관광객들의 경우에는 아주 독특한 인상을 받기도 한다.여기서는 오직 싱싱한 생물 갈치만을 사용하여 요리를 하고 있는데, 서두에서 말했다시피 제주도는 우리나라의 대표적인 수산지이다. 갈치의 특성상 장거리 운송이 불가능하기 때문에, 싱싱한 생물 갈치는 오직 제주도처럼 수산지와 인접한 곳에서나 먹을 수 있으며, 내륙 지방 사람들이 먹는 것은 대부분이 냉동 갈치이다. 색달식당 갈치는 냉동의 과정이 없는 생물 갈치이기 때문에 생선살이 보다 탄력있고 담백한 맛을 낼 뿐만 아니라, 양념장이 살 속 깊이까지 베어들기 때문에 훨씬 맛있는 조림이 가능하다.또한 여기서 조림에 사용하는 양념장 또한 아주 독특한 맛을 내는 데, 우리가 일반적으로 먹는 갈치조림의 맛은 국간장의 짜디짠 맛에 고춧가루의 매콤한 향내가 살짝 터지는 것일 것이다. 그러나 색달식당은 제주도 전통의 방식 그대로 조리하기 때문에 짠맛 보다는 매콤한 맛이 강하게 풍기며, 국물도 깊고 진한 맛을 내는 것이 특징이다. 그래서 식사류로는 물론이고, 술안주로도 각광받고 있어, 아침부터 저녁까지 손님들로 문전성시를 이루는데, 색달식당의 갈치조림은 관광객의 입소문을 타고 널리 퍼져, 지금은 범국민적인 인지도를 자랑하고 있다.서귀포 맛집 '색달식당 중문본점'은 매일 오전 9시부터 오후 9시 30분까지 넉넉한 시간 운영하고 있으며, 예약 문의나 기타 자세한 사항은 대표전화를 통해서 알아볼 수 있다. 최태협 newspaper3859@naver.com 저작권자 © 뉴스저널리즘 무단전재 및 재배포 금지 SNS 기사보내기 공유 이메일 기사저장 주요기사 文 정부 금융위 산하 공공기관 6곳, 비정규직 제로화에 혈세 71억 투입 현대건설 등 대기업 10곳, 2년 8개월간 안전보건교육 미실시 문재인 정부, 탈원전 공약 이행하려면 전기요금 40% 올려야 보고 받고도 묵살 '코리아세일페스타', 배우 차태현 홍보모델 발탁 지난 5년간 반도체 원재료 '중국 의존도' 크게 늘어나...對日 낮추자 對中 ↑ 신용보증기금, 반도체 건설산업에 ‘공동 프로젝트 보증’ 지원 이 시각 추천뉴스 강성노조 경험 안해본 한화그룹, 대우조선 노조가 인수 '걸림돌' 이정재X정우성 '헌트', IPTV·OTT에서 극장 동시 서비스 한화-대우조선 인수설에 한화에어로스페이스 주가급락, 대우조선해양은 급등세 2년 만에 2200선 깨진 코스피…증권가 "더 떨어진다" "이기적이고 악랄하다"...현대제철 당진 노조를 바라보는 수요업체의 비판 현대산업개발·삼표산업·DL이앤씨 등 건설사 대표들 줄줄이 국감 선다 기후변화 대응을 위해…서울환경연합, BTS ‘지민 숲’ 조성 강성노조 경험 안해본 한화그룹, 대우조선 노조가 인수 '걸림돌' 개의 댓글 회원로그인 댓글 내용입력 0 / 400 등록 댓글 정렬 BEST댓글 BEST 댓글 답글과 추천수를 합산하여 자동으로 노출됩니다. 닫기 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 [재계산책] [재계산책] 제약업계 오너 2·3세 전면 배치...'경영권 바통터치' [재계산책] 식품업계 오너가 3세, 핵심 보직 '착착'… 앞당겨지는 '3세 경영' 많이 본 뉴스 1 강성노조 경험 안해본 한화그룹, 대우조선 노조가 인수 '걸림돌' 2 이정재X정우성 '헌트', IPTV·OTT에서 극장 동시 서비스 3 한화-대우조선 인수설에 한화에어로스페이스 주가급락, 대우조선해양은 급등세 4 2년 만에 2200선 깨진 코스피…증권가 "더 떨어진다" 5 "이기적이고 악랄하다"...현대제철 당진 노조를 바라보는 수요업체의 비판 6 현대산업개발·삼표산업·DL이앤씨 등 건설사 대표들 줄줄이 국감 선다 7 기후변화 대응을 위해…서울환경연합, BTS ‘지민 숲’ 조성 8 美 물가상승감축법 시행되면 국내 자동차업계 '비상'...수출길 막힌다 9 올해 국감에도 대기업 총수 증인신청 빗발쳐...기업가 '흠집내기' 재탕될까 10 식약처, 국감 증인으로 기업인 10명 무더기 소환 Opinion [키워드로 본 2021] 재계, 성과급 논란·재벌가 집안 싸움 '시끌' [키워드로 보는 2021] 자동차업계, 반도체 공급부족·현대차그룹 내수지배력 확대·전기차 시대 개화 등 [키워드로 본 2021] IT·전자업계, LG폰 철수·반도체 공급부족·미국 투자 붐·빨라진 세대교체 등 이슈 [재계산책] 제약업계 오너 2·3세 전면 배치...'경영권 바통터치' [재계산책] 식품업계 오너가 3세, 핵심 보직 '착착'… 앞당겨지는 '3세 경영' 이 시각 헤드라인 삼성전자, 2025년 2나노·2027년 1.4나노 양산 돌입 현대차, 수소차 보급으로 제주 그린수소 글로벌 허브 구축 "이기적이고 악랄하다"...현대제철 당진 노조를 바라보는 수요업체의 비판 치킨업계 1위 윤진호 교촌 대표 국감 소환 이유는? 정용진 신세계 부회장 "업무에 참고하십시오"…이마트 바비큐존 직접 홍보 NJ Fact Chack [NJ Fact Check] 우리금융 민영화, 비가격 요소로 판가름 [NJ Fact Check] 루이비통, 亞 전초기지 한국에서 중국으로 [NJ Fact Check] 메리츠금융, 주주가치보다 기업가치 생각할 때 매체소개 찾아오시는 길 개인정보처리방침 청소년보호정책 저작권보호정책 기사제보 광고문의 매체정보 서울특별시 중구 서소문로 38 (센트럴타워) 610호 대표전화 : 02-393-9400 팩스 : 02-393-4242 청소년보호책임자 : 이재우 법인명 : (주)이도문화 제호 : 뉴스저널리즘 등록번호 : 경기,아53038 등록일 : 2018-01-03 발행일 : 2018-01-03 발행인 : 원경민 편집인 : 서영백 뉴스저널리즘 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. 「열린보도원칙」 당 매체는 독자와 취재원 등 뉴스이용자의 권리 보장을 위해 반론이나 정정보도, 추후보도를 요청할 수 있는 창구를 열어두고 있음을 알려드립니다. 고충처리인 신용준 02-393-9400 comaritime@naver.com Copyright © 2022 뉴스저널리즘. All rights reserved. mail to mibking@ngetnews.com 위로 전체메뉴 전체기사 정치 경제 사회문화 전체 영화 공연·전시 미디어 라이프 기획특집 대중문학 전체 문학 시·시 비평 소설 작가의 시선 인사동정 포토 · 영상 전체메뉴닫기</t>
+    <t>제주도관광협회, 코로나19에 회원사 1분기 회비 면제 - 노컷뉴스 전체메뉴보기 노컷뉴스메인가기 제주도관광협회, 코로나19에 회원사 1분기 회비 면제 뉴스듣기 0 페이스북 트위터 밴드 카카오톡 URL 폰트사이즈 - + 인쇄 CBS 전국 네트워크 강원 경남 광주 대구 대전 부산 영동 울산 전남 전북 제주 청주 포항 닫기 크리스천뉴스 노컷비즈 노컷TV 노컷뉴스 전국 최신 정치 사회 전국 경제 산업 국제 문화 연예 스포츠 오피니언 포토 그래픽 노컷브이 핫이슈 스페셜 기획 제보 네이버 구독 다음 구독 카카오 구독 삭제 검색 자동완성 끄기 뉴스 정치 사회 전국 경제 산업 국제 문화 연예 스포츠 지역 서울 경인 강원 경남 광주 대구 대전 부산 영동 울산 전남 전북 제주 청주 포항 일반 이슈 핫이슈 스페셜 기획 딥뉴스 노컷체크 인터랙티브 타임라인 시사 김현정의 뉴스쇼 한판승부 김덕기의 아침뉴스 정다운의 뉴스톡 530 오피니언 칼럼 뒤끝작렬 기고 노컷브이 그래픽 포토 노컷TV 씨리얼 팟캐스트 닫기 전국 제주 제주도관광협회, 코로나19에 회원사 1분기 회비 면제 제주CBS 박정섭 기자 메일보내기 2020-03-30 13:58 뉴스듣기 0 페이스북 트위터 밴드 카카오톡 URL 폰트사이즈 - + 인쇄 회원과 고통 분담 차원서 2억6천만원 면제...62년 설립 이후 처음 제주도관광협회가 들어서 있는 제주종합비즈니스센터. 제주도관광협회가 코로나19 여파로 피해가 큰 회원사들을 위해 1분기 회비를 면제한다. 제주도관광협회 이사회는 최근 서면 결의를 통해 코로나19 확산에 따른 경기 위축과 회원의 어려움을 함께 하기 위해 1분기 회비를 면제하기로 했다.1분기 회비는 2억6000여만원으로, 제주도관광협회가 회비를 면제한 건 지난 62년 협회 설립 이후 처음이다.제주도관광협회는 대신 자체사업과 관리비 삭감 등을 통해 회원사 고통분담에 동참하기로 했다.앞서 제주도관광협회는 제주도관광진흥기금의 지원대상과 규모를 확대하고, 신속한 행정처리를 위해 제주웰컴센터에 설치된 제주관광진흥기금 특별지원센터에 인력을 파견하고 있다.또 소독제와 방역용 살균제 등 방역물품을 업계에 배포하고, 공동방역을 실시하는 등 청정제주 유지에 힘쓰고 있다.더불어 제주관광 공적 온라인마켓인 '탐나오' 입점업체에 대해 카드수수료를 제외한 판매수수료 제로화를 통해 업계와 도민들의 부담을 줄여 나가기로 했다. 더 클릭 정진석 "조선, 안에서 썩어 망해…日, 조선왕조와 전쟁 한 적 없다" 동료들 보는 앞에서 엉덩이 때려도…'정직 1개월' 지적장애 가진 동거녀 딸 엉덩이 깨물고 학대한 50대 신화 신혜성, 도난 차량서 음주측정 거부 혐의…현행범 체포 손목에 체인 묶은 남녀?…아슬아슬 수위 높이는 연애 예능 노벨상 버냉키, 후배 조언 요청에 "내 인생의 교훈은…" 윤 대통령 "청년들이 좌절 않게 희망의 사다리 놓아야" 경찰, 텔레그램 성착취 '엘번방' 18명 검거…유포자 3명 구속 금감원 '수상한 외환거래' 이달 중 검사 마무리 정진석, 김용민 '尹정부 퇴진'주장에 "민주당 공식 입장인가" 제주CBS 박정섭 기자 메일 0 0 이 시각 주요뉴스 오늘의 기자 많이 본 뉴스 실시간 댓글 투데이 핫포토 오늘의 핫뉴스닫기 / 이전 다음 닫기 노컷뉴스 회사소개 사업 제휴 광고안내 콘텐츠 구매 제보 이용약관 개인정보 취급방침 편집규약 지역노컷 강원 경남 광주 대구 대전 부산 영동 울산 전남 전북 제주 청주 포항 서울시 양천구 목동서로 159-1 7층 (주)씨비에스미디어캐스트 ☎02-2650-0500 | 사업자번호 : 117-81-28867 | 인터넷신문 등록번호 : 서울 아00030 | 등록일자 : 2005.08.30(노컷뉴스), 2007.11.05(노컷TV) 발행·편집인 : 하근찬 | 청소년보호책임자 : 조태훈 | ISSN : 2636-0373 노컷뉴스의 모든 콘텐츠는 저작권법의 보호를 받은 바, 무단전재, 복사, 배포 등을 금합니다. © 2003 CBS M&amp;C, 노컷뉴스 all rights reserved. 서울시 양천구 목동서로 159-1 7층 (주)씨비에스미디어캐스트 ☎02-2650-0500 | 사업자번호 : 117-81-28867 | 노컷스포츠 | 인터넷신문 등록번호 : 서울 아04480 | 등록일자 : 2017.04.20 발행·편집인 : 하근찬 | 청소년보호책임자 : 조태훈 노컷스포츠의 모든 콘텐츠는 저작권법의 보호를 받은 바, 무단전재, 복사, 배포 등을 금합니다. © 2003 CBS M&amp;C, 노컷스포츠 all rights reserved. 서울시 양천구 목동서로 159-1 7층 (주)씨비에스미디어캐스트 ☎02-2650-0500 | 사업자번호 : 117-81-28867 | 노컷연예 | 인터넷신문 등록번호 : 서울 아04479 | 등록일자 : 2017.04.20 발행·편집인 : 하근찬 | 청소년보호책임자 : 조태훈 노컷연예의 모든 콘텐츠는 저작권법의 보호를 받은 바, 무단전재, 복사, 배포 등을 금합니다. © 2017 by CBS M&amp;C, 노컷연예 all rights reserved.</t>
+  </si>
+  <si>
+    <t>남미 여행 후 ‘제주도’ 관광하다 코로나 확진 받은 여대생은 ‘마스크’를 쓰지 않았다 - 인사이트 Insight 정치 경제 핫이슈 엔터 라이프 문화·스포츠 사람들 산업 헬스 증권·금융 16℃ 서울 13℃ 인천 15℃ 춘천 16℃ 강릉 15℃ 수원 15℃ 청주 16℃ 대전 16℃ 전주 17℃ 광주 17℃ 대구 17℃ 부산 16℃ 제주 남미 여행 후 '제주도' 관광하다 코로나 확진 받은 여대생은 '마스크'를 쓰지 않았다 남미 여행을 다녀와 제주도에 방문한 후 마스크를 쓰지 않고 돌아다닌 대학생이 코로나 확진 판정을 받았다. 김남하 기자 입력 2020.03.30 10:30 글자크기 설정 가 가 가 가 가 공유 카카오톡 페이스북 트위터 카카오스토리 밴드 핀터레스트 URL 복사 메일 기사와 관련 없는 자료 사진 / gettyimagesBank[인사이트] 김남하 기자 = 제주에서 코로나19 9번째 확진자가 발생했다.이 환자는 남미 여행을 다녀온 대학생으로 밝혀졌는데, 증상 발현 전 마스크도 제대로 쓰지 않고 돌아다닌 것으로 파악됐다.비록 무증상 때 마스크를 쓰지 않기는 했지만 '무증상 감염' 가능성도 있어서 보건 당국에 비상이 걸렸다. 지난 29일 제주도는 전날 오후 4시 20분께 대학생인 20대 여성 A씨가 코로나19 확진 판정을 받았다고 밝혔다.기사와 관련 없는 자료 사진 / 사진=인사이트A씨는 지난 21일 인천국제공항에 도착한 뒤 김포공항으로 이동해 제주에 입도했다.제주도에 따르면 A씨는 앞서 28일부터 발열과 오한으로 오후 7시께 제주대학교병원 선별진료소를 방문해 검체 검사를 받았고, 29일 오후 확진 판정을 받았다.A씨는 증상 발현 전인 27일 마스크를 쓰지 않은 것으로 확인됐다.해외여행을 다녀오기도 했고, '사회적 거리두기' 등 방역 예방에 다수가 힘쓰고 있는 상황에서 기본적인 예방 수칙도 지키지 않은 것이기에 비판의 목소리가 적지 않다.기사와 관련 없는 자료 사진 / 뉴스1애초 알려졌던 것과 달리 A씨는 유학생이 아니라 50여 일간 남미를 여행한 국내 대학생으로 확인됐다.그는 지난 21일 인천공항을 거쳐 입국해 당일 제주에 도착했으며 입도 당시 증상이 없었다고 진술했다.보건당국에 따르면 A씨 가족 6명은 코로나 검사 결과 모두 음성이었다. 김남하 기자 · webmaster@insight.co.kr 베스트클릭 국제 아들 출근한 사이 차 깨끗이 닦아주고 싶어 '철 수세미'로 세차한 70대 노모 자동차 “아내가 엑셀·브레이크 또 헷갈려서...” 아이오닉6 전국 ‘1호 사고차’가 등장했다 스타 대학 축제서 관객석 ‘다이빙’ 했는데 모두 피해 ‘맨땅 헤딩’한 유명 래퍼 (영상) 스포츠 오늘(9일) 손흥민이 입고 나온 티셔츠 본 콘테 감독...벤치에서 눈물 터져 국제 “중국인은 2명이 모이면 벌레가 된다” 발언한 일본 예술가 민족 비하 논란 연예 “군대 알아서 갈테니까”...국감서 BTS 슈가 자작곡 가사 등장했다 스타 이게 현실에서 가능한 여자 몸매?...반응 터진 몸짱 인플루언서 실제사진 사회 BTS 병역특례 두고 공방...더민주 “국가적 손실” vs 국힘당 “나훈아도 갔다왔다” 국제 “앗 뜨거!” 손목에 차고 있던 애플워치 ‘펑’ 폭발...애플, 누설 말라 강요 스포츠 ‘피겨 프린스’ 차준환, 드디어 세계 정상 우뚝 섰다...“20점차 이상 압도적 스코어” 국제 노출의상 입은 댄서들 공연 후 요양원서 벌어진 충격 상황...“할머니 한 명은 심장마비로 쓰러져” 방송·드라마 엄지원에 살해당했던 추자현, 살아있었다...‘작은 아씨들’ 충격 엔딩 사회 확 달라진 군 교육자료...文 정부가 삭제한 ‘문구’, 다시 추가됐습니다 문화·예술 22년 동안 ‘평일’이었던 한글날, 역시 ‘이 대통령’ 때 빨간날 됐다 사회 2500만원이면 가는 인도 출장, 김정숙 여사 때문에 국민혈세 ‘3억’ 더 썼다 회사소개 이용약관 개인정보 취급방침 윤리강령 독자의견 고충처리인 청소년 보호정책(책임자:김희진) 사업 제휴 문의 광고 안내 문의 서울특별시 강남구 논현로99길 23, 인사이트빌딩 (주)인사이트컴퍼니 | 사업자번호: 119-86-62226 | 02-6734-2207 | 등록번호: 서울 아 02953 | 등록일자: 2014.01.02 | 발행・편집인: 안길수 | 편집국장: 이유리 인사이트의 모든 콘텐츠(기사·사진)는 저작권법의 보호를 받은 바, 무단 전재, 복사, 배포 등을 금합니다. 이를 어길 시 법적 제재를 받을 수 있습니다. Copyright ⓒ 인사이트, Ltd. All Rights Reserved. Insight 정치 정치일반 사회 청와대 국회·정당 전국 경제 생활경제 소비자 정책 외환 부동산 핫이슈 이슈 과학 국제 환경 사건사고 스토리 동물 엔터 연예 방송·드라마 영화 비디오 스타 라이프 라이프 패션 여행 음식·맛집 쇼핑 연애 건강 문화·스포츠 문화·예술 코믹 책·서평 스포츠 공연·전시 게임 사람들 사람들 인사 동정 부음 산업 기업 CEO IT·전자 자동차 모바일·통신 항공·물류 중기·벤처 헬스 제약 의료 뷰티 증권·금융 증시 금융 보험·카드 베스트클릭 아들 출근한 사이 차 깨끗이 닦아주고 싶어 '철 수세미'로 세차한 70대 노모 “아내가 엑셀·브레이크 또 헷갈려서...” 아이오닉6 전국 ‘1호 사고차’가 등장했다 대학 축제서 관객석 ‘다이빙’ 했는데 모두 피해 ‘맨땅 헤딩’한 유명 래퍼 (영상) 오늘(9일) 손흥민이 입고 나온 티셔츠 본 콘테 감독...벤치에서 눈물 터져 “중국인은 2명이 모이면 벌레가 된다” 발언한 일본 예술가 민족 비하 논란 회사소개 이용약관 개인정보 취급방침 윤리강령 독자의견 고충처리인 청소년 보호정책(책임자:김희진) 사업 제휴 문의 광고 안내 문의 Copyright ⓒ 인사이트, Ltd. All Rights Reserved.</t>
+  </si>
+  <si>
+    <t>제주도 자가격리 무시, 공항 도주 관광객 '강제 격리' - 뉴스제주 × 전체기사 사회 전체 사건사고 일반 포토 날씨 뉴스제주초점 기업·인물탐방 행정 전체 제주도청 제주도의회 제주시청 서귀포시청 유관기관 읍면동 정치 전체 선거 정당 국회 의정활동 시민단체 교육 전체 교육청 교육행정 학교소식 경제 전체 제주도 제주시 서귀포시 도외 일반 문화 전체 제주도 제주시 서귀포시 도외 일반 관광 전체 제주도 제주시 서귀포시 도외 일반 동정 전체 도청 도의회 제주시 서귀포시 기타 연예 스포츠 동영상 오피니언 전체 기자수첩 칼럼 기고 시민기자 미디어부 뉴스제주TV 뉴스제주 시작페이지로 즐겨찾기 추가 한국어 영어 일본어 중국어 처음으로 로그인 회원가입 모바일웹 전체 사회 사건사고 포토 날씨 뉴스제주초점 기업·인물탐방 행정 제주도청 제주도의회 제주시청 서귀포시청 유관기관 사업소 읍면동 정치 선거 정당 국회 교육 교육청 교육행정 학교소식 경제 제주도 제주시 서귀포시 도외 문화 제주도 제주시 서귀포시 도외 스포츠 오피니언 기자수첩 칼럼 기고 시민기자 관광 제주도 제주시 서귀포시 도외 일반 동정 도청 도의회 제주시 서귀포시 기타 후원안내 날씨 기사검색 검색 최종편집 : 2022-10-11 14:50 (화) 이전 다음 제주도 자가격리 무시, 공항 도주 관광객 '강제 격리' 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 행정 제주도 자가격리 무시, 공항 도주 관광객 '강제 격리' 이감사 기자 승인 2020.03.28 16:46 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 카카오톡 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 텔레그램 URL복사 × 도내 8번째 코로나 확진자와 함께 비행기 탑승 후 '자가격리' 통보된 관광객 제주도 '자가격리' 무시 후 제주공항으로 이동...공항경찰대에 발각 제주도 첫 '강제 격리' 조치 내려 코로나19 유증상 중 제주를 방문, 곳곳을 여행하고 떠났던 강남 모녀(母女) 확진자의 여파가 가시기도 전에 또다른 잡음이 빚어지고 있다. 이번에는 제주행 비행기 안에서 코로나19 확진자와 접촉, 자가격리가 내려진 관광객들이 규칙을 어기고 달아나다 붙잡혔다. 제주특별자치도는 28일 오후 2시쯤 격리 통보를 무시하고 제주를 빠져나가려던 A씨와 B씨를 제주공항에서 붙잡고, 강제 격리를 취했다고 밝혔다. 제주도에 따르면 강제 격리 조치된 대상자는 도내 8번째 확진자 기내 접촉자 19명 중 2명이다. 이들은 3월27일 대한항공(KE1203)을 이용해 김포에서 제주로 입도했다. 그러나 해당 항공편에서 제주도 8번째 확진자와 접촉한 사항이 확인되며 오늘 오전 7시50분부터 자가격리 대상자 명단에 올랐다. 이날(28일) A씨 등은 제주도 보건당국의 수차례 전화를 이용한 격리 통보조치를 무시하고, 숙소에서 제주공항으로 이동했다. 이들은 항공권 발권 후 출국 대기실 내 JDC 면세점 인근에서 공항경찰대에 발각된 것으로 전해지고 있다. 현재 코로나19 자가격리를 무시한 채 도외로 빠져나가려한 관광객들은 제주도가 지정한 격리 시설로 강제 이송됐다. 감염병 관련 법상 보건당국으로부터 격리 대상자로 통보받은 자는 격리 시설 외 이동을 강제로 금지시킬 수 있다. 제주도 보건당국 관계자는 "격리 대상자 통보는 구두로도 효력이 발생하는 사안"이라며 "방식과 관계없이 격리 대상자로 통보를 받게 되면 반드시 보건당국의 안내를 준수해 달라"고 당부했다. 한편 자가격리 규칙을 어기고 달아나려던 A씨 일행은 제주도 8번째 코로나19 확진자 C씨 인근에 비행기 좌석이 배치됐다. C씨는 3월27일 오전 4시쯤 미국 LA에서 인천공항에 도착 후, 같은 날 오전 8시쯤 대한항공 편을 이용해 제주도 입도했다. 이후 모친의 차로 자택으로 귀가했다가 도내 보건소를 방문, 3월27일 밤 10시30분쯤 코로나19 확진 판정을 받았다. Tag #제주도 #코로나19 #자가격리 #위반 #관광객 #부녀 #강제격리 저작권자 © 뉴스제주 무단전재 및 재배포 금지 이감사 기자 다른기사 보기 관련기사 제주서 8번째 코로나19 확진자 발생 제주도, 코로나 확진 유학생 모녀에 '억' 단위 손해배상 제주서 또 자가격리 이탈자 발생, 제주자치도 '고발' 앞선 자가격리 이탈자는 왜 처벌 안 되나 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 로그인 이름 비밀번호 자동등록방지 내용 0 / 400 등록 댓글쓰기 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 많이 본 뉴스 뉴스 댓글 1[강병삼 시장 축사] 뉴스제주 창간 16주년 2[김광수 교육감 축사] 뉴스제주 창간 16주년 3[오영훈 지사 축사] 뉴스제주 창간 16주년 4[김한규 의원 축사] 뉴스제주 창간 16주년 5[이종우 시장 축사] 뉴스제주 창간 16주년 1수상자 본인 입니다. 확인 되지 않은 사실을 기반으로 허유사실을 공론화하지 않으시길 바랍니다. 2나 조만간 자살 할 것 같아 3ㅎ ㅎ ㅎ 4비슷비슷헌 사름덜 보염싱게~ 자기들부터 깨끗허게 살주게 5원희룡... 최신기사 용담1동지역사회보장협의체·용담1동 동행동락 행사 추진 용담1동지역사회보장협의체·용담1동 동행동락 행사 추진 조천읍장, 지방세 체납액 징수 철저 당부 조천읍장, 지방세 체납액 징수 철저 당부 구좌읍 민속보존회, 제61회 탐라문화제 민속예술부문 우수상 수상 구좌읍 민속보존회, 제61회 탐라문화제 민속예술부문 우수상 수상 삼양동 새마을지도자, 원당봉 산책로 환경정비 실시 삼양동 새마을지도자, 원당봉 산책로 환경정비 실시 용담1동민속보존회, 제61회 탐라문화제 출연 용담1동민속보존회, 제61회 탐라문화제 출연 아라동 민속보존회, 제61회 탐라문화제 탐라퍼포먼스 및 퍼레이드 경연 참가 아라동 민속보존회, 제61회 탐라문화제 탐라퍼포먼스 및 퍼레이드 경연 참가 제주에 투자한 기업들은 어떻게 성공했을까 신문사소개 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 첨단로8길 34, 1층 대표전화 : 064-747-1188 팩스 : 064-745-4569 청소년보호책임자 : 남우엽 제호 : 뉴스제주 등록번호 : 제주 아 01007 등록일 : 2006-10-09 발행인 : 남우엽 편집인 : 남우엽 뉴스제주 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 뉴스제주. All rights reserved. mail to newsjeju@hanmail.net 위로</t>
+  </si>
+  <si>
+    <t>`제주 관광` 美유학생, 동행한 어머니 코로나19 확진…제주도 `민사소송 검토` - 부산일보 로그인 회원가입 지면보기 모바일보기 메뉴펼치기 사회 사회 교육시험 정치 정치 세계 경제해양 경제해양 해양수산 부동산 자동차 IT월드 문화 문화 문화 라이프 라이프 맛 헬스 여행 산&amp;길 시리즈 스포츠 스포츠 롯데자이언츠 야구 해외야구 축구 해외축구 골프 오피니언 오피니언 사설 밀물썰물 논설위원의 시선 논설위원의 뉴스 요리 임성원 칼럼 박종호 칼럼 강병균 칼럼 이병철의 인사이트 곽명섭의 플러그인 강윤경 칼럼 김건수의 지금 여기 임광명의 정견만리 김승일의 디지털 광장 편집국에서 데스크칼럼 노트북단상 기자전문칼럼 바른말광 기자일기 독자광장 독자의눈 기고 오늘을 여는 시 김필남의 영화세상 조준현의 사람사는 경제 공감 월요칼럼 화목칼럼 수요칼럼 금요칼럼 시론 경남울산 경남울산 울산 동부경남 중부경남 서부경남 사람들 사람들 인사 부고 펫플스토리 펫플스토리 전체보기 펫영상 펫스토리 스타의 펫 펫정보&amp;팁 펫칼럼 공지사항 펀부산 펀부산 부산맛집 산들산들 문화관광 해피존 닥터큐 톡한방 부산시정뉴스 가장 많이 본 뉴스 2022.10.11 (화) 닫기 '제주 관광' 美유학생, 동행한 어머니 코로나19 확진…제주도 "민사소송 검토" 가 입력 : 2020-03-26 19:23:56 성규환 부산닷컴 기자 bastion@busan.com 부산닷컴 기사퍼가기 24일 오전 제주국제공항 출발층에서 출발 승객 발열 체크를 하고 있다. 연합뉴스 제주를 여행한 후 서울에서 신종 코로나바이러스 감염증(코로나19) 확진 판정을 받은 미국 유학생(강남구 21번)과 동행한 어머니도 코로나19 확진 판정을 받았다.제주도는 코로나19 확진 판정을 받은 미국 유학생 A(19·여)씨와 제주 여행을 함께한 A씨 어머니 B씨도 확진 판정을 받았다는 사실을 서울시 강남보건소로부터 통보받았다고 26일 밝혔다. B씨는 딸의 코로나19 확진 소식을 듣고 25일 검체 검사를 진행해 이날 양성 판정을 받았다. B씨는 현재까지 코로나19 의심 증상은 없는 상태다. 이 모녀는 지난 20일 일행 2명과 함께 제주에 와 24일까지 4박 5일간 제주 여행을 했다. 일행 2명은 검사 결과 음성 판정을 받았다.제주도는 B씨가 코로나19 확진 판정을 받으면서 추가 역학조사를 실시하고 있다. 특히 지난 23일 오후 5시 우도에서 출발한 성산포행 배편에 이들 모녀와 함께 탔던 이용자에 대한 적극적인 신고를 당부했다. 앞서 제주도는 이날 오후 5시 현재까지 이 모녀 접촉자 47명을 확인하고 격리 조치했다. 또 이들 확진자 방문 장소 20곳에 대한 방역·소독을 모두 완료했다.특히 제주도 당국은 A씨가 지난 23일 발열 증세로 의원과 약국을 방문했을 당시 해당의원과 약국에서 의약품안전사용서비스(DUR) 조회를 통해 해외방문이력을 확인하고도 A씨를 선별진료소로 안내하지 않았다고 밝혔다. 이에 따라 제주도는 대한의사협회 제주도의사회와 대한약사회 제주도지부에 협조공문을 보내 DUR과 해외여행력 정보 제공프로그램(ITS)을 적극 활용, 진료안내를 해줄 것을 요청했다. 한편, 제주도는 A씨와 어머니 B씨에 대해 민사상 손해배상 소송을 제기할 방침이라고 26일 밝혔다. 제주도에 따르면 손해배상소송의 원고는 도민의 예산으로 방역 조치를 한 제주도와 영업장 폐쇄로 피해를 본 모녀 방문 업소, 모녀와의 접촉으로 자가격리 조치된 도민 등이다. 피고는 A씨와, 여행 동행자로서 적절한 조치를 할 의무가 있었던 어머니 B씨다. 제주도는 A씨가 제주 입도 첫날인 지난 20일 저녁부터 오한과 근육통, 인후통을 느꼈고, 23일 오전에는 숙소 인근 병원을 방문할 정도로 증상을 보였음에도 여행을 강행했다는 점에서 고의가 있었다고 보고 있다.원희룡 제주도지사는 "도민들이 일상을 희생하며 청정 제주를 지키기 위해 노력하고 있다"며 "방역지침을 지키지 않는 등 일부 이기적인 입도객에 대해서는 철저히 조사해 단호히 법적 책임을 물어야 한다는 것이 제주도의 방침"이라고 밝혔다.성규환 부산닷컴 기자 bastion@busan.com 성규환 부산닷컴 기자 bastion@busan.com ⓒ 부산일보(www.busan.com), 무단전재 및 수집, 재배포금지 당신을 위한 AI 추천 기사 ▶ 디지털 뉴스콘텐츠 이용규칙 [단독]“어머니, 어머니…” 떨리는 112 전화, 경찰이 눈치챘다 신라젠, 12일 상폐여부 결정…17만 개미 '벌벌' '쾅쾅쾅쾅쾅쾅쾅' 7대 들이받고 주차한 김해 80대 운전자 '엑셀 밟았다' '불꽃축제, 이 정도 뷰면 70만원' 아파트 대여 등장…부산불꽃축제 때도? 충북 기간제 교사, 중학생과 수차례 부적절한 관계 의혹 라이브리 댓글 작성을 위해 javascript를 활성화해주세요. 당신을 위한 PICK 오늘의 추천 뉴스 부산공동어시장 ‘바닥 위판’ 2025년 사라진다 "부산시 보호종료아동 자립정착금, 7대 도시 중 최저 수준" 깜짝 투수로 등판한 조선의 4번 타자, 영화 같은 22년 마무리 지역 반발 높은데… 한수원, 건식저장시설 건설 일정 ‘일방 확정’ [BIFF] 열띤 축제의 한가운데… 별들의 바다, 관객들 환호 출렁이다 [BIFF] “5년 지난 지금도, 영화제에 그가 없다는 게 믿기지 않아요” 1년 4개월 만에 ‘강제 퇴장’ 이준석, ‘비윤 세력’ 결집 나서나 부산 경찰 “교차로 우회전 일시 정지, 당분간 계도 계속” FUN 부산 펫플 스토리 [반려동물과 여기 어때] 광안리 ‘핫플’ 3곳 부산여자대학교 반려동물과 내달 6일까지 수시 1차 접수 우리 절대 물지 않는다? 견주들 과한 자신감부터 버려라 바로가기 펫플스토리 바로가기 전체보기 펫영상 펫스토리 스타의 펫 펫정보&amp;팁 펫칼럼 비즈 Biz 대선주조-부산시, 지역축제 활성화 위해 5억 원 지원 협약 (주)경성리츠, 저소득 가정 아동 온누리 상품권 지원 부산 라발스호텔, 가을맞이 '야놀자라이브' 진행...코너룸 라이브 특가로 첫 선 바로가기 비즈 Biz 바로가기 전체보기 CEO와 차 한잔 비즈Biz칼럼 / 동정 비즈Biz포럼 비즈Biz란 톡한방 TV [한방정보]장마철 더해지는 교통사고 후유증, 입원 시기 중요 바로가기 톡한방TV 바로가기 톡한방 추천한의원 톡!한방 칼럼 톡한방 정보 톡한방 한의원 소식 톡한방 상담실 해양소식 웹매거진 한국 전담 무역특사 존 위팅데일을 만나다 바로가기 해양소식 | 웹매거진 바로가기 해양소식 | 웹매거진 바로가기 청년기업 소식 국민커피 더리터, 가맹점에 집중호우 수해 복구를 위한 커피 원두 지원 기업 바로가기 동아인코팜 달리미술관 이상커뮤니케이션 포인트넛 부산365mc 바이오플러스 씨엔컴퍼니 제비표우의 왕신 알시스쾌어 오렌슈츠 아이피텍코리아 제이컴즈 폴짝센터 헬씨코 린치핀 리더스손해사정 우양미술관 희천 프리젠트 보라공사 도시농사꾼 동네북 소식 얘들아, ‘연제구 아이사랑뜰’에서 놀자 바로가기 | 구청 바로가기 | 강서구 동래구 사상구 사하구 부산진구 금정구 중구 해운대구 수영구 영도구 북구 남구 동구 서구 기장군 연제구 | 경남울산 바로가기 | 울산시청 김해시청 창원시청 거제시청 양산시청 대학 소식 부산가톨릭대학교 물리치료학과, 2022년 대한PNF학회 우수 논문 공모전 학생부문 최우수상 수상 바로가기 | 대학소식 바로가기 | 동서대학교 경성대학교 인제대학교 부산외국어대학교 신라대학교 부산교육대학교 동명대학교 부산가톨릭대학교 부경대학교 화신사이버대학교 부산대학교 고신대학교 영산대학교 가야대학교 동아대학교 동의대학교 한국해양대학교 부산디지털대학교 | 전문대소식 바로가기 | 동의과학대학교 부산경상대학교 경남정보대학교 부산과학기술대학교 부산여자대학교 동주대학교 대동대학교 한국폴리텍대학부산캠퍼스 부산시정뉴스 '제23회 부산 국제관광전(BITF2022)' 개최 바로가기 부산시정뉴스 바로가기 뉴스인뉴스 캠코, 신조펀드 지원 3호 선박 ‘DAT Mercury’호 명명식 개최 바로가기 기관소식 바로가기 부산정보산업진흥원 동래여성인력개발센터 한국국제협력단 부산인재평생교육진흥원 벡스코 한국청소년상담복지개발원 한국수력원자력 부산테크노파크 국민건강보험 부산항만공사 부산광역시소방안전본부 부산관광공사 해운대여성인력개발센터 한국토지주택공사 기술보증기금 부산국제교류재단 부산환경공단 한국환경공단 렛츠런파크 한국국토정보공사 부산연탄은행 한국건강관리협회 한국자산관리공사 사하여성인력개발센터 동구여성인력개발센터 부산농협 부산지방우정청 부산도시공사 한국수산자원공단 터치뉴스 부산일보 강당 대관안내 부일CEO아카데미 안내광고 보기 신문전시관 고충처리인·독자위원회 [48789] 부산시 동구 중앙대로 365 (수정동) ｜ 전화번호 : 051)461-4114 ｜ 이메일 : webmaster@busan.com 등록번호 : 부산아00091 ｜ 등록일자 : 2011년 5월24일 ｜ 발행·편집 겸 인쇄인 : 김진수 ｜ 청소년보호책임자 : 박영홍 모든 콘텐츠를 커뮤니티, 카페, 블로그 등에서 무단 사용하는것은 저작권법에 저촉되며, 법적 제재를 받을 수 있습니다. COPYRIGHT (C) 2016 부산일보사 ALL RIGHTS RESERVED.</t>
+  </si>
+  <si>
+    <t>“이기적 관광객 필요없다”…제주도, 유증상에도 여행한 확진자에 손배소 본문바로가기문장공유트위터카카오톡 전체메뉴 검색 최근검색어 최근 검색어 내역이 없습니다. 검색어 저장 끄기 닫기 읽기모드공유하기북마크로그인공유하기닫기 오피니언 사설 오늘과 내일 횡설수설 동아광장 시론 광화문에서 현장에서 뉴스 정치 경제 국제 사회 문화 연예 스포츠 매거진 신동아 주간동아 여성동아 매거진동아 동아비즈니스리뷰 하버드비즈니스리뷰코리아 어린이동아 과학동아 어린이 과학동아 수학동아 에듀동아 섹션 책의 향기 스타일매거진Q 골든걸 즐거운 인생 edu+ 디 오리지널 헬스동아 실시간 뉴스 이슈 포인트 연재 포인트 트렌드뉴스 뉴스레터 신청 기자 동아APP서비스 오늘의신문 신문보기(PDF) 구독신청 보도자료 보이스뉴스 RSS 동아방송 DBS 채널A 스포츠동아 비즈N MLB파크 보스 VODA IT동아 게임동아 동아일보|사회 “이기적 관광객 필요없다”…제주도, 유증상에도 여행한 확진자에 손배소 이미지기자 | 제주=임재영 기자 입력 2020-03-26 21:46업데이트 2020-03-26 22:10 글자크기 설정 레이어 열기 뉴스듣기 프린트 글자크기 설정 가 가 가 가 닫기 26일 제주도는 신종 코로나바이러스 감염증(코로나19) 증상이 나타났음에도 제주여행을 다닌 미국 유학생 모녀에 대해 손해배상 소송을 내기로 했다. 도에 따르면 미국 유학생 A 씨(19·여)는 15일 입국해 20~24일 모친 등 일행 2명과 제주도를 여행했다. 당시는 정부가 해외 입국자들에 대해 자가 격리를 지속적으로 권고했을 때다. A 씨는 제주에 도착한 당일 저녁부터 오한과 근육통, 인후통 증상을 겪었다. 병세가 나아지지 않자 그는 23일 오전 숙소 근처의 병원을 찾았다. 그러나 이들은 여행을 중단하지 않고 일정을 끝까지 마쳤다. 이들은 첫날인 20일 제주시내 편의점과 디저트카페, 마트를 들른 뒤 리조트에서 숙박했다. 다음날 시내 식당에서 점심을 먹고, 22일에는 서귀포시 섭지코지의 카페를 방문했다. 23일 A 씨가 병원과 약국을 들른 뒤에도 배를 타고 우도 여행을 떠났다. A 씨는 서울로 돌아간 24일 오후 강남구보건소 선별진료소를 찾아가 코로나19 확진 판정을 받았다. 26일 원희룡 제주지사는 A 씨 모녀를 거론하며 “증상이 있는데도 제주를 여행하겠다는 이기적인 관광객은 필요 없다”고 말했다. 원 지사는 “해외여행 이력을 숨기고 입도한 여행객에 대해 시설격리 명령을 내리는 등 강력한 제재 조치를 검토하겠다”고도 했다. 한편 대구시는 해외 입국 시민들에 대해 전원 자가 격리와 더불어 코로나19 진단검사를 벌이기로 했다. 이에 대해 중앙재난안전대책본부는 “하루 검사물량이 제한돼 가급적 정부 지침에 따라 검사하는 게 바람직하다”며 사실상 제동을 걸었다. 이미지 기자 image@donga.com제주=임재영 기자 jy788@donga.com 구독 이미지 기자 동아일보 정책사회부 image@donga.com 구독 임재영 기자 동아일보 광주호남취재본부 jy788@donga.com 좋아요 이미지좋아요 슬퍼요 이미지슬퍼요 화나요 이미지화나요 후속기사 원해요 이미지후속기사 원해요 기사추천 이미지기사추천 공유 이미지공유 공유하기 닫기 코로나 감소세코로나 개량백신 접종 첫날 동네병원 ‘한산’…당일 잔여백신 접종 ‘빡빡’“2년 7개월만에 기다리던 일본으로 여행가요” 일본 무비자 여행 재개 첫날 공항마다 긴줄신규확진 1만5476명, 사망 10명…코로나 2가백신 접종 시작Copyright ⓒ 동아일보 &amp; donga.com 당신이 좋아할 만한 콘텐츠 댓글 0개 의견을 남겨주세요. 동아일보는 독자 여러분의 의견을 경청하겠습니다. 전체 댓글 보기 댓글 0개 닫기 많이 본 뉴스 1 성일종 “인공기는 괜찮은가” vs 이재명 “해방 후 친일파 행태” 2 ‘횡단보도 앞 일시정지’ 계도 끝…내일부터 본격 단속 3 추락 사고 잇따르는 ‘국내 최장’ 인천대교…“특단 대책 시급” 4 [단독]‘제트기류’에 美뉴욕발 직항편 중간 착륙…‘테크니컬 랜딩’ 늘어날수도 5 ‘K-방산(防産)’ 전시관 찾은 해외 軍 관계자 “놀랍다” 6 TSMC 키운 대만… “국가 지켜주는 건 美무기 아닌 반도체” 7 안철수 “유승민·나경원 출마를” vs 홍준표 “배신 경력자는 가라” 8 선우은숙 재혼했다…‘4살 연하’ 유영재와 혼인신고 9 같은 번호판 2개…간적 없는 곳서 주차위반 “7달째 영문 몰라” 10 신혜성 측 “만취해 본인 차 아닌 줄 몰라…변명 여지 없다” 최신기사 지난해 ‘로드킬’ 3만7000건…고양이-고라니가 가장 많아 軍동원령에 러시아 여론 악화…“국민, 전쟁 비용에 눈뜨기 시작” KPGA 김한별, 골프채 부러뜨리고 캐디에 폭언…상벌위 회부 “액셀 밟아!” 5세 딸에 운전시킨 부모…벌금 고작 1만원 유승민, 정진석에 “사과하고 비대위원장 직 사퇴하라” 베스트 추천 1 한동훈, 김의겸 ‘美출장 의혹’에 “머릿속 상상 쉽게 말해 주위에 피해” 2 김의겸 “한동훈, 이재명 수사 위해 美출장”…한동훈 “머릿속 상상” 3 선우은숙 재혼했다…‘4살 연하’ 유영재와 혼인신고 4 ‘마케팅용 공짜 마약’에 20대 초범 양산… 놀이터서 주고받기도 5 [단독]‘최대 적자’ 한전, 자회사들은 직원 ‘제주도 가족여행’까지 지원 오피니언 사설 오늘과 내일 횡설수설 동아광장 시론 광화문에서 현장에서 뉴스 정치 경제 국제 사회 문화 연예 스포츠 매거진 신동아 주간동아 여성동아 매거진동아 동아비즈니스리뷰 하버드비즈니스리뷰코리아 어린이동아 과학동아 어린이 과학동아 수학동아 에듀동아 섹션 책의 향기 스타일매거진Q 골든걸 즐거운 인생 edu+ 디 오리지널 헬스동아 실시간 뉴스 이슈 포인트 연재 포인트 트렌드뉴스 뉴스레터 신청 기자 동아APP서비스 오늘의신문 신문보기(PDF) 구독신청 보도자료 보이스뉴스 RSS 동아방송 DBS 채널A 스포츠동아 비즈N MLB파크 보스 VODA IT동아 게임동아 동아일보 회사소개| 문화스포츠사업| 신문박물관| 인촌기념회| 화정 평화재단| 신문광고안내| 구독신청| 독자서비스| 기사제보| 정정보도 신청 주소: 서울특별시 종로구 청계천로 1 | ☎: 02-2020-0114 동아닷컴 회사소개| 광고 (인터넷, 전광판)| 제휴안내| 고객센터| 이용약관| 개인정보처리방침| 청소년보호정책(책임자: 구민회)| 사이트맵| RSS 주소: 서울특별시 서대문구 충정로 29 | Tel: 02-360-0400 | 등록번호: 서울아00741 | 발행일자: 1996.06.18 | 등록일자: 2009.01.16 | 발행·편집인: 박원재 Copyright by dongA.com All rights reserved.</t>
+  </si>
+  <si>
+    <t>제주도, 유니크베뉴 및 MICE 특화 관광상품 공모 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 14:46 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도, 유니크베뉴 및 MICE 특화 관광상품 공모 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 관광 제주도, 유니크베뉴 및 MICE 특화 관광상품 공모 홍창빈 기자 headlinejeju@headlinejeju.co.kr 승인 2020.03.26 19:11 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주특별자치도와 제주컨벤션뷰로는 오는 4월 23일까지 도내 MICE 관련 업체들을 대상으로 '유니크베뉴 및 MICE 특화 관광상품 선정 사업'을 공모한다고 밝혔다. 이번 공모는 올해 처음 시행되는 사업으로 세계적 추세, 최근 5년간 제주 MICE 개최 현황 및 2019 제주 MICE 고객만족도 조사를 반영한 시장분석 결과를 바탕으로 추진하고 있다. 공모는 MICE에 대한 국가별‧지자체별 치열한 경쟁속에서 제주가 MICE 개최지로서의 차별화된 장소‧콘텐츠 발굴과 함께 도내 MICE 관련 업계의 경쟁력을 강화하기 위해 추진된다. 우선, 유니크베뉴는 도내 관광사업체 중 MICE 행사 개최가 가능한 시설들을 대상으로 '일반 유니크베뉴(10개소)', '호텔 유니크베뉴(3개소)' 총 13곳을 선정한다. 통상 호텔의 경우 유니크베뉴 대상에 제외되나, 제주의 경우에는 타시도와 달리 호텔 자체가 특별한 장소(자연, 문화 등)를 보유한 곳이 있어 별도 구분해 선정할 계획이다. 최종 선정시 일반 유니크베뉴는 우수 3개소, 장려 7개소에 대해 시설개선에 필요한 선정지원금을 최대 1000만까지 지원하게 된다. 다만 호텔 유니크베뉴는 선정지원금이 없다. 특히, 유니크베뉴는 선정이후 도내 MICE 행사 개최시 시설 활용에 초점을 맞춰 격년제로 공모를 추진할 예정이다. MICE 특화 관광상품은 도내 컨벤션 기획사(PCO), 여행사(DMC), 관광지 등을 대상으로 'MICE 참가자 맞춤형 국제회의 전후 관광프로그램(Pre&amp;Post Tour) 상품 5개, '팀빌딩 및 체험(Activity) 프로그램' 상품 5개 등 총 10개를 선정한다. 각각의 상품은 최소 30명 이상이 참여할 수 있고, 상품가격이 10만원이내, 투어시간은 4~6시간을 기준으로 하고 있다. 특화 관광상품의 경우에는 서류 및 PT평가만으로 선정하며, 실제 상품 시연평가를 위해 최대 300만원을 지원할 예정이다. 맞춤형 상품은 MICE 참가자들의 제주 체류기간 연장, 팀빌딩 및 액티비티 상품은 기업 인센티브단 유치 확대에 기여할 것으로 기대하고 있다. 공모심사는 4월중으로 외부 전문가들로 구성된 심사단이 PT발표 심사, 5월중으로는 현장평가를 진행하며, 최종선정 결과는 6월에 발표할 예정이다. 최종선정시 선정지원금 뿐만 아니라 국내외 MICE 홍보마케팅 및 홍보물 제작도 지원하게 된다. 특히, MICE 주최측에 인센티브를 지원함으로써 선정된 유니크베뉴 및 특화상품 활용도를 높여나가는 한편, 관련 업계 수익이 증대되는 지역파급효과도 향상시켜 나갈 계획이다. 제주도 관계자는 "유니크베뉴와 MICE 특화관광은 제주지역 MICE 경쟁력 강화에 핵심 키워드로 주목받을 것으로 보고 있다"면서, "국제 MICE 유치제안 뿐만 아니라 MICE 주최자 입장에서도 선택의 폭을 넓힐 수 있을 것으로 기대하고 있다"라고 밝혔다.&lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 홍창빈 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 제주 병설유치원 매운급식 논란..."아이들이 밥을 못 먹어" 제주, 택배 추가배송비 부당 요구사례 접수 창구 운영 제주, 전국에서 가장 비싼 기름값 문제 대응 시장조사 나선다 제주도 실업급여 수급자↓...고용상황 회복세 전환 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 3 서귀포시, 2022년 교통유발부담금 21억원 부과 4 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 5 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 6 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 7 세상을 웃게 만드는 친절 8 제주시, 하반기 사무관 승진의결자 6명 승진 임용 9 서귀포시, 사무관 승진의결자 8명 승진임용 10 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 1 안녕하세요 2 네 3 네 4 지난 회차 이후 오랜만에 글 올려주셔서 너무 반가운 마음에 푹 빠져들어 읽었습니다. 오늘도 공감가는 좋은 글 올려주셔서 감사합니다. 따뜻한 마음의 양식 얻어갑니다. 저만 알고싶은 글 맛집이네요.^^. 5 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 6 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 7 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 8 지역발전의 초석이 되었으면 한다 9 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 10 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>제주도청, 강남구 코로나 확진자 등 동선발표..관광지·편의점·식당·병원·약국 등 多 | 한국정경신문 맑음 SEOUUL JAYANGDONG 17 제목 내용 작성자 제목+내용 서치 로그인 마이페이지 로그아웃 회원가입 로그인 전체 메뉴 전체 메뉴 세계와미래 글로벌 경영 투자 문화 시장과경제 경제 금융 증권 부동산 산업·테크 재계 자동차 전자 유통·소비 IT 과학 제약·바이오 산업종합 정치·사회 정치 사회 인사 동정 부고 문화·스포츠 문화종합 연극·뮤지컬 영화 공연·전시 연예·대중문화 라이프 스포츠 전국 서울 경기 인천 부산 경남 강원 광주 전남·전북 대구·경북 대전·세종·충남 리뷰·팩트체크 기획·여론 기획 칼럼 멀티미디어 인터뷰 K뉴딜 사설 한국정치경제TV 커뮤니티 사고(社告) 자유게시판 세계와미래 글로벌 경영 투자 문화 시장과경제 경제 금융 증권 부동산 산업·테크 재계 자동차 전자 유통·소비 IT 과학 제약·바이오 산업종합 정치·사회 정치 사회 인사 동정 부고 문화·스포츠 문화종합 연극·뮤지컬 영화 공연·전시 연예·대중문화 라이프 스포츠 전국 서울 경기 인천 부산 경남 강원 광주 전남·전북 대구·경북 대전·세종·충남 리뷰·팩트체크 기획·여론 기획 칼럼 멀티미디어 인터뷰 K뉴딜 사설 한국정치경제TV 전체 기사 커뮤니티 사고(社告) 자유게시판 전체메뉴 전체기사보기 세계와미래 시장과경제 산업·테크 정치·사회 문화·스포츠 전국 리뷰·팩트체크 기획·여론 한국정치경제TV 신문사 소개 CEO 인사말 연 혁 윤리기준 사고(社告) 자유게시판 기사제보 독자투고 불편신고 제휴·광고·저작권 문의 이용약관 개인정보취급방침 청소년보호정책 이메일무단수집거부 로그인 마이페이지 로그아웃 서치 제목 내용 작성자 제목+내용 검색 초기화 Home 정치·사회 사회 제주도청, 강남구 코로나 확진자 등 동선발표..관광지·편의점·식당·병원·약국 등 多 최태원 기자 승인 2020.03.26 15:10 의견 3 26일 제주도가 밝힌 7번 코로나 확진자의 동선 (자료=제주도 페이스북) [한국정경신문=최태원 기자] 제주에서 지난 25일 발생한 7번째 코로나19 확진자와 접촉한 인원이 총 35명으로 파악됐다. 이에 따라 이들은 모두 자가격리에 돌입했다. 제주도는 지난 25일 오후 11시 30분께 도내 7번째 코로나 확진자 발생 소식을 전했다. 유학생인 이 확진자는 지난 23일 유럽에서 출발해 아랍에미리트(UAE)를 경유해 인천공항에 도착했고 같은날 오후 8시 50분 김포발 아시아나항공 OZ8997편을 이용해 입도했다. 이후 택시를 이용해 자택으로 귀가했다. 도착 이튿날인 25일 오전 택시를 이용해 제주시 제주보건소 선별진료소로 이동했고 귀가시에도 택시를 이용했다. 이 확진자는 입국 당시 무증상자로 능동 감시대상이었다. 가족없이 집에 혼자 머물렀고 스스로 자가격리 방침을 지킨 것으로 확인됐다. 이동시에도 마스크를 착용했다. 따라서 이 확진자의 접촉자는 제주 입도 당시 비행기 승무원 2명과 승객 28명, 발열 감시원 2명 등과 3번의 택시 이용시 기사 3명 등 총 35명으로 확인됐다. 26일 제주도가 밝힌 서울 강남구 코로나 확진자의 동선 (자료=제주도 페이스북) 이밖에 제주도는 제주를 여행한 서울 강남구 확진자의 동선도 함께 공개했다. 이 확진자는 미국 유학생으로 귀국 후 일행과 함께 제주를 여행했고 24일 제주도를 떠났다. 이어 25일 서울에서 코로나 확진 판정을 받았다. 이 확진자는 지난 20일 오전 이스타항공을 통해 입도해 이후 20일에만 CU제주북성로점, 하이엔드 제주(애월), 번영마트(봉개초 근처), 한화리조트 등을 방문했다. 이어 21일에는 자매국수 본점, 귤하르방 삼성혈점, 리조트 내 활어매장 및 GS편의점 등을 찾았다. 22일에는 드르쿰다 in 성산, 제주해비치호텔앤드리조트 체크인 후 편의점, 놀멍, 야외수영장 등을 방문했고 23일에는 해비치 의원 및 소아약국(표선동), 성산포항 선착장, 우도, 원조 로뎀가든 직영점, 대니스 카페, 성산포수협수산물직판장, 해왓 등을 들렀다. 24일에는 체크아웃 후 윈드1947 카트 테마파크를 방문한 후 렌터카를 반납하고 김포공항으로 향했다. UP0 DOWN2 한국정경신문 최태원 기자 ctw0104@gmail.com 최태원 기자의 기사 더보기 저작권자 &lt;지식과 문화가 있는 뉴스&gt; ⓒ한국정경신문 | 상업적 용도로 무단 전제, 재배포를 금지합니다. 댓글 3개의 댓글 14.49.***.137 20-03-27 22:37:22 ┗ 제주도 가만 두세요 제주도도 힘들어요 제발 정부 지침 따라주세요 답글 116.123.***.8 20-03-27 07:23:31 ┗ 자가격리조치받았음집에있어야지... 엄마도잘못이네요... 본인의즐길거리를위해만인의목숨이위협을느낀다는생각은안해보셨는지... 만약다른사람이이런일저질렀다면분명본인들이1번으로욕했을듯...반성하세요!!!!!답글 211.252.***.108 20-03-26 20:00:35 ┗ 제주를 죽이려구 작정하고 내려왔네!!!너무한다 진짜!뇌가없다 없어!!!!답글 등록 처리중.. 0 / 500 1 섹션 많이 본 기사 1 “한글은 한류를 이끄는 힘”..연세한글탑 건립 30주년 기념 행사 강헌주 기자 사회 2 "미래의 무역실무 전문가 양성"..단국대 GTEP, 오사카 라이프스타일 전시회 참가 김성원 기자 사회 3 검찰, 롯데바이오 압수수색..삼성바이오 영업비밀 침해 의혹 김제영 기자 사회 4 해경, 백령도 인근서 불법조업하던 중국 어선 2척 나포 이상훈 기자 사회 5 무비자 일본 관광 2년7개월만에 11일부터 재개.."한국·대만서 예약 급증" 윤성균 기자 사회 6 2015년 이후 외국인 전국 아파트 매수 3만건..중국인 62% 차지, 가장 인기 지역은? 윤성균 기자 사회 7 코로나19 신규확진 8981명, 98일만에 1만명 아래로..한글날 연휴 검사 급감 영향 윤성균 기자 사회 8 38만가구, 소득 40% 이상 원리금 상환에 사용..집 등 자산 팔아도 빚 못 갚는 현실 윤성균 기자 사회 섹션 주요기사 1 “한글은 한류를 이끄는 힘”..연세한글탑 건립 30주년 기념 행사 강헌주 기자 사회 2 요양병원·시설 접촉면회 내달 4일부터 허용..내일부터 '입국 후 PCR'도 해제 김성원 기자 사회 3 제주도서 울려퍼진 사회복지전담공무원의 외침.."우리는 모두 전문가" 이상훈 기자 사회 4 [추석 연휴] 부산~서울 5시간40분 소요..고속도로 정체 오후 9시 이후 풀릴 듯 강헌주 기자 사회 5 [추석 연휴] 거리두기 해제 후 첫 명절..전국 곳곳서 귀성행렬 이상훈 기자 사회 6 추석 연휴 대중교통 '한칸 띄어앉기' 없다..9∼12일 고속도로 통행료 면제 김성원 기자 사회 섹션 최신기사 1 무비자 일본 관광 2년7개월만에 11일부터 재개.."한국·대만서 예약 급증" 윤성균 기자 사회 2 코로나19 신규확진 8981명, 98일만에 1만명 아래로..한글날 연휴 검사 급감 영향 윤성균 기자 사회 3 38만가구, 소득 40% 이상 원리금 상환에 사용..집 등 자산 팔아도 빚 못 갚는 현실 윤성균 기자 사회 4 2015년 이후 외국인 전국 아파트 매수 3만건..중국인 62% 차지, 가장 인기 지역은? 윤성균 기자 사회 5 해경, 백령도 인근서 불법조업하던 중국 어선 2척 나포 이상훈 기자 사회 6 검찰, 롯데바이오 압수수색..삼성바이오 영업비밀 침해 의혹 김제영 기자 사회 7 “한글은 한류를 이끄는 힘”..연세한글탑 건립 30주년 기념 행사 강헌주 기자 사회 8 "미래의 무역실무 전문가 양성"..단국대 GTEP, 오사카 라이프스타일 전시회 참가 김성원 기자 사회 헤드라인 뉴스 1 현대차 '황금알' 중고차 시장 출격 초읽기..인프라 구축 '기대' vs 시장 독식 '우려' 이정화 기자 자동차 2 복지시스템 마비..LG CNS, 국회서 책임통감한다더니 대책묻자 “복지부에 물어보라” 이상훈 기자 IT 3 우크라이나 키이우 큰 폭발, 사상자 여러 명 발생..러, 미사일 공습 가능성 윤성균 기자 글로벌 4 약세장에 잇단 흥행실패, 기업공개 시장 '찬바람;..컬리·케이뱅크 상장, 내년 갈 듯 윤성균 기자 증권 5 한화건설, 14조원 규모 이라크 신도시 사업 철수한다..공사대금 못받고 더 큰 손실 우려 윤성균 기자 부동산 6 무비자 일본 관광 2년7개월만에 11일부터 재개.."한국·대만서 예약 급증" 윤성균 기자 사회 7 기업들 “4분기 제조업 경기 더 어려워질 것”..신산업·ICT도 부진할 것으로 예상 윤성균 기자 산업종합 8 코로나19 신규확진 8981명, 98일만에 1만명 아래로..한글날 연휴 검사 급감 영향 윤성균 기자 사회 댓글 많은 기사 1 "트와이스 발탁부터 이준호 팬미팅까지"..롯데면세점, K컬처 마케팅 글로벌 공략 개시 김제영 기자 유통·소비 2 [국감] 불 끄라고 보냈더니 기름 부은 현산 정익희 대표.."정몽규 소환하자" 불똥 최경환 기자 정치 3 급성장하는 로보어드바이저 시장..든든·파운트·핀트 3강체제 굳혔다 이상훈 기자 IT 4 '어닝쇼크' 삼성전자, 주가에 쏠리는 관심.."당분간 변동성 클 것" 김제영 기자 증권 5 고려아연, 2차전지 소재사업 가치 부각 전망..목표가 62만→73만원-하나증권 윤성균 기자 증권 6 우미건설, 파주 운정신도시 우미린 센터포레 견본주택 오픈..총 522가구 조성 강헌주 기자 부동산 7 쉽게 글 배우라고 만든 한글인데..도로명·아파트명에 정체불명 외국어가 가득 이상훈 기자 부동산 8 LH, 행복주택 3570가구 공급..20일까지 청약신청 강헌주 기자 부동산 주요 기사 1 쉽게 글 배우라고 만든 한글인데..도로명·아파트명에 정체불명 외국어가 가득 이상훈 기자 부동산 2 “국가경쟁력 확보위해 과학의전당 건립 절실”..건립 추진 포럼 열려 강헌주 기자 정치 3 [현장+] 끊이지 않는 ‘위생·안전’ 논란..맥도날드, ‘눈 가리고 아웅’식 대처 언제까지 김제영 기자 칼럼 4 '어닝쇼크' 삼성전자, 주가에 쏠리는 관심.."당분간 변동성 클 것" 김제영 기자 증권 5 대흥정보, 국토부로부터 ‘스마트 파킹서비스’ 인증..“주차서비스 혁신적 개선” 김형규 기자 산업종합 신문사 소개 연 혁 윤리기준 사고(社告) 자유게시판 기사제보 독자투고 불편신고 제휴·광고·저작권 문의 이용약관 개인정보취급방침 청소년보호정책 이메일무단수집거부 (주)한국정경신문 서울 영등포구 여의나루로 53-1 대오빌딩 11층 | 070-4908-0065 | kpenewscom@gmail.com 대표 이경호 | 발행인·사장 김 혁 | 편집인 김성원 | 청소년보호책임자 강헌주 | 인터넷신문 등록번호 서울 아 01248 | 등록일자 2010.05.28. 2022 © (주) 한국정경신문 All rights reserved. | '디지털 세상을 읽는 미디어' 디지털머니 | '컨텐츠 플랫폼' 뉴스브릿지 | '전기차의 모든 것' 전기차닷컴 |</t>
+  </si>
+  <si>
+    <t>제주도관광협회, '팜팜버스'대상마을 모집 &lt; 제주 &lt; 전국 &lt; 기사본문 - 국제뉴스 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 [급등주] 투비소프트 상승, 투비디티엑스-키월드 MOA 체결 [특징주] 대화제약 주가 하락 '요오드 관련주 수혜 끝났나' [급등주] 켐온, 코아스템과 흡수합병 진행 '27%↑' [특징주] 나노씨엠에스 주가 급등 '바이러스 사멸램프 성능 소개' [특징주] 해성산업 주가 상승 '계양전기 투자부문 분할흡수합병' [급등주] SCI평가정보 상승, 한은 두 번째 빅스텝 전망 [급등주] 코디엠 3거래일 지속 상승 '삼성전자 영향?' [급등주] 테라셈 상장폐지 앞두고 정리매매 '60%↑' [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' [특징주] 삼성전자 주가 하락 '세계 반도체 1위 뺏겼다' 2022-10-11 14:38 (화) 김포 사우동 횟집서 불…인명피해 없어 수원 팔달구 음식점서 불…인명피해 없어 전남 도서지역·해상서 응급환자 2명 발생 해경, 진도군 도서지역 골절 환자 '병원 이송' 화천서 SUV 차량 전복…2명 부상 정선서 승합차·화물차 추돌…3명 경상 진도군 도서지역서 응급 환자 발생..해경 육지로 이송 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 동해해경, 위험예보제 '주의보' 발령 인천 남동구 공장 기숙사서 불…인명피해 없어 인천 남동구 음식점서 불…인명피해 없어 원주 단계동 음식점 화재…인명피해 없어 시작페이지 즐겨찾기 홈 로그인 회원가입 정치 정치 대통령실 외교 국방 종합 청와대 경제 경제일반 산업/기업 부동산 종합 사회 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 문화 영화/공연 여행 연예 연예 종합 스포츠 국내스포츠 종합 국제 World News 종합 전쟁/난민 테러/시위 전국 서울 경기남부 경기북부 인천 강원 대전 충남 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 포토 종합 핫 포토 해외스포츠 해외경제 국제뉴스TV 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도관광협회, '팜팜버스'대상마을 모집 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국 제주 제주도관광협회, '팜팜버스'대상마을 모집 기자명 김승환 기자 입력 2020.03.18 16:46 수정 2020.03.18 16:48 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 오는 27일까지…선정마을 체험비 지원 등 마을 홍보영상제작 지원 (제주=국제뉴스) 김승환 기자 = 제주도와 제주도관광협회(회장 부동석)는 오는 19일부터 도내 농․어촌 체험가능한 마을과 영농․어조합법인 대상으로‘지역(마을) 융복합 콘텐츠 관광상품화 및 홍보사업’에 참여할 마을을 공모한다.지역(마을) 융복합 콘텐츠 관광상품화 및 홍보사업은 2016년부터 ‘팜팜버스(Farm &amp; Family Bus)’란 마을관광 프로그램으로 운영됐으며, 도내 마을이 보유한 이색적인 관광콘텐츠 발굴과 함께 마을 인지도 확산 및 관광수익의 지역사회 환원 차원에서 추진되는 사업이다.이번 공모는 오는 3월 27일까지 진행하며 관광협회 홈페이지에서 지원양식을 다운받아 신청하면 된다. 이후 신청 마을을 대상으로 전문 평가단에 의해 대상 마을이 선정되며, 선정마을에는 향후 팜팜버스 프로그램 참가자 모객 및 체험비 지원, 마을 홍보영상제작, SNS 온라인 홍보, 마을주민 대상 교육 등이 지원·실시된다.협회 관계자는 "코로나19 진정국면 이후 팜팜버스 프로그램을 통하여 농·어촌 관광활성화를 불러일으켜 지역주민들의 수익 창출 효과 제고와 함께 청정 제주 이미지 확산을 통하여 제주관광이 다시 재도약하는 계기가 마련되도록 지속적인 노력을 기울여나가겠다"고 말했다. 김승환 기자 qjqantk0603@naver.com 다른기사 보기 저작권자 © 국제뉴스 무단전재 및 재배포 금지 당신만 안 본 뉴스 [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 골프선수 박결, 꽃보다 아름다운 미모...나이 등 프로필 궁금증 오늘날씨 '가을축제·단풍, 핑크뮬리명소' 가볼만한곳, 서울날씨 이정후 여동생 이가현, 고우석과 결혼...나이·직업·얼굴·프로필 궁금증 토트넘·아스널 경기일정 "손흥민 무섭다" 중계채널시간 상생소비복권 '당첨자발표일' 100만원 당첨금 지급일 언제 박민영 열애설 주인공은 강종현 회장은 누구? [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 주요기사 이재명 "일본을 한반도에 끌어들이는 자충수 중단해야" 한전KDN, 현장에서 답 찾는다...적극행정문화 확산 이재명 "한미일 군사훈련, 좌시할 수 없는 국방참사·안보자해행위" 성시경 골드버튼, 믿고 보는 유튜버됐다 대화하는 이재명-박홍근 발언하는 이재명 더불어민주당 대표 최신뉴스 이재명 "일본을 한반도에 끌어들이는 자충수 중단해야" 한전KDN, 현장에서 답 찾는다...적극행정문화 확산 이재명 "한미일 군사훈련, 좌시할 수 없는 국방참사·안보자해행위" 성시경 골드버튼, 믿고 보는 유튜버됐다 대화하는 이재명-박홍근 포토뉴스 이재명 "일본을 한반도에 끌어들이는 자충수 중단해야" 한전KDN, 현장에서 답 찾는다...적극행정문화 확산 이재명 "한미일 군사훈련, 좌시할 수 없는 국방참사·안보자해행위" 성시경 골드버튼, 믿고 보는 유튜버됐다 인기뉴스 1 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 2 우크라이나 러시아 전쟁, 노획 러군 탱크 3 [속보] 美 9월 실업률 3.5%…전월 대비 0.2%P 하락 4 러시아 우크라이나 자포리자 공격, 최소 3명 사망 5 해경, 진도군 도서지역 골절 환자 '병원 이송' 6 '뿌리면 옷이 된다' 파리패션위크 화제의 드레스 7 화천서 SUV 차량 전복…2명 부상 8 [지진 속보] 北, 함경북도 길주 39km 지역서 2.4 규모 지진 발생 하단영역 하단메뉴 매체소개 기사제보 광고문의 콘텐츠 판매 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 제휴사 매체정보 주소 : 서울특별시 송파구 동남로 103 (청송빌딩) 2층 국제뉴스 본사 정부인가번호 : 문화 나-00021호 등록일 : 2012-04-02 부가통신사업신고번호 : 제 2-01-22-0051 호 발행일 : 2011-11-16 대표전화 : 02-2281-5005 팩스 : 02-6455-5003 청소년보호책임자 : 김택수 법인명 : 국제뉴스 제호 : 국제뉴스 발행·편집인 : 김영규 국제뉴스의 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 국제뉴스. All rights reserved. mail to webmaster@gukjenews.com 위로 전체메뉴 전체기사 정치 전체 정치 대통령실 외교 국방 종합 청와대 경제 전체 경제일반 산업/기업 부동산 종합 사회 전체 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 전체 문화 영화/공연 여행 연예 전체 연예 종합 스포츠 전체 국내스포츠 종합 국제 전체 World News 종합 해외경제 전쟁/난민 테러/시위 전국 전체 서울 경기남부 인천 강원 충남 대전 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 종합 경기북부 포토 전체 종합 핫 포토 라이프·헬스 소셜 / sns 영상 세계 전체 Korea News 해외스포츠 미분류 자동차(x) 전체 종합 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>“제주도는 피난처가 아닙니다”…관광지 제주의 딜레마 Internet Explorer 지원 종료 안내 사용 중이신 인터넷 익스플로러(Internet Explorer)에서는 일부 기능 사용에 제한이 발생할 수 있습니다.크롬(Google Chrome), 엣지(Microsoft Edge) 등 최신 브라우저에 최적화되어 있습니다. 오늘 하루 열지 않기 메뉴 바로가기 본문 바로가기 푸터 바로가기 KBS NEWS 제보 ON AIR 재난포털 로그인 마이페이지 유튜브 페이스북 인스타그램 kbs 찾기 전체메뉴 분야별 뉴스9 TV뉴스 디지털K 스포츠 시사다큐 지역뉴스 어떤 기사를 찾으시나요? 뉴스 검색 검색어 입력 검색 버튼 많이 본 뉴스 동영상 - 검색창 숨기기 분야별 분야별- 대분류타이틀 전체 정치 경제 사회 문화 IT·과학 국제 생활·건강 스포츠 연예 날씨 특보 이슈 TV뉴스 1TV 뉴스 06:00 뉴스광장 1부 07:00 뉴스광장 2부 09:30 930뉴스 12:00 뉴스 12 14:00 뉴스 2 16:00 사사건건 17:00 뉴스 5 19:00 뉴스 7 21:00 뉴스 9 23:30 뉴스라인 2TV 뉴스 09:00 아침뉴스타임 10:40 지구촌뉴스 15:00 뉴스타임 17:50 통합뉴스룸ET 1TV 경인 뉴스광장(경인) 930 뉴스(경인) 뉴스7(경인) 뉴스9(경인) 디지털K 취재K 취재후·사건후 여심야심 데이터룸 팩트체크K 탐사K 스포츠K 글로벌K 특파원 리포트 세계는 지금 영상K 현장영상 속보영상 친절한뉴스K 기타 제대로 보겠습니다 크랩 용감한라이브 속고살지마 News Today(영어뉴스) 시사·다큐 시사 시사기획 창 일요진단 라이브 남북의 창 시사멘터리 추적 특파원 보고 세계는 지금 재난방송센터 인사이드 경인 라디오 최경영의 최강시사 주진우 라이브 최영일의 시사본부 성공예감 김방희입니다 지역뉴스 지역별- 대분류 부산 울산 창원 진주 대구 안동 포항 광주 목포 지역별- 대분류 순천 전주 대전 청주 충주 춘천 강릉 원주 제주 바로가기 바로가기 메뉴 좋아요 클립 제보 재난포털 ON AIR 뉴스 아카이브 정치합시다 글로벌 돋보기 경제한방 2022 지방선거 질문하는 기자들Q 2022 대통령선거 2022 베이징올림픽 2022 베이징패럴림픽 2020 도쿄올림픽 2020 도쿄패럴림픽 4·7 재보궐선거 저널리즘 토크쇼 J 박광식의 건강 365 한국언론 오도독 GO현장 고봉순 여의도 책방 2020 총선 2019 북미정상회담 3.1운동 100년 2018 남북정상회담 2018 북미정상회담 6.13 지방선거 러시아 월드컵 [특집] 평창동계올림픽 [특집] 평창동계패럴림픽 지진대피요령 뉴스 검색 검색어 입력 검색 버튼 기사 본문 영역 상세페이지 이슈 ‘코로나19’ 팬데믹 “제주도는 피난처가 아닙니다”…관광지 제주의 딜레마 입력 2020.03.11 (07:05) 수정 2020.03.11 (07:11) 취재K 댓글 좋아요 공유하기 인쇄하기 글씨 크게보기 가 글씨 작게보기 고화질 표준화질 자동재생 키보드 컨트롤 안내 동영상영역 시작 동영상 시작 동영상영역 끝 동영상설명 동영상 고정 취소 "유일한 선택지가 제주도더라고요"에메랄드빛 바다로 유명한 제주시 내 한 해수욕장. 비가 추적추적 내리는 날에도 관광객들을 심심찮게 볼 수 있습니다.코로나19 여파를 겪고 있는 중이지만 협재해수욕장 앞 주차장은 관광객들이 탄 렌터카들로 거의 들어찼습니다. 코로나19 확진자가 전국적으로 8천 명에 육박하면서, 되도록 외출을 자제하자는 '사회적 거리 두기' 캠페인이 벌어지는 요즘, 관광객들이 마스크까지 챙겨가며 제주를 찾는 이유는 뭘까요?대부분 제주도가 유일한 선택지면서, '안전지대'라 생각하기 때문이라고 답했습니다.서울에서 온 송 모 씨(29)는 "코로나19가 터지기 전부터 예약해놔 여행 올 때 고민이 되긴 했지만, 제주는 확진자가 몇 안 나와 청정 지역이라고 생각했다"며 "마스크와 손 소독제를 서울에서 챙겨왔고, 확진자가 다녀간 곳을 확인해 피하고 있다"고 말했습니다.경기도 고양시에서 다섯 가족과 함께 왔다는 조민철 씨(50) 역시 "아이들이 집에만 있기엔 답답해해 오랜만에 놀러 왔는데, 항공편을 이렇게 저렴하게 구매하긴 처음"이라며 "탁 트인 바다나 숲 위주로 가되 실내 관광지는 피하며 다니려 한다"고 답했습니다. 올해와 작년, 각각 제주를 찾은 내국인과 중국인 관광객 수반 토막 난 내국인 관광객, 사라진 중국인 관광객제주를 찾는 내국인 관광객이 많이 줄어든 건 사실입니다. 중국 우한 출신 관광객이 제주에 다녀간 뒤 본국에서 코로나19 확진 판정을 받았다는 사실이 알려진 건 지난달 1일. 이때부터 한 달 동안 제주를 찾은 내국인 관광객은 60만 명 정도로 제주도는 추정합니다. 100만 명에 육박한 작년과 비교했을 때 절반 정도 줄었습니다.중국인 관광객들의 감소 폭은 더 큽니다. 무사증(무비자) 제도가 중단된 지난달 4일부터 지난 2일까지 제주에 들어온 중국인 관광객은 1,868명으로, 전년 대비 40분의 1 수준으로 감소했습니다. 작년 같은 기간 중국인 관광객이 7만 명 가까이 들어오다, 2천 명도 안 되게 뚝 떨어진 겁니다. 내국인 관광객이 반 토막 나고 중국인 관광객들은 사실상 사라진 실정입니다.진정한 '비수기'를 노리기 위해서일까요. 그런데도 여전히 제주를 찾는 내국인 관광객은 하루에 만 명을 넘습니다. 취재기자에게도 이 기회에 제주에 오겠다며 연락하는 지인들이 열 손가락을 넘습니다. 관광객들로 북적이지 않는, 조용한 제주를 즐기겠다는 게 이들이 이구동성 하는 말입니다. 국내 저비용항공사 진에어와 신라호텔에서 출시한 제주 관련 판촉 상품(사진 출처 : 진에어 및 신라호텔 홈페이지)항공사·호텔 제주 판촉 상품 잇따라 출시이러한 관광객들의 발걸음을 유도하기 위해, 항공사와 호텔들도 저마다 제주 관련 상품들을 출시했습니다.국내 저비용항공사(LCC) 진에어는 제주행 비행기를 편도 1만 원대에 내놨습니다. 김포와 청주, 광주와 부산 등 전국에서 왕복 3만 원 안팎이면 제주에 갈 수 있는 건데, 통상 특가 항공권에 15kg 위탁 수화물이 포함돼있지 않는 걸 생각하면 파격적인 가격대입니다.제주신라호텔은 신혼부부들을 위한 패키지 상품을 마련했습니다. 중국과 일본을 포함한 100여 개 국가가 한국인 입국을 제한하거나 금지하는 상황에서, 사실상 오갈 데 없는 신혼부부들을 제주로 유인하는 겁니다. 호텔 안팎에서 신혼여행 추억을 사진으로 남길 수 있도록 하고, 제주공항 주차장 비용면제에 호텔 세탁 서비스 감면 등의 부대 혜택도 제시했습니다.협재해수욕장 인근 가게에 비치된 손 소독제와 물티슈"차라리 확진자가 다녀갔으면 좋겠어요."연일 울상이던 관광업계는 환영하는 입장입니다. 이 시기 제주를 찾는 관광객들이 한 줄기 빛이라는 건데, 지금껏 이렇게 힘든 적이 없었다는 게 이들의 공통된 설명입니다.함덕해수욕장과 협재해수욕장 두 곳에서 수제 햄버거 가게를 운영하는 이영신 씨는 하루하루 울며 겨자 먹기로 가게 문을 연다고 말합니다. 매출이 80% 넘게 줄어 수익이 없다시피 하지만, 그렇다고 장사를 한동안 접기엔 임대료 감당이 안 된다는 겁니다. 자신과 아내를 포함해 직원 8~9명이 가게 두 곳을 운영했지만, 5명으로 규모를 줄여 가게를 꾸려나간다는 게 이 씨 설명입니다. 이 씨는 "월세 부담 때문에 대출도 알아봤지만, 무이자 대출은 확진자가 다녀간 지역만 가능했다"면서 "주변 상인들 사이에선, 차라리 확진자가 다녀갔으면 좋겠다는 얘기도 나온다"고 토로했습니다. 협재해수욕장 인근서 커피숍 겸 공방을 운영하는 박경순 씨도 비슷한 대답을 내놨습니다. 박 씨는 "사나흘 전부터 하나둘씩 사람들이 찾아오는 것 같다"며 "아무래도 확진자가 나온 함덕이나 중문보다는 서쪽 지역이 안전하다고 생각하는 모양새다"고 말했습니다. 다만 "단체나 삼삼오오 모여서 여행오는 경우는 거의 없고, 한달살기 하거나 제주도민들이 오는 경우가 오히려 많다"고 덧붙였습니다.곳곳에서 착한 임대료 얘기들이 나오지만, 실제론 보기 어렵다는 이야기도 꺼냅니다. 한 달에 2백에서 3백만 원을 월세로 내지만, 이 월세를 감면해주거나 받지 않겠다는 이야기는 자신이 듣지도, 주변에서 보지도 못했다는 겁니다. 두 자영업자 모두 '관광객 감소로 인한 임대료 걱정'을 내려놓지 못했습니다. 제주 한 달 살기를 금지해달라는 내용의 청와대 국민청원(사진 출처 : 청와대 국민청원 홈페이지)"확진자 전부 육지에서 와…제주도 피난처 아냐"관광업계의 고뇌와 달리 정작 일부 제주도민들은 관광객에 전전긍긍하는 눈치입니다. 제주를 제외한 여타 시도에서 코로나19 확진자가 연일 발생하는 상황에서, 제주에 감염병을 퍼뜨릴 수 있다는 우려 때문입니다.실제로 지금까지 제주에서 나온 코로나19 확진자 네 명은 모두 대구광역시에 다녀온 이력이 있습니다. 대구에서 감염돼 제주에 내려왔을 가능성이 크다는 제주도 역학조사관들의 분석이 나오는 상황에서, 도민들의 불안감은 커지기만 합니다.며칠 전엔 제주 한 달 살기를 금지해 달라는 국민청원까지 올라왔습니다. 종합병원이 6곳에 그치는 다소 취약한 의료 여건 탓에 한 번 감염병이 퍼지면 병상 부족 문제 등이 불거질 수 있는 제주. 이 때문에 도민들은 될 수 있으면 외출을 자제하며 전전긍긍하지만, 관광객들은 제주를 피난처로 생각하며 별생각 없이 놀러 온다는 겁니다."한 달 살기 분들은 코로나 사태 동안 잠깐 있다 다시 원래 지역으로 올라가시겠지만, 저희 제주도민들에게 제주도는 보금자리이자 우리의 아이들이 성장하는 공간입니다." 국민청원을 올린 제주도민의 생각을 압축하는 문장입니다.최근 한 달 살기를 위해 제주에 왔다며 글을 올린 한 유명 인플루언서 계정(사진 출처 : 인스타그램)유명 인플루언서의 제주 한달살기에 논란 가중돼팔로워가 10만 명이 넘는 한 유명 인플루언서는 비슷한 이유에서 일부 네티즌들의 뭇매를 맞기도 했습니다. 학교 개학이 미뤄지면서 아이들을 위해 제주에 한 달가량 내려왔다는 내용의 게시글인데, '제주도를 피난처로 생각하지 말라'는 댓글이 달리며 한바탕 싸움이 벌어지기도 했습니다.한 네티즌은 "음압병실에 격리돼 항체도 백신도 없어 언제 치료될지도 몰라 한없이 입원해야 하는 코로나바이러스 유행 중에 (제주도로) 피신을 오는 거냐"면서 "도민들은 조마조마하며 아이들 학교와 유치원, 어린이집도 못 보내고 있는데 기가 차다"고 말했습니다.또 다른 네티즌 역시 "정부에서 지역 간 이동을 자제하라고 했지, 여행을 가라고 개학을 연기한 것도 아니지 않으냐"며 우려의 목소리를 나타냈습니다.일반인들에게 상당한 영향력을 끼치는 인플루언서의 글에 일반인들도 '나도 제주도나 가볼까?'하고 제주 여행을 가볍게 생각할 수 있다는 지적들이 잇따랐는데, 결국 이 인플루언서는 하루 만에 사과의 게시글을 올렸습니다. 마스크를 끼고 기념품 가게를 구경하는 관광객들환기 생활화에 자체 열 감지 카메라 설치까지관광업계는 경영난에 신음하고, 도민들은 코로나19 확산에 두려워하는 지금. 관광업계는 나름의 자구책을 마련하고 있습니다. 혹시 모를 관광객들로 인한 바이러스 전염 가능성을 차단하기 위해, 마스크 착용에 손 소독제 구비는 물론, 자체 비용까지 들여 방역에 나서는 겁니다. 제주시 한림읍 일대에서 기념품 가게에서 일하는 직원 하현용 씨는 "가게 특성상 손님들이 주로 와서 물건을 만지고 가기 때문에, 손님들이 가시면 수시로 기념품 위에 소독제를 뿌리고 있다"며 "실내 공간에서 감염 위험성이 큰 만큼, 최대한 환기도 많이 시키려 한다"고 말했습니다. 밀폐된 공간이다 보니 하루에 최소 5번씩은 환기를 시키고, 날이 맑으면 문을 열어놓고 영업한다는 설명도 덧붙였습니다.월평균 5만 명이 찾는 미디어아트 전시장 '빛의 벙커'도 매주 한 번씩 전시장과 셔틀버스 소독을 하고 있습니다. 지난달 28일부터는 자체 비용을 들여 열 감지 카메라를 설치해 입장 관람객들을 대상으로 체온 검사를 진행하고 있습니다.빛의 벙커 사업총괄 김현정 이사는 "(코로나19 여파로) 평소보다 관광객이 절반 이상 줄었다"면서도 "그럼에도 마스크 소지자에 한해 입장이 가능하도록 입구에서 조처하고 있다"고 설명했습니다. 코로나19 예방 수칙 가운데 하나인 손 씻기관광지면서 누군가의 생활 터전…제주가 갖는 딜레마제주도는 누군가의 생활 터전인 동시에 세계적인 관광지입니다. 그래서일까요, 제주도민 가운데 관광숙박업 등에 종사하는 사람도 많습니다. 같은 제주도민이더라도 관광객을 환영하는 사람과, 그렇지 않은 사람이 있을 수밖에 없습니다.관광객 감소로 인한 손실을 줄이고, 도민 불안을 해소할 방법은 결국 하나라고 전문가들은 말합니다. 관광업계의 철저한 방역과 이에 뒤따르는 관광객들의 사전 예방입니다. 홍성화 제주관광학회장은 "지금 할 수 있는 건 최대한 방역을 철저히 하는 것"이라며 "요즘은 관광객들과 제주도민들의 이동 동선이 많이 겹치기 때문에, 방역이 관광객뿐만 아니라 도민들을 위한 조치이기도 하다"고 강조했습니다.제주관광협회와 제주도도 업소 차원의 자체 방역을 권장하고 있습니다. 제주관광협회는 지난주 제주도, 제주도관광공사와 함께 10L 살균제 2천4백여 개를 도내 음식점과 숙박업소, 렌터카 업체 등에 배포했습니다. 손 소독제도 배부했는데, 제주관광협회에서 배부한 물량만 2천 개가 넘습니다.부동석 제주관광협회장은 "다음 주부터는 제주도관광공사, 제주도와 함께 공동 방역에 들어갈 예정"이라면서 "관광지는 물론 전세버스 같은 경우 개학하면 학생들이 많이 타기 때문에 방역에 철저함을 기울이고 있다"고 설명했습니다.방역과 함께 중요한 건, 관광객들의 사전 예방입니다. 철저한 마스크 착용과 주기적인 손 씻기. 공자님 말씀 같지만, 사실상 정답에 가까운 이 두 가지 수칙만이 엇갈린 제주도민들의 생각을 좁힐 유일한 방법일 겁니다.▶ ‘ 코로나19 확산 우려’ 최신 기사 보기http://news.kbs.co.kr/news/list.do?icd=19588▶ ‘코로나19 팩트체크’ 제대로 알아야 이긴다 바로가기http://news.kbs.co.kr/issue/IssueView.do?icd=19589 “제주도는 피난처가 아닙니다”…관광지 제주의 딜레마 입력 2020-03-11 07:05:59 수정2020-03-11 07:11:59 취재K "유일한 선택지가 제주도더라고요"에메랄드빛 바다로 유명한 제주시 내 한 해수욕장. 비가 추적추적 내리는 날에도 관광객들을 심심찮게 볼 수 있습니다.코로나19 여파를 겪고 있는 중이지만 협재해수욕장 앞 주차장은 관광객들이 탄 렌터카들로 거의 들어찼습니다. 코로나19 확진자가 전국적으로 8천 명에 육박하면서, 되도록 외출을 자제하자는 '사회적 거리 두기' 캠페인이 벌어지는 요즘, 관광객들이 마스크까지 챙겨가며 제주를 찾는 이유는 뭘까요?대부분 제주도가 유일한 선택지면서, '안전지대'라 생각하기 때문이라고 답했습니다.서울에서 온 송 모 씨(29)는 "코로나19가 터지기 전부터 예약해놔 여행 올 때 고민이 되긴 했지만, 제주는 확진자가 몇 안 나와 청정 지역이라고 생각했다"며 "마스크와 손 소독제를 서울에서 챙겨왔고, 확진자가 다녀간 곳을 확인해 피하고 있다"고 말했습니다.경기도 고양시에서 다섯 가족과 함께 왔다는 조민철 씨(50) 역시 "아이들이 집에만 있기엔 답답해해 오랜만에 놀러 왔는데, 항공편을 이렇게 저렴하게 구매하긴 처음"이라며 "탁 트인 바다나 숲 위주로 가되 실내 관광지는 피하며 다니려 한다"고 답했습니다. 올해와 작년, 각각 제주를 찾은 내국인과 중국인 관광객 수반 토막 난 내국인 관광객, 사라진 중국인 관광객제주를 찾는 내국인 관광객이 많이 줄어든 건 사실입니다. 중국 우한 출신 관광객이 제주에 다녀간 뒤 본국에서 코로나19 확진 판정을 받았다는 사실이 알려진 건 지난달 1일. 이때부터 한 달 동안 제주를 찾은 내국인 관광객은 60만 명 정도로 제주도는 추정합니다. 100만 명에 육박한 작년과 비교했을 때 절반 정도 줄었습니다.중국인 관광객들의 감소 폭은 더 큽니다. 무사증(무비자) 제도가 중단된 지난달 4일부터 지난 2일까지 제주에 들어온 중국인 관광객은 1,868명으로, 전년 대비 40분의 1 수준으로 감소했습니다. 작년 같은 기간 중국인 관광객이 7만 명 가까이 들어오다, 2천 명도 안 되게 뚝 떨어진 겁니다. 내국인 관광객이 반 토막 나고 중국인 관광객들은 사실상 사라진 실정입니다.진정한 '비수기'를 노리기 위해서일까요. 그런데도 여전히 제주를 찾는 내국인 관광객은 하루에 만 명을 넘습니다. 취재기자에게도 이 기회에 제주에 오겠다며 연락하는 지인들이 열 손가락을 넘습니다. 관광객들로 북적이지 않는, 조용한 제주를 즐기겠다는 게 이들이 이구동성 하는 말입니다. 국내 저비용항공사 진에어와 신라호텔에서 출시한 제주 관련 판촉 상품(사진 출처 : 진에어 및 신라호텔 홈페이지)항공사·호텔 제주 판촉 상품 잇따라 출시이러한 관광객들의 발걸음을 유도하기 위해, 항공사와 호텔들도 저마다 제주 관련 상품들을 출시했습니다.국내 저비용항공사(LCC) 진에어는 제주행 비행기를 편도 1만 원대에 내놨습니다. 김포와 청주, 광주와 부산 등 전국에서 왕복 3만 원 안팎이면 제주에 갈 수 있는 건데, 통상 특가 항공권에 15kg 위탁 수화물이 포함돼있지 않는 걸 생각하면 파격적인 가격대입니다.제주신라호텔은 신혼부부들을 위한 패키지 상품을 마련했습니다. 중국과 일본을 포함한 100여 개 국가가 한국인 입국을 제한하거나 금지하는 상황에서, 사실상 오갈 데 없는 신혼부부들을 제주로 유인하는 겁니다. 호텔 안팎에서 신혼여행 추억을 사진으로 남길 수 있도록 하고, 제주공항 주차장 비용면제에 호텔 세탁 서비스 감면 등의 부대 혜택도 제시했습니다.협재해수욕장 인근 가게에 비치된 손 소독제와 물티슈"차라리 확진자가 다녀갔으면 좋겠어요."연일 울상이던 관광업계는 환영하는 입장입니다. 이 시기 제주를 찾는 관광객들이 한 줄기 빛이라는 건데, 지금껏 이렇게 힘든 적이 없었다는 게 이들의 공통된 설명입니다.함덕해수욕장과 협재해수욕장 두 곳에서 수제 햄버거 가게를 운영하는 이영신 씨는 하루하루 울며 겨자 먹기로 가게 문을 연다고 말합니다. 매출이 80% 넘게 줄어 수익이 없다시피 하지만, 그렇다고 장사를 한동안 접기엔 임대료 감당이 안 된다는 겁니다. 자신과 아내를 포함해 직원 8~9명이 가게 두 곳을 운영했지만, 5명으로 규모를 줄여 가게를 꾸려나간다는 게 이 씨 설명입니다. 이 씨는 "월세 부담 때문에 대출도 알아봤지만, 무이자 대출은 확진자가 다녀간 지역만 가능했다"면서 "주변 상인들 사이에선, 차라리 확진자가 다녀갔으면 좋겠다는 얘기도 나온다"고 토로했습니다. 협재해수욕장 인근서 커피숍 겸 공방을 운영하는 박경순 씨도 비슷한 대답을 내놨습니다. 박 씨는 "사나흘 전부터 하나둘씩 사람들이 찾아오는 것 같다"며 "아무래도 확진자가 나온 함덕이나 중문보다는 서쪽 지역이 안전하다고 생각하는 모양새다"고 말했습니다. 다만 "단체나 삼삼오오 모여서 여행오는 경우는 거의 없고, 한달살기 하거나 제주도민들이 오는 경우가 오히려 많다"고 덧붙였습니다.곳곳에서 착한 임대료 얘기들이 나오지만, 실제론 보기 어렵다는 이야기도 꺼냅니다. 한 달에 2백에서 3백만 원을 월세로 내지만, 이 월세를 감면해주거나 받지 않겠다는 이야기는 자신이 듣지도, 주변에서 보지도 못했다는 겁니다. 두 자영업자 모두 '관광객 감소로 인한 임대료 걱정'을 내려놓지 못했습니다. 제주 한 달 살기를 금지해달라는 내용의 청와대 국민청원(사진 출처 : 청와대 국민청원 홈페이지)"확진자 전부 육지에서 와…제주도 피난처 아냐"관광업계의 고뇌와 달리 정작 일부 제주도민들은 관광객에 전전긍긍하는 눈치입니다. 제주를 제외한 여타 시도에서 코로나19 확진자가 연일 발생하는 상황에서, 제주에 감염병을 퍼뜨릴 수 있다는 우려 때문입니다.실제로 지금까지 제주에서 나온 코로나19 확진자 네 명은 모두 대구광역시에 다녀온 이력이 있습니다. 대구에서 감염돼 제주에 내려왔을 가능성이 크다는 제주도 역학조사관들의 분석이 나오는 상황에서, 도민들의 불안감은 커지기만 합니다.며칠 전엔 제주 한 달 살기를 금지해 달라는 국민청원까지 올라왔습니다. 종합병원이 6곳에 그치는 다소 취약한 의료 여건 탓에 한 번 감염병이 퍼지면 병상 부족 문제 등이 불거질 수 있는 제주. 이 때문에 도민들은 될 수 있으면 외출을 자제하며 전전긍긍하지만, 관광객들은 제주를 피난처로 생각하며 별생각 없이 놀러 온다는 겁니다."한 달 살기 분들은 코로나 사태 동안 잠깐 있다 다시 원래 지역으로 올라가시겠지만, 저희 제주도민들에게 제주도는 보금자리이자 우리의 아이들이 성장하는 공간입니다." 국민청원을 올린 제주도민의 생각을 압축하는 문장입니다.최근 한 달 살기를 위해 제주에 왔다며 글을 올린 한 유명 인플루언서 계정(사진 출처 : 인스타그램)유명 인플루언서의 제주 한달살기에 논란 가중돼팔로워가 10만 명이 넘는 한 유명 인플루언서는 비슷한 이유에서 일부 네티즌들의 뭇매를 맞기도 했습니다. 학교 개학이 미뤄지면서 아이들을 위해 제주에 한 달가량 내려왔다는 내용의 게시글인데, '제주도를 피난처로 생각하지 말라'는 댓글이 달리며 한바탕 싸움이 벌어지기도 했습니다.한 네티즌은 "음압병실에 격리돼 항체도 백신도 없어 언제 치료될지도 몰라 한없이 입원해야 하는 코로나바이러스 유행 중에 (제주도로) 피신을 오는 거냐"면서 "도민들은 조마조마하며 아이들 학교와 유치원, 어린이집도 못 보내고 있는데 기가 차다"고 말했습니다.또 다른 네티즌 역시 "정부에서 지역 간 이동을 자제하라고 했지, 여행을 가라고 개학을 연기한 것도 아니지 않으냐"며 우려의 목소리를 나타냈습니다.일반인들에게 상당한 영향력을 끼치는 인플루언서의 글에 일반인들도 '나도 제주도나 가볼까?'하고 제주 여행을 가볍게 생각할 수 있다는 지적들이 잇따랐는데, 결국 이 인플루언서는 하루 만에 사과의 게시글을 올렸습니다. 마스크를 끼고 기념품 가게를 구경하는 관광객들환기 생활화에 자체 열 감지 카메라 설치까지관광업계는 경영난에 신음하고, 도민들은 코로나19 확산에 두려워하는 지금. 관광업계는 나름의 자구책을 마련하고 있습니다. 혹시 모를 관광객들로 인한 바이러스 전염 가능성을 차단하기 위해, 마스크 착용에 손 소독제 구비는 물론, 자체 비용까지 들여 방역에 나서는 겁니다. 제주시 한림읍 일대에서 기념품 가게에서 일하는 직원 하현용 씨는 "가게 특성상 손님들이 주로 와서 물건을 만지고 가기 때문에, 손님들이 가시면 수시로 기념품 위에 소독제를 뿌리고 있다"며 "실내 공간에서 감염 위험성이 큰 만큼, 최대한 환기도 많이 시키려 한다"고 말했습니다. 밀폐된 공간이다 보니 하루에 최소 5번씩은 환기를 시키고, 날이 맑으면 문을 열어놓고 영업한다는 설명도 덧붙였습니다.월평균 5만 명이 찾는 미디어아트 전시장 '빛의 벙커'도 매주 한 번씩 전시장과 셔틀버스 소독을 하고 있습니다. 지난달 28일부터는 자체 비용을 들여 열 감지 카메라를 설치해 입장 관람객들을 대상으로 체온 검사를 진행하고 있습니다.빛의 벙커 사업총괄 김현정 이사는 "(코로나19 여파로) 평소보다 관광객이 절반 이상 줄었다"면서도 "그럼에도 마스크 소지자에 한해 입장이 가능하도록 입구에서 조처하고 있다"고 설명했습니다. 코로나19 예방 수칙 가운데 하나인 손 씻기관광지면서 누군가의 생활 터전…제주가 갖는 딜레마제주도는 누군가의 생활 터전인 동시에 세계적인 관광지입니다. 그래서일까요, 제주도민 가운데 관광숙박업 등에 종사하는 사람도 많습니다. 같은 제주도민이더라도 관광객을 환영하는 사람과, 그렇지 않은 사람이 있을 수밖에 없습니다.관광객 감소로 인한 손실을 줄이고, 도민 불안을 해소할 방법은 결국 하나라고 전문가들은 말합니다. 관광업계의 철저한 방역과 이에 뒤따르는 관광객들의 사전 예방입니다. 홍성화 제주관광학회장은 "지금 할 수 있는 건 최대한 방역을 철저히 하는 것"이라며 "요즘은 관광객들과 제주도민들의 이동 동선이 많이 겹치기 때문에, 방역이 관광객뿐만 아니라 도민들을 위한 조치이기도 하다"고 강조했습니다.제주관광협회와 제주도도 업소 차원의 자체 방역을 권장하고 있습니다. 제주관광협회는 지난주 제주도, 제주도관광공사와 함께 10L 살균제 2천4백여 개를 도내 음식점과 숙박업소, 렌터카 업체 등에 배포했습니다. 손 소독제도 배부했는데, 제주관광협회에서 배부한 물량만 2천 개가 넘습니다.부동석 제주관광협회장은 "다음 주부터는 제주도관광공사, 제주도와 함께 공동 방역에 들어갈 예정"이라면서 "관광지는 물론 전세버스 같은 경우 개학하면 학생들이 많이 타기 때문에 방역에 철저함을 기울이고 있다"고 설명했습니다.방역과 함께 중요한 건, 관광객들의 사전 예방입니다. 철저한 마스크 착용과 주기적인 손 씻기. 공자님 말씀 같지만, 사실상 정답에 가까운 이 두 가지 수칙만이 엇갈린 제주도민들의 생각을 좁힐 유일한 방법일 겁니다.▶ ‘ 코로나19 확산 우려’ 최신 기사 보기http://news.kbs.co.kr/news/list.do?icd=19588▶ ‘코로나19 팩트체크’ 제대로 알아야 이긴다 바로가기http://news.kbs.co.kr/issue/IssueView.do?icd=19589 ■ 제보하기 ▷ 카카오톡 : 'KBS제보' 검색 ▷ 전화 : 02-781-1234 ▷ 이메일 : kbs1234@kbs.co.kr ▷ 뉴스홈페이지 : https://goo.gl/4bWbkG 기자 정보 허지영 기자 tangerine@kbs.co.kr 허지영 기자의 기사 모음 댓글 좋아요 공유하기 ‘코로나19’ 팬데믹 동영상 신규확진 1만 명대…오늘부터 개량백신 접종 시작 경기 4399명 신규 확진…하루 전보다 1766명 증가 신규 확진 1만 5,476명…사망 10명, 석달 만에 ‘최저’ 동영상 오늘부터 무비자 일본 관광…항공 등 예약 급증 더보기 오늘의 HOT클릭! 동영상 Ai pick 맞춤 뉴스 8개 더보기 이 시각 헤드라인 배너 많이 본 뉴스 푸터영역 KBS소개 주소/연락처 수신료 채용 About KBS KBS소개 시청자권익센터 사이버 감사실 광고 이용약관 법적고지 개인정보처리방침 KBS N 채널 KBS Drama KBS W KBS Kids KBS N Sports KBS Joy KBS N 채널 KBS WORLD Global KBS WORLD KBS WORLD KBS / 07235 서울특별시 영등포구 여의공원로 13(여의도동) / 대표전화 02-781-1000 / 기사배열 책임자, 청소년보호책임자 : 윤상 KBS뉴스 인터넷 서비스 / 서울특별시 마포구 매봉산로 45 KBS미디어센터 / 시청자상담실 02-781-1000 / 등록번호 서울 자00297 (2010년 6월 23일) Copyright © KBS All Rights Reserved.</t>
+  </si>
+  <si>
+    <t>코로나19 확진 판정 전 제주도 관광하며 활보한 ‘구로 콜센터’ 확진자 - 인사이트 Insight 정치 경제 핫이슈 엔터 라이프 문화·스포츠 사람들 산업 헬스 증권·금융 16℃ 서울 13℃ 인천 15℃ 춘천 16℃ 강릉 15℃ 수원 15℃ 청주 16℃ 대전 16℃ 전주 17℃ 광주 17℃ 대구 17℃ 부산 16℃ 제주 코로나19 확진 판정 전 제주도 관광하며 활보한 '구로 콜센터' 확진자 제주도 여행 사흘 후 확진 판정을 받은 A 씨의 제주 내 동선이 공개됐다. 유진선 기자 입력 2020.03.11 20:10 글자크기 설정 가 가 가 가 가 공유 카카오톡 페이스북 트위터 카카오스토리 밴드 핀터레스트 URL 복사 메일 기사와 관련 없는 자료 사진 / 뉴스1[인사이트] 유진선 기자 = 제주도 여행 3일 후 서울에서 코로나19 확진 판정을 받은 40대 여성 A 씨는 집단감염이 발생한 서울 구로구 콜센터 직원으로 확인됐다.  11일 제주도는 A 씨의 진술과 카드 결제 명세 등을 토대로 동선을 공개했다.  A 씨는 지난 6일까지 구로구 콜센터에서 근무한 뒤 퇴사했고, 7일 휴식 차 혼자 제주를 방문했다.  이날 오전 8시 45분 서울에서 제주행 아시아나 OZ8915편을 타고 입도한 A 씨는 버스를 타고 제주시 버스터미널로 이동해 인근 제주기사정식뷔페에서 식사를 했다.  기사와 관련 없는 자료 사진 / 뉴스1이어 버스를 타고 조천읍 함덕리로 이동했다.  A 씨는 이곳에서 유드림마트 함덕점을 방문했고, 이후 오후 3시부터 6시 30분까지 함덕 소재 펜션을 이용했다.  A 씨는 펜션을 나온 뒤 GS25 함덕골든튤립점에 들러 라면을 먹었다. 그 후 버스를 이용해 공항으로 이동한 A 씨는 오후 9시 10분 아시아나 OZ 8996 항공편으로 서울로 돌아왔다.  기사와 관련 없는 자료 사진 / GettyimagesKorea제주에 10시간 넘게 머물다 돌아간 A 씨는 3일 뒤인 10일 오후 코로나19 확진 판정을 받았다. 한편 한편 A 씨는 제주 방문 당시 의심증상을 보이지 않은 것으로 밝혀졌다.  11일 이중환 제주도 재난안전대책본부 총괄조정관(도민안전실장)은 "지난 10일 동작구에서 보낸 문서에 의하면 3월 4일에 증상이 발현됐다고 기록돼 있었지만 추가적인 역학조사 과정에서 A 씨가 다른 확진자와 접촉한 날은 6일인 것으로 확인했다"고 부연했다. 유진선 기자 · jinseon@insight.co.kr 베스트클릭 국제 아들 출근한 사이 차 깨끗이 닦아주고 싶어 '철 수세미'로 세차한 70대 노모 자동차 “아내가 엑셀·브레이크 또 헷갈려서...” 아이오닉6 전국 ‘1호 사고차’가 등장했다 스타 대학 축제서 관객석 ‘다이빙’ 했는데 모두 피해 ‘맨땅 헤딩’한 유명 래퍼 (영상) 스포츠 오늘(9일) 손흥민이 입고 나온 티셔츠 본 콘테 감독...벤치에서 눈물 터져 국제 “중국인은 2명이 모이면 벌레가 된다” 발언한 일본 예술가 민족 비하 논란 연예 “군대 알아서 갈테니까”...국감서 BTS 슈가 자작곡 가사 등장했다 스타 이게 현실에서 가능한 여자 몸매?...반응 터진 몸짱 인플루언서 실제사진 사회 BTS 병역특례 두고 공방...더민주 “국가적 손실” vs 국힘당 “나훈아도 갔다왔다” 국제 “앗 뜨거!” 손목에 차고 있던 애플워치 ‘펑’ 폭발...애플, 누설 말라 강요 스포츠 ‘피겨 프린스’ 차준환, 드디어 세계 정상 우뚝 섰다...“20점차 이상 압도적 스코어” 국제 노출의상 입은 댄서들 공연 후 요양원서 벌어진 충격 상황...“할머니 한 명은 심장마비로 쓰러져” 방송·드라마 엄지원에 살해당했던 추자현, 살아있었다...‘작은 아씨들’ 충격 엔딩 사회 확 달라진 군 교육자료...文 정부가 삭제한 ‘문구’, 다시 추가됐습니다 문화·예술 22년 동안 ‘평일’이었던 한글날, 역시 ‘이 대통령’ 때 빨간날 됐다 사회 2500만원이면 가는 인도 출장, 김정숙 여사 때문에 국민혈세 ‘3억’ 더 썼다 회사소개 이용약관 개인정보 취급방침 윤리강령 독자의견 고충처리인 청소년 보호정책(책임자:김희진) 사업 제휴 문의 광고 안내 문의 서울특별시 강남구 논현로99길 23, 인사이트빌딩 (주)인사이트컴퍼니 | 사업자번호: 119-86-62226 | 02-6734-2207 | 등록번호: 서울 아 02953 | 등록일자: 2014.01.02 | 발행・편집인: 안길수 | 편집국장: 이유리 인사이트의 모든 콘텐츠(기사·사진)는 저작권법의 보호를 받은 바, 무단 전재, 복사, 배포 등을 금합니다. 이를 어길 시 법적 제재를 받을 수 있습니다. Copyright ⓒ 인사이트, Ltd. All Rights Reserved. Insight 정치 정치일반 사회 청와대 국회·정당 전국 경제 생활경제 소비자 정책 외환 부동산 핫이슈 이슈 과학 국제 환경 사건사고 스토리 동물 엔터 연예 방송·드라마 영화 비디오 스타 라이프 라이프 패션 여행 음식·맛집 쇼핑 연애 건강 문화·스포츠 문화·예술 코믹 책·서평 스포츠 공연·전시 게임 사람들 사람들 인사 동정 부음 산업 기업 CEO IT·전자 자동차 모바일·통신 항공·물류 중기·벤처 헬스 제약 의료 뷰티 증권·금융 증시 금융 보험·카드 베스트클릭 아들 출근한 사이 차 깨끗이 닦아주고 싶어 '철 수세미'로 세차한 70대 노모 “아내가 엑셀·브레이크 또 헷갈려서...” 아이오닉6 전국 ‘1호 사고차’가 등장했다 대학 축제서 관객석 ‘다이빙’ 했는데 모두 피해 ‘맨땅 헤딩’한 유명 래퍼 (영상) 오늘(9일) 손흥민이 입고 나온 티셔츠 본 콘테 감독...벤치에서 눈물 터져 “중국인은 2명이 모이면 벌레가 된다” 발언한 일본 예술가 민족 비하 논란 회사소개 이용약관 개인정보 취급방침 윤리강령 독자의견 고충처리인 청소년 보호정책(책임자:김희진) 사업 제휴 문의 광고 안내 문의 Copyright ⓒ 인사이트, Ltd. All Rights Reserved.</t>
+  </si>
+  <si>
+    <t>제주도 여행객 잇단 코로나19 확진…관광제주 '딜레마' - 파이낸셜뉴스 메뉴 펼치기 기사 검색 검색 취소 검색 파이낸셜뉴스닫기 검색 경제 정치 사회 IT 국제 라이프 기자ON 사설 칼럼 fnSURVEY 구독신청 광고/제휴문의 네이버 MY뉴스 설정 부산파이낸셜뉴스 블록포스트 가이드포스트 fn아이포커스 파이낸셜뉴스재팬 fnMICE fn이노에듀 fn투어 파이낸셜뉴스 사회 이벤트메뉴 경제 금융 증권 부동산 산업 경제 일반 정치 청와대 국회·정당 북한 외교·국방 사회 사건·사고 검찰·법원 행정·지자체 교육 IT 통신·방송 게임 인터넷 블록체인 의학·과학 국제 국제경제 국제정치 국제사회 라이프 생활경제 연예 스포츠 푸드·리빙 레저·문화 Special 기자ON 파인애플 fnSurvey 검색 경제 금융 증권 부동산 산업 경제 일반 정치 청와대 국회·정당 북한 외교·국방 사회 사건·사고 검찰·법원 행정·지자체 교육 IT 통신·방송 게임 인터넷 블록체인 의학·과학 국제 국제경제 국제정치 국제사회 라이프 생활경제 연예 스포츠 푸드·리빙 레저·문화 Special 기자ON 파인애플 fnSurvey fn특별기획 검색 사회 &gt; 제주도 여행객 잇단 코로나19 확진…관광제주 '딜레마' 파이낸셜뉴스입력 2020.03.13 03:10수정 2020.03.13 10:15 페이스북 공유하기 트위터 공유하기 블로그 공유하기 카카오톡 공유하기 파인애플 페이지 URL 복사하기 인쇄 글자 작게 글자 크게 페이스북 공유하기 트위터 공유하기 블로그 공유하기 카카오톡 공유하기 파인애플 페이지 URL 복사하기 3월 들어 구로 콜센터 직원 2명·제주 체류 대구 남성 양성 판정원희룡 지사 “전국 공항서 출발 전 발열검사” 정부에 거듭 요청 원희룡 제주도지사가 제주국제공항 국내선 도착장 방역시스템을 점검하고 있다. [사진=제주도 제공] /사진=fnDB [제주=좌승훈 기자] 제주를 다녀간 여행객이 코로나19 확진 판정을 받는 사례가 잇달아 발생하면서 제주도가 큰 고민에 빠졌다. 제주도는 서울 구로구 소재 보험사 콜센터 40대 여성 직원 2명이 각각 지난 7일과 7~8일 주말에 제주여행을 하고난 뒤 서울에서 코로나19 확진 판정을 받은 것으로 확인돼 동선 파악과 함께 방문지 방역, 접촉자 자가격리에 나섰다. 확진자가 다녀간 제주국제공항 내 JDC 내국인면세점은 2002년 개장 이후 처음으로 12일 휴점에 들어갔다. 면세점에 대한 자체 방역과 함께 확진자 방문 당시 근무했던 직원 8명도 격리조치됐다. ■ 무증상 대구·경북 방문자 무료 검체 검사 뿐만 아니라, 지난 1일부터 10일까지 제주에서 10일 동안 체류하다 대구로 돌아간 뒤, 코로나19 확진 판정을 받은 40대 남성도 확인됐다. 제주도는 이에 따라 12일 긴급 역학조사에 나서 해당 확진자와 접촉한 17명을 자가격리 조치했으며, 8~10일 확인된 동선 3곳에 대한 방역소독을 완료했다. 또 그동안 제주도내에서 발생한 4명의 코로나19 확진자 중 3번째 확진자도 대구에서 제주로 여행을 온 40대 여성이다. 나머지 3명은 대구에 다녀온 후 양성 판정을 받은 경우에 해당한다. 앞서 지난 1월21일 딸과 함께 4박5일 동안 제주관광에 나섰던 50대 여성 중국인도 귀국 후 양성판정을 받아 방역당국에 비상이 걸리기도 했다. 대개 이들은 타 지역에서 감염된 후, 잠복기 때 제주여행을 한 것으로 파악되고 있다. 하지만 지금 상태로는 확진자로 판명되면, 긴급 역학조사를 통한 동선 파악과 방문지 방역, 접촉자 자가격리 조치 밖에 달리 방법이 없다. ■ 제주도 ‘한달살이’ 중단 국민청원도 등장 게다가 확진자의 동선이 공개되면서 이들이 방문했던 면세점·숙소·음식점·편의점 등의 피해도 적지 않다. 최근 2명의 확진자가 다녀간 제주시 조천읍 함덕해주욕장 주변 상권도 한바탕 어수선한 분위기를 연출했다. 지난 6일에는 청와대에 ‘제주도 한달살이 코로나19 기간 동안 금지해 달라’는 내용의 국민청원까지 올라왔다. 제주민속오일시장에서 코로나19 방역활동에 나선 해병대 제9여단. [사진=제주도 제공] /사진=fnDB 제주도는 이에 대해 선제적 방역 차원에서 김포공항을 비롯해 국내 모든 공항의 국내선 출발장에서도 발열검사를 시행해 줄 것을 정부에 다시 요청했다. ■ 대구-제주 노선 두 공항서 발열검사 시행 원희룡 제주도지사는 12일 도청 기자실에서 열린 코로나19 합동 브리핑에서 “지역사회 감염을 전제로 한 제주도만의 방역체계 운영을 넘어 다른 지역의 방역 강화도 필요하다”며 “지역사회 감염을 최대한 차단하기 위해 국내 전 공항에서 출발 전 발열검사를 시행해 달라”고 밝혔다. 앞서 원 지사는 지난달 21일 국무총리 주재 합동회의에서 전국 공항별로 탑승 전 발열 검사를 통해 사전에 감염을 차단하는 선제적 방역조치를 취해줄 것을 건의한 바 있다. 제주도는 코로나19 유입을 차단하기 위해 제주공항 국제선 도착장에 발열감지 카메라를 설치 운영한 데 이어, 지난달 2일부터 국내선 도착장과 항만에도 확대 운영하고 있다. 지난 5일부터는 항공사와의 협의 아래 대구공항에서도 승무원과 탑승객 전원을 대상으로 출발 전 발열검사를 실시하고 있다. 아울러 최근 14일 이내 대구·경북지역 방문자를 대상으로 무증상자여도 본인이 원하면, 도내 6개 보건소에서 코로나19 검체검사를 받을 수 있도록 조치했다. 검사비용은 제주도가 부담한다. jpen21@fnnews.com 좌승훈 기자 키워드#발열검사 #구로 콜센터 #코로나19 #제주도 한달살기 #국민청원 #검체 검사 ※ 저작권자 ⓒ 파이낸셜뉴스, 무단전재-재배포 금지 fn 회사소개 광고/제휴문의 개인정보취급방침 저작권규약 이메일주소무단수집거부 구독신청 고충처리 rss 사이트맵 주소: 서울 서초구 강남대로 315 Tel. 02-2003-7114 인터넷신문 등록번호: 서울 아04510 등록일자: 2017.05.08 회장: 전재호 부회장·발행인: 전선익 사장·인쇄인·편집인: 변동식 편집국장: 양형욱 청소년보호정책(책임자:이대율) Copyright ⓒ파이낸셜뉴스. All rights reserved. 회사소개 지면보기 사이트맵 Copyright ⓒ파이낸셜뉴스. All rights reserved.</t>
+  </si>
+  <si>
+    <t>제주도-관광산업체, 코로나19 퇴치 ‘한마음’ &lt; 제주 &lt; 전국 &lt; 기사본문 - 시사매거진 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 시작페이지 즐겨찾기 홈 로그인 회원가입 English 中文 日本語 العربية Español Français 번역 제공 검색 기사검색 검색 UPDATED.2022-10-11 14:51 (화) 실시간 뉴스 금융감독원 국정감사 실시하는 정무위 이재명 "일본을 한반도에 끌어들이는 자충수 중단해야" 이재명 "한미일 군사훈련, 좌시할 수 없는 국방참사·안보자해행위" 두산베어스, 김태형 감독과 결별... "조만간 사령탑 인선" 발언하는 양무진 북한대학원대학교 총장 광산구 "올겨울 함께 할 희망의 메시지를 찾습니다" 2022 광산아트페스티벌 ‘별무리 예술장터’ 개최 코웨이, 2022 한국산업의 고객만족도 조사 침대·정수기 2개 부문 1위 선정 긴급 안보대책회의 참석한 황인권 전 육군 제2작전사령관 긴급 안보대책회의 참석한 김준형 전 국립외교원장 긴급안보대책회의 참석하는 이재명 더불어민주당 대표 더불어민주당 긴급 안보대책회의 HOME 뉴스 정치 경제 사회 생활/문화 교육 세계 IT과학 만화 동영상 보도자료 오피니언 인터뷰 칼럼 스페셜 인물열전 명인명사 포토 포토 엔터테인먼트 연예 스포츠 방송 오늘의 날씨 책 여행·레저 제 292호(2022-10) 오세훈 서울시장이 말하는 ‘약자와의 동행, 매력 특별시’ 구독하기 본문영역 이전 기사보기 다음 기사보기 제주도-관광산업체, 코로나19 퇴치 ‘한마음’ 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국 제주 제주도-관광산업체, 코로나19 퇴치 ‘한마음’ 기자명 김연화 기자 입력 2020.03.16 11:05 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 제주도-관광산업체, 코로나19 확산 예방을 위한 일제 방역 실시 제주특별자치도 [시사매거진/제주=김연화 기자] 제주특별자치도가 지역 내 코로나19 감염 확산 차단을 위해 매주 금요일을‘일제 방역소독의 날’로 지정・추진함에 따라 도내 관광사업체도 동참키로 하고 지난 13일 일제 방역을 실시했다. 제주도는 도-제주관광공사-제주도관광협회-컨벤션-뷰로 합동으로 호텔업, 관광음식점, 유원시설 등 다중이용시설 관광사업체 138개소에 대하여 사업체와 함께 방역을 실시하는 한편, 업체들의‘일제 방역소독의 날’동참 협조를 구하고 주1회 이상 사업체 자체 방역을 당부했다. 이날 관광사업체 사업장 손소독제 비치 및 종사자 마스크 착용 여부, 화장실 비누비치, 예방포스터 부착 여부 등 위생관리 상황도 함께 점검한 결과 업소 대부분이 손소독제를 비치하고 전염병 예방수칙도 부착하고 있다. 특히, 호텔업 및 관광식당업은 매일 또는 주 1~3회 이상 고강도 방역으로 사업장별 코로나19 확산 예방에 주력하고 있었으며, 사업장 자체적으로 발열 카메라를 출입구에 설치하여 이용객 발열상황을 체크하고 방역전문업체를 활용하여 수시 방역하고 있는 사업체도 있다. 제주도와 관광 유관기관은 매주 금요일 ‘일제 방역소독의 날’에 관광사업체가 방역소독을 실시하도록 독려하고 지도점검을 계속 실시할 예정이다. 한편, 제주도는 관광사업체 방역체계 구축으로 깨끗하고 안전한 제주 이미지 확보를 위하여 지난 2월 25일부터 3월 10일까지 도내 관광 사업체를 대상으로 코로나19 예방포스터(2,000부), 감염 예방수칙 안내문(20,000매), 손세정제(9,000개), 방역소독살균제(3,450개) 등 방역물품을 배부한 바 있다. 김연화 기자 kyh5667@daum.net 다른기사 보기 저작권자 © 시사매거진 무단전재 및 재배포 금지 당신만 안 본 뉴스 프로골퍼 박결, 갑작스런 누리꾼 관심... 근황·나이·프로필 화제 골프선수 유현주 프로, 인스타 속 여신 자태 '이종범 딸·이정후 여동생' 이가현 누구? 나이·직업·프로필 공개 송가인, 다음 콘서트는 천안...목포 인증샷 "흥겹고 즐거워" 오늘날씨 월요일, 강원도 "첫눈오나" 서울날씨 "8도 기온뚝" [2022 더팩트 뮤직 어워드] 8일 개막 '라인업·중계·시작시간은?' 로또1등당첨지역 1036회 "9명 28억씩" 대박 프로골퍼 박결, 갑작스런 누리꾼 관심... 근황·나이·프로필 화제 주요기사 국회, 감사원 국감 날 선 공방 예고 11일 코로나19 신규 확진자 1만 5476명 '위중증 313명·사망자 10명' 러시아, 우크라이나 미사일 공격... 유엔 긴급특별총회 소집 오늘날씨 화요일, 서울날씨 아침6도 기온뚝 '얼음, 눈오는 경기북부' 대통령실, 이재명 '친일 국방' 겨냥해 "말이 아닌 현실의 문제" 토트넘 손흥민, 케인과 43번째 합작골 '시즌 2호 도움' 팀은 승리 최신뉴스 금융감독원 국정감사 실시하는 정무위 이재명 "일본을 한반도에 끌어들이는 자충수 중단해야" 이재명 "한미일 군사훈련, 좌시할 수 없는 국방참사·안보자해행위" 두산베어스, 김태형 감독과 결별... "조만간 사령탑 인선" 발언하는 양무진 북한대학원대학교 총장 포토뉴스 금융감독원 국정감사 실시하는 정무위 이재명 "일본을 한반도에 끌어들이는 자충수 중단해야" 이재명 "한미일 군사훈련, 좌시할 수 없는 국방참사·안보자해행위" 두산베어스, 김태형 감독과 결별... "조만간 사령탑 인선" 인기뉴스 1 프로골퍼 박결, 갑작스런 누리꾼 관심... 근황·나이·프로필 화제 2 골프선수 유현주 프로, 인스타 속 여신 자태 3 '이종범 딸·이정후 여동생' 이가현 누구? 나이·직업·프로필 공개 4 송가인, 다음 콘서트는 천안...목포 인증샷 "흥겹고 즐거워" 5 오늘날씨 월요일, 강원도 "첫눈오나" 서울날씨 "8도 기온뚝" 6 [2022 더팩트 뮤직 어워드] 8일 개막 '라인업·중계·시작시간은?' 7 로또1등당첨지역 1036회 "9명 28억씩" 대박 8 선우은숙 재혼, 유영재 아나운서와 혼인신고... 나이·프로필 눈길 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 서울특별시 강남구 테헤란로25길 20, 8층 813호(역삼동,역삼현대벤쳐텔) 대표전화 : 02-790-5116 팩스 : 02-2086-7272 청소년보호책임자 : 김길수 법인명 : 시사매거진 제호 : 시사매거진 등록번호 : 강남 라 00906 등록일 : 1997-09-12 발행일 : 2017-05-01 발행인 : 김길수 편집인 : 김영규 사장 : 천진철 시사매거진 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 시사매거진. All rights reserved. mail to webmaster@sisamagazine.co.kr 위로 전체메뉴 전체기사 뉴스 전체 정치 경제 사회 생활/문화 교육 세계 IT과학 만화 동영상 오피니언 전체 인터뷰 칼럼 스페셜 인물열전 명인명사 포토 전체 포토 엔터테인먼트 전체 연예 스포츠 방송 책 여행·레저 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도, 공공도서관·관광지·복지시설 등 851개소 휴관 연장 :: 공감언론 뉴시스통신사 :: 2022.10.11 (화) 서울 15℃ K-Artprice 프라임뉴스 위클리뉴시스 실시간 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 광장 포토 뉴시스 TV 경찰, 대전 현대 아웃렛 참사 관련 현대백화점그룹 본사 압색 [속보]尹 "文정부 폐지한 '학업성취도' 전수 평가 실시" [속보]코스피, 1.78% 하락한 2193.02 출발 [속보]尹, 이재명 '친일'공세에 "핵 위협 앞 어떤 우려가 정당화될 수 있나" [속보]尹 "한미일 안보협력, 비핵화에 유효...핵 통해 얻을것 없다" [속보]尹, 이재명 친일공세에 "국민들이 잘 판단할 것" '출근길 최저 3도' 출근길 기온 뚝…서울 아침 6도 지방 지방최신 세종 부산 대구/경북 광주/전남 대전/충남 울산 강원 충북 전북 경남 제주 제주도, 공공도서관·관광지·복지시설 등 851개소 휴관 연장 등록 2020.03.04 14:13:40 작게 크게 코로나19 안정기 접어들 때까지 지속 전망 [제주=뉴시스]우장호 기자 = 신종 코로나바이러스 감염증(코로나19)이 확산 중인 3일 제주시 삼도2동에 위치한 중앙성당에서 제주도 보건당국이 방역을 하고 있다. 제주도는 재난관리기금을 긴급 투입해 오는 15일까지 도내 종교 시설 총 788개소에 대한 방역을 마무할 예정이다. 2020.03.03. woo1223@newsis.com 【제주=뉴시스】배상철 기자 = 제주도는 신종 코로나바이러스 감염증(코로나19) 4번째 확진자가 발생함에 따라 공공도서관과 체육관, 공영관광지, 복지시설 등의 휴관을 연장한다고 4일 밝혔다. 대상시설은 도서관 66개소, 공공 체육시설 133개소, 학교체육관 136개소, 공연장 7개소, 관광지 29개소, 복지시설 480개소 등 851개소다. 휴관 연장은 코로나19 확산 방지와 도민 안전을 보장하기 위한 불가피한 조치로, 안정기에 접어들 때까지 지속할 전망이다. 도는 도서관 휴관 연장에 따른 도민 불편을 해소하기 위해 공공도서관 홈페이지를 통해 예약한 도서에 한해 대출할 수 있도록 하는 시스템을 마련하고 있다. 공영관광지는 실내 전시와 관람시설은 휴관하지만 야외시설은 개방한다. 민속자연사박물관은 지난 2일부터, 돌문화공원과 해녀박물관은 지난 3일부터 휴관에 돌입했으며, 김만덕기념관도 오늘부터 휴관에 들어간다. 제주아트센터와 설문대여성문화센터 등 공공 공연장은 별도로 휴관하지 않았지만, 대관 및 기획공연은 모두 연기 및 취소됐다. 관광객과 도민 안전을 위해 한라산 및 거문오름 등 야외관광지는 정상 운영하고 있지만 탐방안내소나 상설 전시실, 홍보관 등 실내 공간은 모두 문을 닫는다. 제주도 관계자는 “코로나19 진정 상황에 따라 시설운영을 재개해 도민 불편을 최소화할 계획”이라고 밝혔다. ◎공감언론 뉴시스 bsc@newsis.com Copyright © NEWSIS.COM, 무단 전재 및 재배포 금지 뉴시스 기획특집 거래절벽 도미노 태양광 뇌관 터지나 망값전쟁 피플인사이드 "화려한 무대 밖에선 저도 불안한 사람" 싱어송라이터 앤 마리 "BTS의 협업 제안?&amp;nbsp처음엔 못 믿었다" 라우브 뉴시스 PIC 국제사회, 우크라 향한 러의 미사일 공습 규탄 시위 물결 '문자 논란' 유병호 "송구스럽다… 소통은 정상적인 것" 베네수엘라, 재앙 수준의 산사태로 최소 36명 사망 윤석열 대통령 출근길 문답 "북한, 핵으로 얻을 수 있는 것 없어" 이시간 핫 뉴스 장성규 "부모님 재산, 주식으로 날렸다" 재결합설 있더니… 선우은숙, 연하 아나운서와 재혼 '쇼핑몰 대박' 강민경, 65억 건물 매입…"직원 다 울어" 고우석, 바람의 가문에 장가 간다…이종범 딸과 결혼 현미 "유부남인 줄 모르고 임신…돌아가라 하니 방망이 들어" 공효진, 뉴욕 결혼식…절친 정려원·엄지원 참석 김신영에 "넌 보물될 거야" 예언한 전유성 근황 보니 신화 신혜성, 도난차량서 음주측정 거부하다 체포 오늘의 헤드라인 "'학업성취도 평가' 5년만에 부활  기초학력 수준 정밀하게 가린다 5년 전 폐지됐던 학력 전수평가가 사실상 부활한다.기초학력 미달 학생이 늘어나는 현실을 타개하기 위한 고육책이다. 교육부는 11일 국무회의에서 제1차 기초학력 보장 종합계획을 보고했다고 밝혔다. 이번 계획은 올해 시행된 기초학력보장법에 따른 첫 종합 방안으로, 국가가 모든 학생의 기초학력을 보장해야 한다는 법적 책임을 담보하기 위해 마련됐 "軍, 北 저수지 미사일에 "킬체인 의식 궁여지책" "감사원 국감 시작부터 '감사위원 배석' 놓고 파행 "경찰, 대전 아웃렛 화재 관련 현대百 본사 압수수색 "경찰, 이준석 2차 소환…성접대 여부 곧 판단할 듯 "코레일 운영 수도권 역사 절반이 외주…악순환 반복 "소상공인 과태료 최대 70% 감면 추진…법령 정비 "서울서 50대男, 총기로 극단선택 시도…생명 위독 많이 본 기사 종합 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 1선우은숙, 4세 연하 아나운서 유영재와 재혼 탤런트 선우은숙(63)이 아나운서 유영재(59)와 재혼했다. 소속사 스타잇엔터테인먼트는 11일 "선우은숙씨가 좋은 인연을 만나 결혼의 결실을 맺게 됐다"며 "상대는 아나운서 유영재"라고 알렸다. "두 사람은 기독교 신자라는 공통점 아래 신앙과 신뢰를 쌓았다"며 "최근 혼인신고와 양가 상견례를 마쳤다. 새로운 출발에 따뜻한 관심·응원을 부탁드린다"고 했다. 선우은숙은 1978년 KBS 특채탤런트로 데뷔했다. 1981년 탤런트 이영하(72)와 결혼, 26년만인 2007년 이혼했다. 당시 선우은숙은 기자회견을 열고 "나쁜 2신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 3"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 1"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 김정은 국무위원장의 부인 리설주가 한미를 겨냥한 북한군의 대규모 무력 시위 현장에 모습을 드러냈다. 김정은이 미사일 발사 현장에 리설주를 동행시킨 것이 공개된 것은 이번이 사실상 처음이다 노동신문 등 북한 관영 매체들은 노동당 창건 77주년인 10일 김정은이 지난달 25일부터 이달 9일까지 북한군 전술핵운용부대를 비롯해 장거리포병부대·공군비행대의 훈련을 지도한 내용을 사진과 함께 보도했다. 매체는 리설주의 참관 사실을 직접 언급하지는 않았지만, 리설주가 김정은과 나란히 초대형 방사포(KN-25) 발사 훈련을 지켜보는 2'YTN 최대 주주' 한전KDN 사장, 與의 지분 매각 요구에 "하겠다" 3'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 4尹, 이재명 친일공세에 "국민들이 잘 판단할 것" 5尹, 이재명 '친일'공세에 "핵 위협 앞 어떤 우려가 정당화될 수 있나" 1뉴욕증시, JP모건 '경기침체' 경고에 하락 마감…나스닥 1.04%↓ 미국 뉴욕증시 주요 지수는 10일(현지시간) 하락 마감했다. CNBC, 마켓워치에 따르면 이날 뉴욕증권거래소(NYSE)에서 다우존스 30 산업평균지수는 전장보다 93.91포인트(0.32%) 내린 2만9202.88로 거래를 마쳤다. 스탠더드앤드푸어스(S&amp;P) 500 지수는 전장보다 27.27포인트(0.75%) 밀린 3612.39로 장을 닫았다. 기술주 중심의 나스닥지수는 전장보다 110.30포인트(1.04%) 떨어진 1만542.10에 장을 마쳤다. 나스닥 지수는 2020년 7월28일 이후 약 2년 만에 최저치를 2한국인 오늘부터 무비자 일본 관광 시작…항공권 예약 급증 3우크라전 229일, 러 키이우 등 전역 미사일 공습…최소 111명 사상(종합) 4LA 시의회 의장, 인종차별 발언· 욕설로 의장직 사임 5유엔총회, 러 우크라 병합 규탄 결의안 논의 시작…공개투표 결정 1뉴욕증시, JP모건 '경기침체' 경고에 하락 마감…나스닥 1.04%↓ 미국 뉴욕증시 주요 지수는 10일(현지시간) 하락 마감했다. CNBC, 마켓워치에 따르면 이날 뉴욕증권거래소(NYSE)에서 다우존스 30 산업평균지수는 전장보다 93.91포인트(0.32%) 내린 2만9202.88로 거래를 마쳤다. 스탠더드앤드푸어스(S&amp;P) 500 지수는 전장보다 27.27포인트(0.75%) 밀린 3612.39로 장을 닫았다. 기술주 중심의 나스닥지수는 전장보다 110.30포인트(1.04%) 떨어진 1만542.10에 장을 마쳤다. 나스닥 지수는 2020년 7월28일 이후 약 2년 만에 최저치를 2①대한민국, 사람이 없어진다…2030년 '인구지진' 직면 3KB證 "엠게임, 중국서 흥행 중인 '열혈강호 온라인' 주목" 4삼성전자 사들이기 시작한 외국인…분위기 반전될까 5엄빠찬스 증가세…5년간 미성년 임대소득만 2500억 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 강원도가 지급보증한 레고랜드 테마파크 대출 자산유동화기업어음(ABCP)이 결국 부도처리되면서 지방자치단체 보증 프로젝트 파이낸싱(PF) 사업에 비상이 걸렸다. 금융투자(증권)업계에 따르면 레고랜드 테마파크 기반 조성사업을 추진한 강원중도개발공사(GJC)가 필요자금을 조달하기 위해 설립한 특수목적법인(SPC) '아이원제일차'가 부도 처리됐다. 강원도는 GJC의 최대 주주로서 지분 44%를 보유하고 있다. 강원도는 최문순 전 지사 시절 춘천 중도 레고랜드 테마파크 조성 기반 공사를 맡은 강원중도개발(GJC)이 2050억 2신라젠 내일 상폐 여부 결정…16만 개미 '노심초사' 3KB證 "엠게임, 중국서 흥행 중인 '열혈강호 온라인' 주목" 4삼성전자 사들이기 시작한 외국인…분위기 반전될까 5코스피, 1.78% 하락한 2193.02 출발 1정유업계, 원유 감산에 정제마진 올랐어도 실적 '불투명'…왜? 정제마진 악화로 실적부진을 보인 국내 정유업계가 산유국들의 원유 감산 발표로 정제마진에 숨통이 트일 조짐이다. 하지만 경기 침체에 따른 석유제품 수요 감소가 예상돼 하반기 실적의 복병이 될 전망이다. 11일 관련 업계에 따르면 석유수출국기구(OPEC)와 러시아 등 주요 산유국들의 협의체인 '오펙 플러스'는 내달 원유 생산량을 이달보다 하루 평균 200만 배럴 줄이는데 합의했다. 이는 코로나19 이후 지난 3년 간 최대 감산 폭이다. 특히 정제마진이 0달러 또는 마이너스를 기록하며 실적 부진이 극심했던 국내 정유업계는 대 2"우크라이나 삼성 입주 빌딩 파괴 당시 삼성 주재원들 사전 피신" 3국토부 '스마트 모빌리티 물류 산업전'…기관 50곳 참여 43분기 국내 주식시장 시총 630조 증발…카카오 '반토막' 5국민 10명 중 5명 "전기차' 선호"…화재 등 안전문제는 걸림돌 1"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 '손목 위 주치의'를 표방하는 스마트워치의 안전 문제가 수면 위로 부상하고 있다. 11일 외신과 업계에 따르면 최근 국내외에서 애플워치와 갤럭시워치에서 발화, 화상 문제를 경험했다는 주장이 잇달아 제기되고 있다. IT 전문매체 나인투파이브맥에 따르면 최근 한 애플워치7 사용자가 자신의 워치가 과열로 인해 폭발하기 직전의 모습처럼 불이 붙고 연기가 났다고 주장했다. 해당 사용자는 애플워치7을 착용하고 있다가 기기가 비정상적으로 뜨거워짐을 느껴 기기 상태를 확인했는데, 워치에 금이 가있는 것을 확인했다. 급격한 2알테오젠 "불법 공매도 대응 무상증자 결정…금감원 진정서 제출" 3文정부 성과 지우기?…'데이터바우처 지원사업' 예산 삭감 4 '망값 협상'에 통행세 횡포? 구글의 이중잣대 5뷰노, 가정용 심전도 측정 의료기기 식약처 인증 획득 1신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 그룹 신화의 멤버 신혜성(본명 정필교·43)씨가 도난 차량에서 자던 중 발견돼 음주측정을 거부한 혐의로 현행범 체포됐다. 11일 경찰에 따르면 서울 송파경찰서는 이날 오전 1시40분께 서울 송파구 탄천2교 인근 도로에서 도로교통법상 음주측정거부 및 절도 혐의로 신씨를 체포해 조사 중이다. 신씨는 도난 차량 안에서 자던 중 신고를 받고 출동한 경찰관의 음주측정 요구를 거부한 혐의를 받는다. 경찰은 신씨가 타고 있던 차량이 도난 신고가 접수된 것을 확인, 절도 혐의를 추가해 조사 중이다. 해당 차주는 신씨를 알지 2국회 화장실서 60대 기자 쓰러져 병원 이송…심정지 추정 3유명 래퍼, 대학축제서 다이빙하다 추락…"아무도 안 잡아줘" 4조사 거부로 '감사원법 위반' 고발된 文 전 대통령…처벌 가능성 있나 5①대한민국, 사람이 없어진다…2030년 '인구지진' 직면 1부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 경기 부천서 가정불화로 80대 아버지를 흉기로 찔러 숨지게 한 60대 아들이 경찰에 붙잡혔다. 부천 오정경찰서는 존속살해 혐의로 A(60대)씨를 붙잡아 조사중이라고 11일 밝혔다. A씨는 전날 오전 10시18분께 부천시 오정동의 한 빌라에서 아버지 B(80대)씨의 왼쪽 목 부위를 흉기로 찔러 숨지게 한 혐의를 받고 있다. A씨는 범행 후 112에 전화를 걸어 "아버지 B씨를 흉기로 찔렀다"라고 신고했으며 이후 B씨는 119구급대에 의해 인근 병원으로 옮겨졌지만 결국 숨졌다. 회사원인 A씨는 술에 취해 2軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 3연휴 뒤 출근길 아침 10도 이하 '쌀쌀'…큰 일교차 유의 4서울투자청, '국제 M&amp;A' 설명회…"벤처 출구전략 모색" 5인천, 출근길 바람 불어 더 춥다…낮부터 기온 올라 '큰 일교차' 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 강원도가 지급보증한 레고랜드 테마파크 대출 자산유동화기업어음(ABCP)이 결국 부도처리되면서 지방자치단체 보증 프로젝트 파이낸싱(PF) 사업에 비상이 걸렸다. 금융투자(증권)업계에 따르면 레고랜드 테마파크 기반 조성사업을 추진한 강원중도개발공사(GJC)가 필요자금을 조달하기 위해 설립한 특수목적법인(SPC) '아이원제일차'가 부도 처리됐다. 강원도는 GJC의 최대 주주로서 지분 44%를 보유하고 있다. 강원도는 최문순 전 지사 시절 춘천 중도 레고랜드 테마파크 조성 기반 공사를 맡은 강원중도개발(GJC)이 2050억 2'보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 3軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 4"집에 와서 허겁지겁 먹어" 제주 병설 유치원 '매운 급식' 논란 5동료들 보는데 부하직원 엉덩이 때린 간부…결과는 '정직 1개월' 1뮤지컬 '드라큘라', 김진환·유승우 합류...11월 개막 뮤지컬 '드라큘라'가 3년여 만에 돌아온다. 11일 제작사 글로벌컨텐츠에 따르면 '드라큘라'는 11월15일 서울 송파구 올림픽공원 우리금융아트홀에서 개막한다. 1897년 발간된 브람 스토커의 소설이 원작이다. 1995년 체코 프라하에서 초연된 후 독일, 프랑스, 러시아, 스위스, 폴란드, 벨기에, 한국 등에서 공연하며 약 500만명 이상 관객을 동원한 유럽 뮤지컬의 대표작이다. 브로드웨이 뮤지컬과는 차별화된 유럽식 대형 뮤지컬로 죽을 수 없는 형벌을 받은 비운의 남자 드라큘라의 매혹적인 이야기에 감미로운 음악을 더 2‘부산 밤이 보라색으로 물든다’...부산시, BTS 공연 연계 ‘보라해부산’ 조성 3자전거여행·워케이션…MZ취향 담은 관광앱들 두각 4"문화재청 내년 청와대 문화재 보전관리 예산은 '0원'" 5CJ ENM 등 K콘텐츠기업들 스페인서 성과…758억 투자상담 1두산 "구단 방향성 고려, 김태형 감독과 재계약 안해" 두산 베어스가 11일 올 시즌을 끝으로 계약 기간이 만료되는 김태형 감독과 재계약을 하지 않기로 결정했다고 밝혔다. 김 감독은 2015시즌부터 두산 베어스의 지휘봉을 잡아 2022시즌까지 정규시즌에서 645승 19무 485패를 거뒀다. 또한 2015년부터 2021년까지 7년 연속 한국시리즈 진출에 성공했고, 세 차례 한국시리즈 우승을 이끌었다. 두산 베어스 관계자는 "구단 전성기를 이끌어준 김태형 감독의 노고에 감사드린다. 팀의 장기적인 방향성 등을 고려해 이같은 결정을 했다"고 말했다. 두산은 마무리 훈련과 내 2이영표 부회장 "아시안컵 유치, 축구통해 국민 하나로" 3'투타 조화' SSG, 2022년 가장 빛났다…LG 역대급 2위 4진화한 이정후·돌아온 에이스 김광현…2022년 빛낸 스타 5손흥민의 토트넘, '나무 심기'로 故 벤트로네 코치 추모 1선우은숙, 4세 연하 아나운서 유영재와 재혼 탤런트 선우은숙(63)이 아나운서 유영재(59)와 재혼했다. 소속사 스타잇엔터테인먼트는 11일 "선우은숙씨가 좋은 인연을 만나 결혼의 결실을 맺게 됐다"며 "상대는 아나운서 유영재"라고 알렸다. "두 사람은 기독교 신자라는 공통점 아래 신앙과 신뢰를 쌓았다"며 "최근 혼인신고와 양가 상견례를 마쳤다. 새로운 출발에 따뜻한 관심·응원을 부탁드린다"고 했다. 선우은숙은 1978년 KBS 특채탤런트로 데뷔했다. 1981년 탤런트 이영하(72)와 결혼, 26년만인 2007년 이혼했다. 당시 선우은숙은 기자회견을 열고 "나쁜 2신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 3현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 4예비신부 김연아, 한복 화보…"♥고우림이 반할 만" 5공효진, 뉴욕 결혼식…10세 연하 케빈오와 백년가약 이 시간 Top 종합 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 국내외 식품안전정보, 조건 제약 없이 검색한다 의정부 행복로서 14일 뷰티 페스티벌 열린다 러 외무부 "美, 우크라에 호전적 분위기 조장 말라" 브이원텍, LG전자와 33억 규모 공급계약 체결 [포천소식] 시, 신재생에너지 융복합지원사업 공모 선정 등 野 "대통령실 새 진입로? 尹, 도어스테핑 피하려는 꼼수" "수계식·다비식때 왜 사진기 들이대냐 핀잔 들었는데...지금은 보물" 구인모 거창군수 "더 큰 거창 힘찬도약 다짐" '국민은행 강도살인' 첫 재판 내달로 연기…이승만 '일부 혐의 부인' 이엔플러스, 2차전지 양산 설비 반입…공장 완공 박차 금감원장 "은행권 경영진, 법률상 내부통제 의무 부과해야" 김주형은 될성부른 나무…한국 무대서도 최연소 기록 野 "대통령실 새 진입로? 尹, 도어스테핑 피하려는 꼼수" 구인모 거창군수 "더 큰 거창 힘찬도약 다짐" 금감원장 "은행권 경영진, 법률상 내부통제 의무 부과해야" 국민연금 이사장, 수익률 제고 방안에 "운용발전위서 논의" 민주당 광주시당, 10개 상설위 위원장 공모 시민단체 "하계 아시안게임 광주·대구 공동 유치, 공론화부터" 박지원, 강대강 대치 여·야에 "북핵실험 5일 남아…이럴 때 아냐" "SKT 구축 버스 공공와이파이 공유기 교체 비율 유독 높아" '초등 임용합격→발령' 광주 4.8개월·전남 4.6개월…서울 15.6개월 전재수 의원, 행정안전부 특별교부세 9억원 확보 광주 물 관리-지하시설물 중복 관리 "대책 시급"(종합) 정무위 국감… 野, 김건희 도이치 의혹에 "이복현 입장 내놔야" 러 외무부 "美, 우크라에 호전적 분위기 조장 말라" 美 철도파업 위기감 다시 고조…노사합의안 반대 57% 연료전지 CATL, 3분기 순익 최대 1.9조원 3배 급증 국제사회, 우크라 향한 러의 미사일 공습 규탄 시위 물결 中, 대만 국경일에도 무력시위…臺국방부장 "中 도발" 9월 중국 승용차 판매량 194만대...전년비 21%↑ 베네수엘라, 재앙 수준의 산사태로 최소 36명 사망 우크라 외무 "푸틴, 우크라에 보복 테러…영토 수복 작전 계속"(종합) 신생아 7명 살해한 '죽음의 천사'…인슐린·공기 주사 주입 BOE 추가 시장 안정대책에도 英 국채 금리 오히려 급등 국제사회, 유엔총회서 러 대규모 미사일 공격 강력 규탄(종합) 이란 석유·가스 노동자들도 반정부 시위 가세…"총성·폭발음 들려" 이엔플러스, 2차전지 양산 설비 반입…공장 완공 박차 국민연금 이사장, 수익률 제고 방안에 "운용발전위서 논의" 美 철도파업 위기감 다시 고조…노사합의안 반대 57% 연료전지 CATL, 3분기 순익 최대 1.9조원 3배 급증 김포-하네다 운항 횟수 2배 증가…30일부터 28회→56회 9월 중국 승용차 판매량 194만대...전년비 21%↑ 시티랩스, 운전면허 명의도용 방지 안면인증 솔루션 도입 올해 태풍에 침수차 2만대…중고차 환불 특약사항 필수 한전 사장 "핵심 해외사업 매각 바람직하지 않아…최대한 지킬 것"(종합) 이복현 "은행권에 금리인하 요구권 개선책 요구" 이복현 "문제 있는 사모펀드, 개별적으로 직접 챙겨" BOE 추가 시장 안정대책에도 英 국채 금리 오히려 급등 이엔플러스, 2차전지 양산 설비 반입…공장 완공 박차 금감원장 "은행권 경영진, 법률상 내부통제 의무 부과해야" 국민연금 이사장, 수익률 제고 방안에 "운용발전위서 논의" 에스엠, 12~13일 기업설명회 신한투자증권, 해외주식 실전투자대회 개최 현대카드, 인플루언서 대상 '인플카 현대카드' 출시 보험업계, 최근 10년 새 PF대출 10배 증가 한창, 2차전지 장비업체 셀틱 조건부 투자계약 체결 시티랩스, 운전면허 명의도용 방지 안면인증 솔루션 도입 이복현 금감원장, 우리은행 횡령에 "있을 수 없는 일" 씨아이에스, 195억 규모 2차전지 전극공정 장비 공급계약 체결 롯데케미칼, 일진머티리얼즈 주식매매계약 체결 농협조합장선거 앞두고 광주·전남 무자격조합원 6750명 적발 TSMC, 삼성전자 제치고 반도체 매출 '세계 1위' 오른다 롯데제과, GS25 전용 빵빠레 샌드 카스타드 전량 회수 인쇄·복사·스캔 한번에…한국엡손, 스마트 복합기 3종 출시 김대중컨벤션센터서 광주식품대전 개막…13~16일 한화디펜스 첨단 다목적무인차량, 美육군 성능시연 참가 롯데케미칼, 일진머티리얼즈 인수…2.7조원 본계약 체결 토요타 후원 소외계층 오케스트라 연주회 개최 선생님들의 교수법 토론의 장…구몬 '학습연구대회' 성료 "ESG 리스크, 인권·안전 등 이슈 대응에 달려" 김포-하네다 운항 횟수 2배 증가…30일부터 28회→56회 BAT "궐련형 전자담배 전환시 연초 대비 '위해 저감' 효과" 주장 국내외 식품안전정보, 조건 제약 없이 검색한다 카카오게임즈, '가디언 테일즈' 주제 오케스트라 예매 오픈 파수, 문서관리 플랫폼 ‘랩소디’에 저장소 통제 기능 추가 "SKT 구축 버스 공공와이파이 공유기 교체 비율 유독 높아" 美 애브포인트, 에센셜 인수…韓 SaaS 시장 본격 진출 롤러코스터 탔다가 911 부재중전화 왜?…"아이폰14가 구조요청 보내" 팬데믹 기간 전세계 '수면 질' 감소…韓 수면시간 늘었지만 평균 이하 박원재 부원장 "NIA, 지능정보시대 도약 견인차 역할" 경북도, '포스텍 연구중심 의대 설립' 박차… 바이오·의료산업 전문인력 양성 울산대·KAIST, 친환경 초고내구성 아연-공기전지 개발 "韓폭우·美폭염 등 기후위기 현실화"…정부, 과학기술로 해법 찾는다 동탄성심병원, 원격협진시스템 검증…"의료격차 해소" '국민은행 강도살인' 첫 재판 내달로 연기…이승만 '일부 혐의 부인' 노상방뇨 지적한 노인 무차별 폭행한 50대 실형 농협조합장선거 앞두고 광주·전남 무자격조합원 6750명 적발 연세대 K-NIBRT사업단, 싸이티바 코리아와 인력양성 등 업무협약 시민단체 "하계 아시안게임 광주·대구 공동 유치, 공론화부터" 경남도교육청, 9급 건축직 경력자 15명 뽑는다 '한동훈 어록집' 출판사 "韓 장관, 말만 하면 확대 재생산...조회수 등 신드롬" 김태우 강서구청장 "경쟁력 키워 잘 사는 도시 만들 것" 울산 청년 여성 10명 중 2.4명 매년 떠나…학업·취업 기회 부족 '초등 임용합격→발령' 광주 4.8개월·전남 4.6개월…서울 15.6개월 연세대 고등과학원, 노벨상 수상 석학 초청 행사 돌아온 마포나루 새우젓축제…"김장·콘서트 즐겨요" [포천소식] 시, 신재생에너지 융복합지원사업 공모 선정 등 파주시, 12월까지 긴급복지지원제도 확대 지원 고양시, 일산문화공원→'일산문화광장'으로 명칭 변경 ‘인천항 스마트 오토밸리 조성사업’ 운영사업자 선정 재공모 추진 이동환 고양시장 "국토부 1기 신도시 정비사업 로드맵 환영" 김태우 강서구청장 "경쟁력 키워 잘 사는 도시 만들 것" [화성소식] 시, U-만성질환관리센터 무료 심전도검사 등 진행 등 돌아온 마포나루 새우젓축제…"김장·콘서트 즐겨요" "용돈 주마" PC방서 여고생 2명 유인·추행한 40대 입건 화성 반려문화 축제 15일 개최…시민 참여·체험형으로 물품 대금 5억 빼돌린 안성 지역농협 직원 자수...검찰 송치 [안성소식] 시, 하반기 농민기본소득 지급 등 '국민은행 강도살인' 첫 재판 내달로 연기…이승만 '일부 혐의 부인' 제9대 대구시의회 개원 100일…"선진 정책 의회 지향" 민주당 광주시당, 10개 상설위 위원장 공모 농협조합장선거 앞두고 광주·전남 무자격조합원 6750명 적발 '행사 취소에 환불 않고 추가입장'…세계군문화엑스포 '물의' 시민단체 "하계 아시안게임 광주·대구 공동 유치, 공론화부터" 해남군, 농식품부 '가루쌀 교육·컨설팅사업' 5개소 선정…전국 최다 세계지방정부연합 총회 개막…14일까지 이어져 충북, 전화금융사기 피해건수·금액 갈수록 동반 상승 대구폴리텍대, 대구옥외광고·울산옥외광고 대상전 잇따라 수상 청도군 "가을밤 코미디와 함께 반시 맛 즐겨보세요" 김대중컨벤션센터서 광주식품대전 개막…13~16일 "수계식·다비식때 왜 사진기 들이대냐 핀잔 들었는데...지금은 보물" 마산국화축제장에 국내 최장 200m 국화터널 만든다 3년 만에 돌아온 부산자갈치축제…13일 개막 2022경기국제웹툰페어 폐막, 관람객 2만2795명 방문 수원시 선정 아름다운 가을명소…광교산 수변 산책로 등 10곳 소개 "고궁 수유실, 男 이용제지 차별"…문화재청, 시정 조치 박보균 장관 "한미동맹, 문화로 새 지평"…美·멕시코 출장 3년 만의 동래읍성역사축제, 올 가을 다시 만난다 강경젓갈축제, '젓갈과 상월고구마'가 만나 '풍성' 서울예술교육 16년을 한눈에… 2022 예술교육축제 개최 "문화재 도난 15년간 100% 증가 특사경은 14명 불과" 전남도, 문화재 보수 국비 469억 확보…전년대비 110억 증가 김주형은 될성부른 나무…한국 무대서도 최연소 기록 KPGA 김한별, 골프채 부러뜨리고 캐디에 폭언…상벌위 회부 '이경규가 간다' 잇는다…'안정환의 히든 카타르' 편성 김승기 캐롯 감독, 가입비 미납에 "제가 말씀드릴 입장 아니다" 두산 "구단 방향성 고려, 김태형 감독과 재계약 안해" [백보드]허웅 vs 두경민 등 새 시즌 라이벌 열전 "따라올 테면 따라와 봐"…프로농구 10개 구단 감독 출사표 '2년차' 스트라이더, 애틀랜타와 최대 7년 1320억원 계약 2022~2023시즌 프로농구 타이틀스폰서에 SK텔레콤 '복싱영웅' 파키아오 메타버스로…"아바타로 팬과 소통" 'WC 출루율 5할' 김하성, 디비전시리즈서도 펄펄 날까 KBL '가입비 미납' 캐롯에 최후통첩…"13일까지 내라" 조성하 "결혼할 때 쥐뿔도 없었다…母도 말려" 클라씨, 컴백 카운트다운…'데이 앤드 나이트' 일정 공개 '이경규가 간다' 잇는다…'안정환의 히든 카타르' 편성 케플러, 첫 팬미팅 성료..."더 많이 못해줘서 미안" 이지현, 이혼소송 두번으로 보낸 30대…"부모님께 나는 죄인" 박시은♥진태현, 아픔 딛고 일터 복귀…"오랜만에 광고 촬영" '진검승부' 도경수·김상호, 본격 라면 독대…아웅다웅 케미 공효진, 뉴욕 결혼식…절친 정려원·엄지원 참석(종합) '복싱영웅' 파키아오 메타버스로…"아바타로 팬과 소통" '스맨파' 2번째 탈락 크루는 누구?…메가 크루 미션 후반전 시작 (여자)아이들 '아이 러브', 선주문 70만장 돌파 '2022 지니뮤직어워드' MC, 전현무…내달 열린다 많이 본 기사 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 2'보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 3軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 4"집에 와서 허겁지겁 먹어" 제주 병설 유치원 '매운 급식' 논란 5동료들 보는데 부하직원 엉덩이 때린 간부…결과는 '정직 1개월' 6울산시 전국체전 해외 동포선수단 만찬…타 시도와 자매결연 710월1~10일 무역수지 '적자'로 시작…수출 118억·수입 156억 달러 1선우은숙, 4세 연하 아나운서 유영재와 재혼 2신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 3"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 6예비신부 김연아, 한복 화보…"♥고우림이 반할 만" 7공효진, 뉴욕 결혼식…10세 연하 케빈오와 백년가약 기자수첩 국내 의약품 허가심사 수수료 인상의 당위성 식품업계 가격 줄인상 불편한 3가지 이유 피플 김진부 경남도의회 의장 "행정통합 공감하나 실현 힘들 것" 박완수 경남지사 "행정통합, 정치권 결단·주민 의지로 가능" 세상에 이런 일이 "용돈 주마" PC방서 여고생 2명 유인·추행한 40대 입건 '보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 '스토킹하고 음란 영상 보여주고' 30대 남성 징역 6개월 "돈 낸 줄 착각"…부천 호프집 '먹튀 사건' 내사종결 쏠쏠정보 명품도 '중고거래'…판매자 된 나, 이것 반드시 지켜라[알아봅시다] '독감주사 맞자' 언제?…11월 중순·오후 3시 이전, 월화수[알아봅시다] 3년 만에 열리는 '여의도 불꽃축제'…교통통제는 어디? "마음 튼튼해지는 950가지 방법"…궁금하면 이곳 클릭 "저축성보험은 예·적금과 달라"…금감원, 소비자 유의 당부 서비스 전체보기 뉴스 실시간 정치 국제 경제 금융 산업 사회 수도권 지방 문화 IT·바이오 스포츠 연예 포토 뉴시스 TV 광장 기자수첩 스토리칼럼 아트클럽 기고 인터뷰 기획특집 섹션코너 데일리뉴시스 인사 부고 동정 포토·영상 국내사진 영상 해외사진 테마포토 그래픽 패밀리사이트 프라임뉴스 위클리뉴시스 모바일앱서비스 Android IOS 제휴사 AP통신 新華通訊 회사소개 광고 · 제휴 문의 제휴사 안내 콘텐츠 판매 저작권 규약 고충처리 기사제보 이용약관 개인정보 · 청소년보호정책 개인정보처리방침 알립니다. 대표이사 : 김형기 주소 : 서울 중구 퇴계로 173 남산스퀘어빌딩 (구 극동빌딩) 12층 사업자등록번호 : 102-81-36588 발행인 : 김형기 편집인 : 김형기 고충처리인 : 박상권 통신판매업신고 : 서울중구 0398호 문의 02-721-7400 webmaster@newsis.com 뉴시스의 모든 콘텐츠는 저작권법의 보호를 받는 바, 무단 전재ㆍ복사ㆍ배포를 금합니다. Copyright © NEWSIS.COM All rights reserved. 99+</t>
+  </si>
+  <si>
+    <t>제주도, 대구ㆍ경북 여행 도민ㆍ관광객 관리 나선다 한국일보 제주도, 대구ㆍ경북 여행 도민ㆍ관광객 관리 나선다 이전기사 검색 읽기모드 흰색 배경 회색 배경 검은색 배경 가나다라 가나다라 가나다라 가나다라 가나다라 인쇄 공유 카카오 페이스북 트위터 이메일 URL 기사 URL이 복사되었습니다. 기사저장 기사가 저장 되었습니다. 기사저장이 취소 되었습니다. 닫기 제주도, 대구ㆍ경북 여행 도민ㆍ관광객 관리 나선다 입력 2020.03.04 16:27 수정 2020.03.04 16:59 좋아요 0 0 0 댓글달기 0 제주에서 신종 코로나바이러스 감염증(코로나19) 네 번째 확진 환자가 발생했다. 해당 확진자가 다녀간 제주시 연동 제스코마트에서 보건당국 관계자가 4일 오전 방역을 하고 있다. 연합뉴스.제주도가 대구ㆍ경북 지역을 여행한 도민과 관광객을 대상으로 신종 코로나바이러스 감염병(코로나19) 검체검사를 실시하는 등 긴급 지원에 나선다고 4일 밝혔다. 이번 조치는 도내 신종 코로나 확진자 4명 모두가 대구를 방문한 후 확진 판정을 받았기 때문으로, 지역 내 확산을 조기에 차단하기 위해 마련됐다. 도는 우선 대구발 제주행 항공기 탑승객은 출발지인 대구공항에서 발열체크를 받는다. 항공기에 탑승하면 항공사 기내방송을 통해 제주지역 신종 코로나 관련 관리대책 안내가 이뤄진다. 제주공항에 도착한 탑승객들은 다른 지역에서 온 이용객들과 분리해 공항 내 탑승교를 통해 이동한 후 전원 발열체크를 받게 된다.도는 또 일반 도민과 관광객 중 최근 대구ㆍ경북 지역을 다녀왔다면 질병관리본부의 검사 기준에 해당하는 증상이 없더라도, 본인이 희망할 경우 신종 코로나 검체 검사를 받을 수 있도록 지원할 계획이다. 이외에도 이들에 대해 증상이 의심될 경우 이동 접촉을 최소화하고 자발적인 자가격리 수준의 외출 자제를 권고키로 했다. 필요하면 자가격리자에 대해 생활필수품 등을 지원할 예정이다.현재 대구와 제주를 오가는 항공기는 1일 2편이다. 원희룡 제주지사는 “대구ㆍ경북을 다녀온 도민과 관광객은 개인수칙을 철저히 지키고, 이동과 접촉을 최소화해 지역사회 감염을 막을 수 있도록 협조해 달라”고 당부했다.김영헌 기자 tamla@hankookilbo.com 0 0 공유 카카오 페이스북 트위터 이메일 URL 기사 URL이 복사되었습니다. 기사저장 기사가 저장 되었습니다. 기사저장이 취소 되었습니다. 댓글 쓰기 세상을 보는 균형, 한국일보Copyright ⓒ Hankookilbo 신문 구독신청 당신이 관심 있을만한 이슈 사회 많이 본 뉴스 라이브 이슈 댓글0 댓글을 입력해 주세요. 등록 0 / 250 등록 좋아요순 최신순 새로고침 댓글 신고 닫기 신고 사유를 선택해주세요. 불쾌감 조성 (비방/욕설/인신공격) 불법 광고 또는 스팸 음란성 게시글 사생활 침해 또는 명예훼손 취소 확인 삭제 확인 작성하신 글을 삭제하시겠습니까? 아니오 네 한국일보에 로그인하면 다양한 편의 기능을 제공 받을 수 있습니다. 읽던 기사 이어보기 댓글 반응 및 추천기사 제공 연재 기사 정기 구독 기능 로그인 페이스북 로그인 카카오 로그인 아이디 또는 비밀번호를 잘못 입력했습니다.(연속 1회) 아래 이미지를 보이는 대로 입력해주세요. 스피커로 들리는 내용을 숫자로 입력해 주세요. 새로고침 음성으로 듣기 새로고침 이미지로 보기 로그인 자동 로그인 회원가입 아이디 찾기 비밀번호 찾기 중복 가입 요청 이미 가입된 회원입니다. 확인 자동 로그인 공공장소에서 사용하는 컴퓨터에서는 자동 로그인 기능 사용에 유의 바랍니다. 확인 아이디 찾기 휴대폰 인증 비밀번호를 잊으셨나요? 아이디 찾기 손흥민/01012345678 으로 찾은 아이디 입니다. user@hankookilbo.com 로그인 비밀번호 찾기 인증방법 선택 등록된 이메일로 인증하기 휴대폰으로 인증하기 인증메일 발송 휴대폰 인증 아이디를 잊으셨나요? 계정 정보 없음 입력하신 사용자가 존재하지 않습니다. 확인 인증메일 발송 인증메일이 발송되었습니다. 해당 메일 계정 확인바랍니다. (유효시간:15분) 확인 아이디 입력 요청 비밀번호를 찾으실 아이디를 입력해주세요. 확인 비밀번호 재설정 비밀번호가 일치합니다. 확인 회원 정보 수정 비밀번호가 변경되었습니다. 확인 재시도 요청 유효 시간이 종료되었습니다. 다시 인증메일을 발송해주세요. 확인 로그인 5회 연속 실패 보안을 위해 비밀번호와 자동입력 방지문자를 함께 입력 바랍니다. 네 아이디 찾기 휴대폰 인증 비밀번호를 잊으셨나요? 약관동의 전체동의 (선택포함) 한국일보 이용약관 (필수) 제 1 조 (목적) 이 이용약관 (이하 ‘약관’이라 합니다)은 ㈜한국일보사 (이하 ‘회사’라 합니다)가 제공하는 한국일보닷컴(hankookilbo.com) 관련 제반 서비스의 이용과 관련하여 회사와 회원 간 권리와 의무 및 책임, 기타 필요한 사항을 규정함을 목적으로 합니다. 제 2 조 (용어의 정의) 1. 이 약관에서 사용하는 용어의 정의는 다음과 같습니다. ① ‘회원’ 이라 함은 이 약관에 동의하고 이용자 아이디(ID)와 비밀번호를 부여 받아 이 회사가 제공하는 서비스를 이용하는 이용자를 말합니다. ② ‘이용계약’ 이라 함은 이 약관을 포함하여 서비스 이용과 관련하여 회사와 회원간에 체결하는 모든 계약을 말합니다. ③ ‘가입’ 이라 함은 회원이 되고자 하는 이용자가 이 약관에 동의하고 회사의 서비스 신청 양식에 필요 정보를 기입하고, 서비스 이용 계약을 신청, 회사의 승인을 얻는 것을 말합니다. ④ ‘탈퇴’라 함은 회원이 이용계약을 해약하는 것을 말합니다. ⑤ ‘이용자 아이디(ID)’라 함은 회원의 식별 및 서비스 이용을 위하여 회원이 정하고 회사가 승인한 문자와 숫자의 조합을 말합니다. ⑥ ‘비밀번호’라 함은 이용자 아이디(ID)로 식별되는 회원의 본인 여부를 검증하기 위하여 회원 자신이 정하여 등록한 문자와 숫자의 조합을 말합니다. ⑦ ‘단말기’라 함은 서비스에 접속하기 위해 회원이 이용하는 개인용 컴퓨터, PDA, 휴대전화, IPTV 등의 전산장치를 말합니다. ⑧ ‘게시물’ 이라 함은 회원이 서비스 이용을 하면서 게시한 글, 사진, 동영상 및 각종 파일과 링크 등을 말합니다. 2. 이 약관에서 사용하는 용어 중 제1항에서 정하지 아니한 것은 관계 법령 및 서비스별 안내에서 정하는 바에 따르며, 그 외에는 일반 관례에 따릅니다. 제 3 조 (약관의 게시 및 개정) 1. 회사는 이 약관을 회원들이 쉽게 알 수 있도록 한국일보닷컴 초기화면에 게시합니다. 2. 회사는 ‘약관의규제에관한법률’ ‘정보통신망이용촉진및정보보호등에관한법률(이하 ‘정보통신망법’) 등 관련 법을 위배하지 않는 범위 안에서 이용 약관을 개정할 수 있습니다. 3. 회사가 약관을 개정할 경우에는 적용일자 및 개정사유를 명시하여 현행약관과 함께 제1항의 방식에 따라 개정약관의 적용일자 30일 전부터 적용일자 전일까지 공지합니다. 다만 회원에게 불리한 개정의 경우에는 공지 외에도 전자우편, 전자쪽지, 로그인 시 동의 창 등 전자적 수단을 통해 따로 통지합니다. 4. 회원이 약관 개정에 동의하지 않을 경우 당 회원과 이용계약을 해지할 수 있습니다. 5. 회원이 개정된 약관의 효력이 발생한지 15일 후에도 거부 의사를 표명하지 않은 채 계속 서비스를 이용할 경우 개정된 약관에 동의한 것으로 간주합니다. 제 4 조 (약관 외 준칙) 1. 회사는 필요한 경우 서비스별로 개별약관 또는 운영원칙을 둘 수 있으며, 이 약관과 운영원칙의 내용이 상충되는 경우에는 서비스별 개별약관과 운영원칙을 우선하여 적용합니다. 2. 이 약관에 명시되어 있지 않은 사항은 관련 법령 또는 상관례에 따릅니다. 제 5 조 (이용계약의 성립) 1. 이용계약은 회원이 되고자 하는 자(이하 ‘가입신청자)가 약관 내용에 ‘동의’를 한 후 회원가입 신청을 하고 회사가 이러한 신청을 승낙함으로써 체결됩니다. 2. 회사는 가입신청자의 신청에 대해 서비스 이용을 승낙함을 원칙으로 합니다. 다만 회사는 다음 각 호에 해당하는 신청에 대하여는 승낙을 하지 않거나 사후에 이용계약을 해지할 수 있습니다. ① 가입신청자가 이 약관에 의하여 이전에 회원자격을 상실한 적이 있는 경우. 다만 ‘회사’의 재가입 승낙을 얻은 경우는 예외로 함 ② 타인의 명의, 이메일 주소, 휴대전화 번호 등 개인정보를 도용하여 가입한 경우 ③ 허위 정보를 기재하거나 회사가 필수적으로 요구하는 사항을 기재하지 않은 경우 ④ 이용자 귀책사유로 인하여 승인이 불가능하거나 기타 규정한 제반 사항을 위반하며 신청하는 경우 ⑤ 관계법령에 위배되거나 사회의 안녕질서 혹은 미풍양속을 저해할 수 있는 목적으로 신청한 경우 ⑥ 영리목적 기타 부정한 용도로 본 서비스를 이용하고자 하는 경우 3. 회사는 제2항에 따라 회원가입신청의 승낙을 하지 않거나 유보한 경우 이를 가입신청자에게 알려야 합니다. 4. 회사는 서비스 이용신청이 다음 각 호에 해당하는 경우에는 그 신청에 대하여 승낙 제한사유가 해소될 때까지 승낙을 유보할 수 있습니다. ① 회사의 서비스 관련 설비의 여유가 없는 경우 ② 회사의 기술상 또는 업무상 문제가 있는 경우 ③ 기타 이용승낙이 곤란한 경우 5. 회사는 이용신청 고객이 관계법령에서 규정하는 미성년자일 경우에 서비스별 안내에서 정하는 바에 따라 승낙을 보류할 수 있습니다. 6. 회사는 회원을 대상으로 서비스별, 이용시간, 이용횟수 등을 통해 등급을 구분하여 이용에 차등을 둘 수 있습니다. 제 6 조 (개인정보 보호 의무 및 사용) 1. 회사는 ‘정보통신망법’ 등 관계 법령이 정하는 바에 따라 회원의 개인정보를 보호하기 위해 최선을 다합니다. 개인정보의 보호와 사용에 대해서는 관련 법령 및 회사의 개인정보취급방침이 적용됩니다. 다만 회사의 공식사이트 이외의 링크된 사이트에서는 회사의 개인정보취급방침이 적용되지 않습니다. 2. 회원은 이용자 아이디(ID) 및 비밀번호 등 개인정보가 타인에게 노출되지 않도록 철저히 관리해야 하며, 회사는 회원의 귀책사유로 인해 노출된 정보에 대해서는 책임을 지지 않습니다. 3. 회원은 아이디 및 비밀번호가 도용되거나 제3자가 사용하고 있음을 인지한 경우 이를 즉시 회사에 통지하고 회사의 안내에 따라야 합니다. 4. 회사는 다음과 같은 경우에 법이 허용하는 범위 내에서 회원의 개인정보를 제3자에게 제공할 수 있습니다. ① 수사기관이나 기타 정부기관으로부터 적법한 절차에 따라 정보제공을 요청 받은 경우 ② 회원의 법령 또는 약관의 위반을 포함하여 부정행위 확인 등의 정보보호 업무를 위해 필요한 경우 ③ 기타 법률에 의해 요구되는 경우 5. 회사는 회원에게 보다 다양한 정보 서비스 및 관련 혜택을 제공할 목적으로 회원의 정보를 이용할 수 있습니다. 또한, 회사는 회원정보를 제휴사에게 제공할 경우 제휴사, 목적, 이용될 회원정보 내용 등을 사전에 공지하고 회원 동의를 받아야 합니다. 6. 회사가 타사와 합병, 분할 시 회원의 정보는 공유될 수 있습니다. 7. 회사는 서비스 제공시 회원의 단말기로 쿠키를 전송할 수 있습니다. 이 경우 회원은 사용하는 단말기의 브라우저가 쿠키의 수신을 거부하거나 쿠키의 수신에 대하여 경고하도록 설정을 변경할 수 있습니다. 8. 회원이 이용신청서에 회원정보를 기재하고 본 약관에 동의 이용신청을 하는 것은 기재된 회원정보를 수집, 이용 및 제공하는 것에 동의하는 것으로 간주합니다. 9. 회사는 관련 법령과 이용 약관, 개인정보보호방침이 정하는 한계 내에서 회원 전체 또는 일부 정보를 업무와 관련된 통계자료로 사용할 수 있습니다. 제 7 조 (회사의 의무) 1. 회사는 관련법과 이 약관이 금지하거나 미풍양속에 반하는 행위를 하지 않으며, 계속적이고 안정적으로 서비스를 제공하기 위하여 최선을 다하여 노력합니다. 2. 회사는 회원이 안전하게 서비스를 이용할 수 있도록 개인정보 보호를 위해 보안시스템을 갖추어야 하며 개인정보취급방침을 공시하고 준수합니다. 3. 회사는 서비스 이용과 관련하여 발생하는 이용자의 불만 또는 피해 구제 요청을 적절하게 처리할 수 있도록 필요한 인력 및 시스템을 구비합니다. 4. 회사는 서비스 이용과 관련하여 회원으로부터 제기된 의견이나 불만이 정당하다고 인정할 경우에는 이를 처리하여야 합니다. 제 8 조 (회원의 의무) 1. 회원은 다음 행위를 하여서는 안 됩니다. ① 신청 또는 변경 시 허위 내용의 등록 ② 타인의 정보 도용 ③ 회사가 게시한 정보의 변경 ④ 회사가 정한 정보 이외의 정보(컴퓨터 프로그램 등)를 송신 또는 게시 ⑤ 회사와 기타 제 3자의 저작권 등 지적재산권에 대한 침해 ⑥ 회사 및 기타 제3자의 명예를 손상시키거나 업무를 방해하는 행위 ⑦ 외설 또는 폭력적인 메시지, 화상, 음성 등의 정보를 서비스에 공개 또는 게시하는 행위 ⑧ 회사의 동의 없이 영리를 목적으로 서비스를 사용하는 행위 ⑨ 기타 불법적이거나 부당한 행위 2. 회원은 관계 법령과 이 약관의 규정, 회사가 통지하는 사항 등을 준수하여야 하며, 기타 회사의 업무에 방해되는 행위를 해서는 안 됩니다. 3. 회원은 이용 신청시 기재한 주소, 연락처, 전자우편주소 등 개인정보와 이용계약 사항의 변경이 있을 경우 즉시 수정하여야 하며, 미변경으로 인해 발생하는 문제에 대해서 회사는 책임지지 않습니다. 4. 회원은 회사의 명시적 동의가 없는 한 서비스를 이용한 영업활동을 할 수 없으며, 그 영업활동의 결과에 대해 회사는 책임을 지지 않습니다. 또한 회원은 이와 같이 영업활동으로 회사가 손해를 입은 경우 회원은 회사에 대해 손해배상 의무를 지며, 회사는 해당 회원에 대해 서비스 이용제한 및 적절한 절차를 거쳐 손해배상 등을 청구할 수 있습니다. 제 9 조 (이용자 아이디 부여 및 변경) 1. 회사는 회원에 대하여 약관에 정하는 바에 따라 이용자 아이디(ID)를 부여합니다. 2. 이용자 아이디(ID)는 원칙적으로 변경이 불가하며 부득이한 사유로 인하여 변경하고자 하는 경우에는 해당 아이디(ID)를 해지하고 재가입 해야 합니다. 3. 이용자 아이디(ID)는 회원 본인의 동의 하에 회사 또는 자회사, 제휴사에서 운영하는 사이트의 회원 아이디(ID)와 연결될 수 있습니다. 4. 이용자 아이디(ID)는 다음 각호에 해당하는 경우에는 회원의 요청 또는 회사의 직권으로 변경 또는 이용을 정지할 수 있습니다. ① 이용자 아이디(ID)가 전화번호 또는 주민등록번호로 등록되어 사생활 침해가 우려되는 경우 ② 타인에게 혐오감을 주거나 미풍양속에 어긋나는 경우 ③ 회사, 회사의 서비스 또는 서비스 운영자 등의 명칭과 동일하거나 오인 등의 우려가 있는 경우 ④ 기타 합리적인 사유가 있는 경우 5. 이용자 아이디(ID) 및 비밀번호 관리책임은 회원에게 있습니다. 이를 소홀히 관리하여 발생하는 서비스 이용상의 손해 또는 제3자에 의한 부정이용 등에 대한 책임은 회원에게 있으며 회사는 그에 대한 책임을 지지 않습니다. 6. 이용자 아이디(ID) 및 비밀번호를 도난 당하거나 제3자가 사용하고 있음을 인지한 경우에는 바로 회사에 통보하고 안내에 있는 경우에는 그에 따라야 하며, 이러한 통지를 하지 아니하거나 회사의 조치에 응하지 아니하여 발생한 모든 불이익에 대한 책임은 회원에게 있습니다. 7. 기타회원 개인정보 관리 및 변경 등에 관한 사항은 서비스별 안내에 정하는 바에 의합니다. 제 10 조 (서비스 이용) 1. 서비스는 회사의 업무상 또는 기술상 특별한 지장이 없는 한 연중무휴, 1일 24시간 운영을 원칙으로 합니다. 단 천재지변 및 비상사태를 비롯한 부득이한 상황이 발생한 경우에는 서비스를 일시 중단할 수 있습니다. 2. 회사는 컴퓨터 등 정보통신설비의 보수점검, 교체 및 고장, 통신두절 또는 운영상 상당한 이유가 있는 경우 서비스의 제공을 일시적으로 중단할 수 있습니다. 이 경우 회사는 회원들에 사이트를 통해 사전 공지합니다. 다만 긴급한 시스템 점검, 증설 및 교체, 설비의 장애, 서비스 이용자 폭주, 국가비상사태, 정전 등 부득이한 사유가 발생한 경우에는 사전 예고 없이 일시적으로 서비스의 전부 또는 일부를 중단할 수 있습니다. 3. 회사는 서비스 개편 등 서비스 운영 상 필요한 경우 회원에게 사전 예고 후 서비스의 전부 또는 일부의 제공을 중단할 수 있습니다. 제 11 조 (회원 게시물의 관리) 1. 회원의 게시물이 정보통신망법 및 저작권법 등 관련법에 위반되는 내용을 포함하는 경우, 회사는 관련법이 정한 절차에 따라 해당 게시물의 게시중단 및 삭제 등을 요청할 수 있습니다. 2. 회원이 서비스에 등록하는 게시물 등으로 인하여 본인 또는 타인에게 손해나 기타 문제가 발생하는 경우 전적으로 회원은 이에 대한 책임을 지며, 회사의 고의가 아닌 한 회사는 이에 대하여 책임을 지지 않습니다. 3. 회사는 다음 각호에 해당하는 게시물 등을 회원의 사전 동의 없이 임시게시 중단, 수정, 삭제, 이동 또는 등록거부 등 관련조치를 취할 수 있습니다. ① 다른 회원 또는 제3자에게 욕설 및 비방, 인신공격으로 불쾌감 및 모욕을 주거나 명예를 훼손하는 내용인 경우 ② 다른 회원 또는 제3자의 저작권을 침해하거나 불법정보 유출과 관련된 글을 올리는 경우 ③ 다른 회원 또는 제3자의 사생활 침해 및 개인정보를 유출하는 경우 ④ 공공질서 및 미풍양속에 위반되는 내용을 유포하거나 링크시키는 경우 ⑤ 불법복제 또는 해킹을 조장하는 내용인 경우 ⑥ 영리를 목적으로 하는 광고 또는 사이트를 홍보하는 내용인 경우 ⑦ 범죄와 결부된다고 객관적으로 인정되는 내용인 경우 ⑧ 사적인 판단이나 지역감정 조성, 종교적 견해의 내용으로 회사가 서비스 성격에 부합하지 않는다고 판단하는 경우 ⑨ 회사에서 규정한 게시물 운영원칙에 어긋나거나 게시판 성격에 부합하지 않는 경우 ⑩ 기타 관계법령에 위배된다고 판단되는 경우 3. 회사는 광고성 게시물 차단 및 안정된 게시물 운영을 위해 일부 서비스에 대해 게시물 이용시간을 제한할 수 있습니다. 다만 이런 경우 이용시간을 해당 서비스에서 공지합니다. 4. 회사는 일부 서비스에 대해서 회원이 등록하는 게시물에 대해 사전 심의 후 게시 여부를 결정할 수 있습니다. 제 12 조 (게시물의 저작권) 1. 회원이 등록한 게시물에 대한 저작권은 해당 저작권자에게 귀속됩니다. 2. 회사가 작성한 게시물 또는 저작물에 대한 저작권, 기타 지적재산권은 회사에 귀속되므로 회원이 서비스를 이용하면서 얻은 저작물은 회사의 사전 승낙 없이 복제, 송신, 출판, 전송, 배포, 방송, 기타 방법에 의하여 영리목적으로 이용하거나 제3자에게 이용하게 해서는 안됩니다. 3. 회사는 서비스의 운영, 전시, 전송, 배포, 홍보의 목적으로 회원의 별도의 허락 없이 무상으로 저작권법에 규정하는 공정한 관행에 맞게 합리적인 범위 내에서 다음과 같이 회원이 등록한 게시물을 사용할 수 있습니다. ① 서비스 내에서 회원 게시물의 복제, 수정, 개조, 전시, 전송, 배포 및 원저작물을 해치지 않는 범위 내에서의 편집 저작물 작성하는 경우 ② 서비스 제휴 파트너에게 회원의 게시물 내용을 제공, 전시 혹은 홍보하게 하는 경우 ③ 휴대폰, PDA, IPTV 등 단말기에서 회원의 게시물 내용을 제공, 전시 혹은 홍보하게 하는 경우 4. 회사는 전항 이외의 방법으로 회원의 게시물을 이용하고자 하는 경우 전화, 팩스, 전자우편 등의 방법을 통해 사전에 회원의 동의를 얻어야 합니다. 5. 게시물에 대해 제3자로부터 저작권 및 기타 권리의 침해 또는 명예훼손, 음란성 등의 이유로 이의가 제기된 경우 회사는 당해 게시물을 임시 삭제할 수 있습니다. 이 경우 회사는 이의를 제기한 자와 게시물 등록자 간의 법적 문제가 종결된 후, 게시 요청이 있는 경우에는 삭제된 게시물을 재등록 할 수 있습니다. 제 13 조 (정보의 제공) 1. 회사는 회원의 서비스 이용에 필요하다고 인정되는 다양한 정보를 공지사항이나 전자우편, SMS, SNS 등의 방법으로 회원에게 제공할 수 있습니다. 다만 회원은 관련법에 따른 거래관련 정보 및 고객문의 등에 대한 답변 등을 제외하고는 언제든지 전자우편에 대해서 수신 거절을 할 수 있습니다 2. 회사는 서비스 개선 및 회원 대상의 서비스 제공 등을 목적으로 회원의 동의 하에 관련 법령에 따라 추가적인 개인정보를 수집할 수 있습니다. 제 14 조 (광고 게재) 1. 회사가 회원에게 서비스를 제공하기 위한 수익기반의 일부인 광고게재 및 판촉활동에 대해서 회원은 서비스 이용 시 제공되는 광고에 대해 동의합니다. 2. 회사는 회원 가입 시 광고메일 발송에 동의한 한 회원에 한해서 회사의 판단에 따라 이메일 광고를 회원의 이메일 주소로 발송, 제공합니다. 3. 회사는 서비스상에 게재되어 있거나 서비스를 통한 광고주의 판촉활동에 회원이 참여하거나 교신 또는 거래를 함으로써 발생하는 일체의 손실과 손해에 대해 책임을 지지 않습니다. 제 15 조 (계약 해지) 1. 회원이 이용계약을 해지하고자 할 경우에는 회원 본인이 회사에서 제공한 서비스 내 영역을 통해 가입 해지를 해야 합니다. 회사는 관련법 등이 정하는 바에 따라 이를 즉시 처리해야 합니다. 2. 회원이 이용계약을 해지할 경우, 회사가 회원정보를 보유하는 경우를 제외하고는 관련법 및 개인정보취급방침에 따라 해지 즉시 회원의 모든 데이터는 소멸됩니다. 3. 회원이 이용계약 해지를 한 경우 본인 계정에 등록된 게시물 일체는 삭제됩니다. 다만 제3자에 의한 스크랩, 담기 등으로 재게시되거나, 복제된 게시물과 타인의 게시물과 결합되어 제공되는 게시물 등은 그러하지 않습니다. 제 16 조 (서비스 이용제한) 1. 회사는 회원이 이 약관의 의무를 위반하거나 서비스의 정상적인 운영을 방해한 경우, 이용을 단계적으로 제한할 수 있습니다. 2. 회사는 주민등록법을 위반한 명의도용 및 결제도용, 저작권법 및 컴퓨터프로그램보호법을 위반한 불법프로그램의 제공 및 운영방해, 정보통신망법을 위반한 불법통신 및 해킹, 악성프로그램의 배포, 접속권한 초과행위 등과 같이 관련법령을 위반한 경우에는 즉시 영구이용정지를 할 수 있습니다. 3. 회사는 본 조의 제한의 조건 및 세부내용은 이용제한정책 및 개별 서비스상의 운영정책에서 정하는 바에 의합니다. 제 18 조 (손해배상) 1. 회사와 이용자는 서비스 이용과 관련하여 고의 또는 과실로 상대방에게 손해를 끼친 경우에는 이를 배상해야 합니다. 2. 단, 회사는 무료로 제공하는 서비스의 이용과 관련하여 개인정보취급방침에서 정하는 내용에 위반하지 않는 한 어떠한 손해도 책임지지 않습니다. 제 19 조 (책임제한) 1. 회사는 천재지변 또는 이에 준하는 불가항력 기타 이 약관에서 정한 정당한 사유로 인하여 서비스를 제공할 수 없게 된 경우에는 서비스 제공에 관한 책임이 면제됩니다. 2. 회사는 회원의 귀책사유로 인한 서비스 이용의 장애 또는 손해에 대해서는 책임을 지지 않습니다. 3. 회사는 회원간 또는 회원과 제3자 상호간에 서비스를 매개로 하여 거래 등을 한 경우에는 책임이 면제됩니다. 4. 회사는 제공하는 서비스에 포함된 모든 정보, 소프트웨어, 제품 등에 부정확함과 인쇄상의 오류로 인해 발생하는 정보의 부정확성에 대해서는 책임을 지지 않습니다. 5. 회사는 회원의 게시물을 등록 전에 상시적으로 사전심사 하거나 게시물의 내용을 확인 또는 검토할 의무가 없으므로 그 결과에 대한 책임은 지지 않습니다. 6. 회사에서 회원에게 무료로 제공하는 서비스의 이용과 관련해서는 어떠한 손해도 책임을 지지 않습니다. 제 20 조 (통지) 1. 회사는 회원에 대하여 통지를 하는 경우 회원이 회사에 등록한 전자우편 주소로 할 수 있습니다. 2. 회사는 불특정다수 회원에게 통지를 해야 할 경우 회사 게시판을 통해 7일 이상 게시함으로써 개별통지에 갈음할 수 있습니다. 제 21 조 (준거법 및 재판관할) 1. 이 약관에 명시되지 않은 사항은 대한민국 관계법령과 상관습에 따릅니다. 2. 서비스 이용으로 인한 분쟁에 대해 소송이 제기될 경우 회사의 본사 소재지를 관할하는 법원을 관할법원으로 합니다. [부칙] 1. 이 약관은 2014년 5월 7일부터 시행합니다. 개인정보처리 방침 (필수) 한국일보닷컴(이하 ‘회사’)은 정보통신망 이용촉진 및 정보보호 등에 관한 법률, 개인정보보호법, 통신비밀보호법, 전기통신사업법, 등 정보통신서비스제공자가 준수하여야 할 관련 법령상의 개인정보보호 규정 및 방송통신위원회가 제정한 「개인정보보호지침」을 준수하고 있으며, 관련 법령에 의거한 개인정보취급방침을 정하여 이용자 권익 보호에 최선을 다하고 있습니다. 회사는 회원님들의 개인정보가 남용되거나 유출되지 않도록 최선을 다할 것이며, 이에 다음과 같이 회사의 개인정보 보호를 위한 방침에 대하여 알려드리고자 합니다. 단, 본 개인정보취급방침은 정부의 법령 및 지침의 변경, 또는 보다 나은 서비스의 제공을 위하여 그 내용이 변경될 수 있으니, 회원님들께서는 사이트 방문시 수시로 그 내용을 확인하여 주시기 바랍니다. 본 개인정보취급방침은 회사가 제공하는 서비스 (모바일 웹 포함) 이용에 적용되며 다음과 같은 내용을 담고 있습니다. 1. 수집하는 개인정보의 항목 및 수집방법 회사는 회원가입, 원활한 고객 상담, 각종 서비스의 제공을 위해 최초 회원가입 당시 아래와 같은 최소한의 개인정보를 필수항목으로 수집하고 있습니다. 가. 수집하는 개인정보의 항목 필수항목 : 이름, 생년월일, 아이디, 비밀번호, 메일주소, 휴대폰 번호, 주소, 가입인 증정보(참고로, 아동 관련 서비스를 제공할 때까지 만14세 미만 아동 회원은 가입을 불허합니다) 다만, 서비스 이용과정이나 사업처리 과정에서 IP Address, 쿠키, 방문 일시, 서비스 이용 기록, 불량 이용 기록, 결제기록 등이 자동으로 생성 되어 수집될 수 있습니다. 선택항목: 기존 아이디를 이용한 부가 서비스 및 맞춤식 서비스 이용 또는 이벤트 응모 과정에서 해당 서비스의 이용자에 한해서만 주민등록번호, 주소, 전 화번호, 직업 등의 정보들이 수집될 수 있습니다. 나. 개인정보 수집방법 회사는 다음과 같은 방법으로 개인정보를 수집합니다. - 홈페이지, 서면양식, 팩스, 전화, 상담 게시판, 이메일, 이벤트 응모, 배송요청 2. 개인정보의 수집 및 이용목적 회사는 수집한 개인정보를 다음의 목적을 위해 활용합니다. 가. 서비스 제공 서비스 제공에 관한 계약 이행 및 서비스 제공에 따른 요금정산, 컨텐츠 제공, 특정 맞춤 서비스 제공, 물품배송 또는 청구서 등 발송, 본인인증, 구매 및 요금 결제, 요금추심 나. 회원관리 회원제 서비스 이용에 따른 본인확인, 개인식별, 한국일보닷컴 이용약관 위반 회원에 대한 이용제한 조치, 서비스의 원활한 운영에 지장을 미치는 행위 및 서비스 부정이용 행위 제재, 가입의사 확인, 가입 및 가입횟수 제한, 추후 아동 관련 서비스제공으로 인한 만14세 미만 아동 개인정보 수집 시 법정 대리인 동의여부 확인, 추후 법정 대리인 본인확인, 분쟁 조정을 위한 기록보존, 불만처리 등 민원처리, 고지사항 전달, 회원탈퇴 의사의 확인 다. 신규 서비스 개발 및 마케팅·광고에의 활용 신규 서비스 개발 및 맞춤 서비스 제공, 통계학적 특성에 따른 서비스 제공 및 광고 게재, 서비스의 유효성 확인, 이벤트 정보 및 참여기회 제공, 광고성 정보 제공, 접속빈도 파악, 회원의 서비스이용에 대한 통계 3. 개인정보의 공유 및 제공 회사는 이용자들의 개인정보를 "2. 개인정보의 수집목적 및 이용목적"에서 고지한 범위내에서 사용하며, 이용자의 사전 동의 없이는 동 범위를 초과하여 이용하거나 원칙적으로 이용자의 개인정보를 외부에 공개하지 않습니다. 다만, 아래의 경우에는 예외로 합니다. - 이용자가 사전에 동의한 경우 - 법령의 규정에 의거하거나, 수사 목적으로 법령에 정해진 절차와 방법에 따라 수사기관의 요구가 있는 경우 4. 개인정보의 보유 및 이용기간 이용자의 개인정보는 원칙적으로 개인정보의 수집 및 이용목적이 달성되면 지체 없이 파기합니다. 단, 다음의 정보에 대해서는 아래의 이유로 명시한 기간 동안 보존합니다. 가. 회사 내부 방침에 의한 정보보유 사유 - 부정이용기록(부정가입, 징계기록 등의 비정상적 서비스 이용기록) 보존 이유 : 부정 이용 방지 보존 기간 : 15일 나. 관련법령에 의한 정보보유 사유 상법, 전자상거래 등에서의 소비자보호에 관한 법률 등 관계법령의 규정에 의하여 보존할 필요가 있는 경우 회사는 관계법령에서 정한 일정한 기간 동안 회원정보를 보관합니다. 이 경우 회사는 보관하는 정보를 그 보관의 목적으로만 이용하며 보존기간은 아래와 같습니다. - 표시, 광고에 관한 기록 보존이유 : 전자상거래등에서의 소비자보호에 관한 법률 보존기간 : 6개월 - 계약 또는 청약철회 등에 관한 기록 보존이유 : 전자상거래등에서의 소비자보호에 관한 법률 보존기간 : 5년 - 대금결제 및 재화 등의 공급에 관한 기록 보존 이유 : 전자상거래 등에서의 소비자보호에 관한 법률 보존 기간 : 5년 - 소비자의 불만 또는 분쟁처리에 관한 기록 보존이유 : 전자상거래등에서의 소비자보호에 관한 법률 보존기간 : 3년 - 웹사이트 방문기록 보존이유 : 통신비밀보호법 보존기간 : 3개월 5. 개인정보 파기절차 및 방법 이용자의 개인정보는 원칙적으로 개인정보의 수집 및 이용목적이 달성되면 지체 없이 파기합니다. 회사의 개인정보 파기절차 및 방법은 다음과 같습니다. 가. 파기절차 - 이용자가 회원가입 등을 위해 입력한 정보는 목적이 달성된 후 별도의 DB로 옮겨져(종이의 경우 별도의 서류함) 내부 방침 및 기타 관련 법령에 의한 정보보호 사유에 따라(보유 및 이용기간 참조)일정 기간 저장된 후 파기됩니다. - 동 개인정보는 법률에 의한 경우가 아니고서는 보유되는 이외의 다른 목적으로 이용되지 않습니다. 나. 파기방법 - 종이에 출력된 개인정보는 분쇄기로 분쇄하거나 소각을 통하여 파기합니다. - 전자적 파일 형태로 저장된 개인정보는 기록을 재생할 수 없는 기술적 방법을 사용하여 삭제합니다. 6. 이용자 및 법정대리인의 권리와 그 행사방법 - 이용자는 언제든지 등록되어 있는 자신의 개인정보를 조회하거나 수정할 수 있으며, 회사의 개인정보의 처리에 동의하지 않는 경우 동의를 거부하거나 가입해지(회원탈퇴)를 요청하실 수 있습니다. 다만, 그러한 경우 서비스의 일부 또는 전부 이용이 어려울 수 있습니다. - 이용자의 개인정보 조회, 수정을 위해서는 '개인정보변경'(또는 '회원정보수정' 등)을, 가입해지(동의철회)를 위해서는 "회원탈퇴"를 클릭하여 본인 확인 절차를 거치신 후 직접 열람, 정정 또는 탈퇴가 가능합니다. - 혹은 개인정보관리책임자에게 서면, 전화 또는 이메일로 연락하시면 지체 없이 조치하겠습니다. - 이용자가 개인정보의 오류에 대한 정정을 요청하신 경우에는 정정을 완료하기 전까지 당해 개인정보를 이용 또는 제공하지 않습니다. 또한 잘못된 개인정보를 제3 자에게 이미 제공한 경우에는 정정 처리결과를 제3자에게 지체 없이 통지하여 정정이 이루어지도록 하겠습니다. - 회사는 이용자 혹은 법정 대리인의 요청에 의해 해지 또는 삭제된 개인정보는 "5. 개인정보의 보유 및 이용기간"에 명시된 바에 따라 처리하고 그 외의 용도로 열람 또는 이용할 수 없도록 처리하고 있습니다. 7. 개인정보 자동 수집 장치의 설치/운영 및 거부에 관한 사항 - 회사는 개인화되고 맞춤화된 서비스를 제공하기 위해서 이용자의 정보를 저장하고 수시로 불러오는 '쿠키(cookie)'를 사용합니다. - 쿠키는 웹사이트를 운영하는데 이용되는 서버가 이용자의 브라우저에게 보내는 아주 작은 텍스트 파일로 이용자 컴퓨터의 하드디스크에 저장됩니다. 이후 이용자가 웹 사이트에 방문할 경우 웹 사이트 서버는 이용자의 하드 디스크에 저장되어 있는 쿠키의 내용을 읽어 이용자의 환경설정을 유지하고 맞춤화된 서비스를 제공하기 위해 이용됩니다. - 쿠키는 개인을 식별하는 정보를 자동적/능동적으로 수집하지 않으며, 이용자는 언제든지 이러한 쿠키의 저장을 거부하거나 삭제할 수 있습니다. 가. 쿠키 사용 목적 회원과 비회원의 접속 빈도나 방문 시간 등을 분석, 이용자의 취향과 관심분야를 파악 및 자취 추적, 각종 이벤트 참여 정도 및 방문 회수 파악 등을 통한 타킷 마케팅 및 맞춤형 정보를 제공하기 위해 사용합니다. 다. 쿠키의 설치·운영 및 거부 - 이용자는 쿠키 설치에 대한 선택권을 가지고 있습니다. 따라서 이용자는 웹브라우저에서 옵션을 설정함으로써 모든 쿠키를 허용하거나, 쿠키가 저장될 때마다 확인을 거치거나, 아니면 모든 쿠키의 저장을 거부할 수도 있습니다. - 다만, 쿠키의 저장을 거부할 경우에는 로그인이 필요한 일부 서비스는 이용에 어려움이 있을 수 있습니다. - 쿠키 설치 허용 여부를 지정하는 방법(Internet Explorer의 경우)은 다음과 같습니다. ① [도구] 메뉴에서 [인터넷 옵션]을 선택합니다. ② [개인정보 탭]을 클릭합니다. ③ [개인정보취급 수준]을 설정하시면 됩니다. 8. 개인정보의 기술적·관리적 보호 대책 회사는 이용자들의 개인정보를 취급함에 있어 개인정보가 분실, 도난, 누출, 변조 또는 훼손되지 않도록 안전성 확보를 위하여 다음과 같은 기술적·관리적 대책을 강구하고 있습니다. 가. 비밀번호 암호화 회원 아이디(ID)의 비밀번호는 암호화되어 저장 및 관리되고 있어 본인만이 알고 있으며, 개인정보의 확인 및 변경도 비밀번호를 알고 있는 본인에 의해서만 가능합니다. 나. 해킹 등에 대비한 대책 회사는 해킹이나 컴퓨터 바이러스 등에 의해 이용자의 개인정보가 유출되거나 훼손되는 것을 막기 위해 외부로부터 접근이 통제된 구역에 시스템을 설치하고, 침입 차단장치 이용 및 침입탐지시스템을 설치하여 감시하고 있습니다. 그리고 백신 프로그램을 주기적으로 업데이트하며 갑작스런 바이러스가 출현할 경우 백신이 나오는 즉시 이를 적용함으로써 개인정보가 침해 방지를 위해 노력하고 있습니다. 다. 개인정보처리시스템 접근 제한 회사는 개인정보를 처리할 수 있도록 체계적으로 구성한 데이터베이스시스템에 대한 접근권한의 부여, 변경, 말소 등에 관한 기준을 수립하고 비밀번호의 생성 방법, 변경 주기 등을 규정 운영하며 기타 개인정보에 대한 접근통제를 위해 필요한 조치를 다하고 있습니다. 라. 개인정보 취급 직원의 교육 개인정보관련 취급 직원은 담당자에 한정시켜 최소화 하고 새로운 보안기술의 습득 및 개인정보보호 의무에 관해 정기적인 교육을 실시하며 별도의 비밀번호를 부여하여 접근 권한을 관리하는 등 관리적 대책을 시행하고 있습니다. 9. 개인정보관리책임자 및 담당자의 연락처 회사는 개인정보를 보호하고 개인정보와 관련한 불만을 처리하기 위하여 아래와 같이 개인정보관리책임자를 지정하고 있습니다. 이용자는 서비스를 이용하면서 발생하는 모든 개인정보보호 관련 민원을 개인정보관리책임자로 신고하실 수 있습니다. 회사는 이용자들의 신고사항에 대해 신속하게 충분한 답변을 드릴 것입니다. 개인정보 관리책임자 성명: 정진황 국장 소속: 디지털콘텐츠국 전화: 02-724-2427 이메일: jhchung@hankookilbo.com 개인정보 관리담당자 성명: 안경모 부장 소속: 디지털미디어부 전화: 02-724-2293 이메일: zuckbox@hankookilbo.com 기타 개인정보침해에 대한 신고나 상담이 필요하신 경우에는 아래 기관에 문의하시기 바랍니다. - 개인정보침해신고센터 ( www.118.or.kr / 국번없이 118) - 대검찰청 사이버범죄수사단 ( www.spo.go.kr / 02-3480-3571) - 경찰청 사이버테러대응센터 ( www.ctrc.go.kr / 국번없이 182) 10. 고지의 의무 현 개인정보취급방침 내용 추가, 삭제 및 수정이 있을 시에는 개정 최소 7일전부터 홈페이지의 공지사항을 통해 고지할 것입니다. - 공고일자 : 2014년 5월 8일 - 시행일자 : 2014년 5월 15일 이벤트/프로모션 등 정보 수신 동의 (선택) 이메일 SMS 뉴스레터 이용약관 및 개인정보 처리 방침은 필수 항목 입니다. 다음 약관 동의 필수 이용약관에 동의 하셔야 합니다. 확인 약관 동의 필수 개인정보처리 방침에 동의 하셔야 합니다. 확인 회원가입 아이디(이메일) 중복확인 사용 가능한 아이디 입니다. 비밀번호 비밀번호 확인 3~10자 영문 대소문자, 숫자 및 특수문자를 사용해주세요. 이름 필명 중복확인 댓글 작성 시 필명이 노출 됩니다. 사용 가능한 필명입니다. 확인 필명 중복확인 댓글 작성 시 필명이 노출됩니다. 사용 가능한 필명입니다. 확인 회원가입 완료 한국일보 회원가입이 완료 되었습니다. 확인 로그인 요청 로그인 한 후 이용 가능합니다. 로그인 하시겠습니까? 아니오 네 이메일로 기사 공유하기 보내는 기사 제주도, 대구ㆍ경북 여행 도민ㆍ관광객 관리 나선다 받으실 분 이메일 여러사람에게 보낼 경우 메일주소는 세미콜론(;)으로 구분해 주세요.(최대 5개) 보내는 분 이름 보내는 분의 이름을 입력해주세요. 이메일 올바른 이메일 형식이 아닙니다. 함께 보내는 메세지 메일 전송 전송 완료 기사가 메일로 전송 되었습니다. 확인 구독 취소 구독을 취소하시겠습니까? 아니오 네 중복 선택 불가 안내 이미 공감 표현을 선택하신 기사입니다. 변경을 원하시면 취소 후 다시 선택해주세요. 확인</t>
+  </si>
+  <si>
+    <t>‘우한 코로나’로 그 난리 겪고도 중국인 관광객 적극 유치하겠다는 제주도 - 인사이트 Insight 정치 경제 핫이슈 엔터 라이프 문화·스포츠 사람들 산업 헬스 증권·금융 16℃ 서울 13℃ 인천 15℃ 춘천 16℃ 강릉 15℃ 수원 15℃ 청주 16℃ 대전 16℃ 전주 17℃ 광주 17℃ 대구 17℃ 부산 16℃ 제주 '우한 코로나'로 그 난리 겪고도 중국인 관광객 적극 유치하겠다는 제주도 제주도가 지역 모든 사업장에 안내문을 중국어로 표기하게끔 지원해 주는 사업을 추진하고 있다. 한지혜 기자 입력 2020.03.15 17:19 글자크기 설정 가 가 가 가 가 공유 카카오톡 페이스북 트위터 카카오스토리 밴드 핀터레스트 URL 복사 메일 gettyimagesBank[인사이트] 한지혜 기자 = 중국 후베이성 우한에서 발생한 코로나19(우한 폐렴) 사태가 길어지고 있다.정부는 코로나 확산 방지를 위해 '사회적 거리두기' 캠페인을 벌이며 외부 활동을 줄이고 타인과의 접촉을 자제할 것을 독려 중이다.이 가운데 제주도가 소상공인 및 관광업종의 경제활력을 응원한다며 중국인 관광객 유치 사업을 시작했다.이를 두고 시민들 사이에서는 "'사회적 거리두기'를 비롯해 자국민들에게 외출 자제를 권유하는 상황에서 중국인들이 편하게 관광할 수 있는 지원책을 펼치는 게 맞는 건지 의문"이라는 의견이 모이고 있다.제주특별자치도 홈페이지지난 13일 제주 중국어체험학습관은 '2020 제주 소상공인 중국어 번역 지원 사업'을 추진한다고 밝혔다. 중국어체험학습관은 제주도가 운영하는 곳이다.올해 새롭게 시작하는 이 사업은 메뉴판, 매뉴얼, 안내문, 간판 등 중국인 관광객 응대에 필요한 내용을 맞춤형으로 번역해 제공하는 서비스다.중국인이 지역 내에서 관광하는데 불편함이 없도록 지원해 침체된 경제를 활성화시키겠다는 의도로 분석된다.중국어체험학습관은 신청을 원하는 모든 사업지에 안내문을 중국어로 표기할 수 있게끔 지원해 준다.기사와 관련 없는 자료 사진 / 사진=박찬하 기자 chanha@이번 사업은 12월까지 연중 운영된다. 도내에 사업지를 둔 소상공인 모두가 신청 대상이다.하지만 이런 지원 방침에 시민들은 "시의적절하지 못하다"라는 반응을 보이고 있다.한 시민은 "거리두기 캠페인으로 자국민은 집 안에 가두고 중국인은 편하게 누리라는 거냐"라며 "국민이 실내 생활로 갑갑함과 우울감을 호소하는 상태에서 보여줄 정책은 아닌 것 같다"라고 꼬집었다.또 다른 시민은 "현재 코로나19 사태로 고통 받는 자국민들을 위해 행정력을 집중해야 하는데 엉뚱한 곳에 세금과 인력을 낭비하고 있다"라고 비판했다. 기사와 관련 없는 자료 사진 / 사진=고대현 기자 daehyun@한편 코로나 사태로 인해 국민 대다수는 중국인 입국을 반기지 않고 있다.지난달 26일 쿠키뉴스에 따르면 코로나 예방을 위한 중국 입국금지와 관련된 여론조사에서 대한민국 국민 87%는 "중국 입국금지를 찬성한다"라고 답했다.특히 응답자의 58.3%는 "전면 금지를 해야 한다"라는 의견인 것으로 확인됐다. 한지혜 기자 · webmaster@insight.co.kr 베스트클릭 국제 아들 출근한 사이 차 깨끗이 닦아주고 싶어 '철 수세미'로 세차한 70대 노모 자동차 “아내가 엑셀·브레이크 또 헷갈려서...” 아이오닉6 전국 ‘1호 사고차’가 등장했다 스타 대학 축제서 관객석 ‘다이빙’ 했는데 모두 피해 ‘맨땅 헤딩’한 유명 래퍼 (영상) 스포츠 오늘(9일) 손흥민이 입고 나온 티셔츠 본 콘테 감독...벤치에서 눈물 터져 국제 “중국인은 2명이 모이면 벌레가 된다” 발언한 일본 예술가 민족 비하 논란 연예 “군대 알아서 갈테니까”...국감서 BTS 슈가 자작곡 가사 등장했다 스타 이게 현실에서 가능한 여자 몸매?...반응 터진 몸짱 인플루언서 실제사진 사회 BTS 병역특례 두고 공방...더민주 “국가적 손실” vs 국힘당 “나훈아도 갔다왔다” 국제 “앗 뜨거!” 손목에 차고 있던 애플워치 ‘펑’ 폭발...애플, 누설 말라 강요 스포츠 ‘피겨 프린스’ 차준환, 드디어 세계 정상 우뚝 섰다...“20점차 이상 압도적 스코어” 국제 노출의상 입은 댄서들 공연 후 요양원서 벌어진 충격 상황...“할머니 한 명은 심장마비로 쓰러져” 방송·드라마 엄지원에 살해당했던 추자현, 살아있었다...‘작은 아씨들’ 충격 엔딩 사회 확 달라진 군 교육자료...文 정부가 삭제한 ‘문구’, 다시 추가됐습니다 문화·예술 22년 동안 ‘평일’이었던 한글날, 역시 ‘이 대통령’ 때 빨간날 됐다 사회 2500만원이면 가는 인도 출장, 김정숙 여사 때문에 국민혈세 ‘3억’ 더 썼다 회사소개 이용약관 개인정보 취급방침 윤리강령 독자의견 고충처리인 청소년 보호정책(책임자:김희진) 사업 제휴 문의 광고 안내 문의 서울특별시 강남구 논현로99길 23, 인사이트빌딩 (주)인사이트컴퍼니 | 사업자번호: 119-86-62226 | 02-6734-2207 | 등록번호: 서울 아 02953 | 등록일자: 2014.01.02 | 발행・편집인: 안길수 | 편집국장: 이유리 인사이트의 모든 콘텐츠(기사·사진)는 저작권법의 보호를 받은 바, 무단 전재, 복사, 배포 등을 금합니다. 이를 어길 시 법적 제재를 받을 수 있습니다. Copyright ⓒ 인사이트, Ltd. All Rights Reserved. Insight 정치 정치일반 사회 청와대 국회·정당 전국 경제 생활경제 소비자 정책 외환 부동산 핫이슈 이슈 과학 국제 환경 사건사고 스토리 동물 엔터 연예 방송·드라마 영화 비디오 스타 라이프 라이프 패션 여행 음식·맛집 쇼핑 연애 건강 문화·스포츠 문화·예술 코믹 책·서평 스포츠 공연·전시 게임 사람들 사람들 인사 동정 부음 산업 기업 CEO IT·전자 자동차 모바일·통신 항공·물류 중기·벤처 헬스 제약 의료 뷰티 증권·금융 증시 금융 보험·카드 베스트클릭 아들 출근한 사이 차 깨끗이 닦아주고 싶어 '철 수세미'로 세차한 70대 노모 “아내가 엑셀·브레이크 또 헷갈려서...” 아이오닉6 전국 ‘1호 사고차’가 등장했다 대학 축제서 관객석 ‘다이빙’ 했는데 모두 피해 ‘맨땅 헤딩’한 유명 래퍼 (영상) 오늘(9일) 손흥민이 입고 나온 티셔츠 본 콘테 감독...벤치에서 눈물 터져 “중국인은 2명이 모이면 벌레가 된다” 발언한 일본 예술가 민족 비하 논란 회사소개 이용약관 개인정보 취급방침 윤리강령 독자의견 고충처리인 청소년 보호정책(책임자:김희진) 사업 제휴 문의 광고 안내 문의 Copyright ⓒ 인사이트, Ltd. All Rights Reserved.</t>
+  </si>
+  <si>
+    <t>미디어제주 × 전체기사 뉴스 전체 정치 경제 사회 문화 교육 스포츠 사람들 포토뉴스 Advertorial section 기획특집 전체 생생스포츠현장 박물관, 그리고 제주 이야기 이사람 이주민, 그들을 말한다 다 함께 사는 세상 해외 특파원 보고 교육! 학교 현장 기획특집 미디어누리 전체 어린이기자 시민기자 청소년기자 오피니언 전체 미디어窓 미디어칼럼 건강칼럼 기고 미디어TV 전체 영상뉴스 UCC동영상콘테스트 유치부축구대회 시정가이드 전체 제주시 서귀포시 최종편집 2022-10-11 14:45 (화) 로그인 회원가입 모바일웹 전체 뉴스 전체기사 정치 경제 사회 문화 교육 스포츠 사람들 포토뉴스 Advertorial section 기획특집 박물관, 그리고 제주 이야기 이사람 다 함께 사는 세상 해외 특파원 보고 교육! 학교 현장 미디어누리 어린이기자 시민기자 기사쓰기 오피니언 미디어窓 미디어칼럼 건강칼럼 기고 행사 유치부 축구대회 아름다운 동행 기사검색 검색 S2N2 이전 다음 롯데관광개발, 3년간 제주도내 교육사업에 37억 투입 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 뉴스 경제 롯데관광개발, 3년간 제주도내 교육사업에 37억 투입 김형훈 기자 승인 2020.03.10 14:05 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 도내 5개 대학 ‘맞춤형 학위 과정’ 신설도 협의 어린이 독서 교육 위해 3만권 책 기증도 추진 [미디어제주 김형훈 기자] 롯데관광개발이 제주 도내 인재양성을 위해 각종 교육사업에 투자하겠다는 구체적인 방안을 10일 밝혔다. 롯데관광개발은 앞으로 3년간 37억원을 교육사업에 투자할 예정이다. 아울러 15억원의 장학금과 함께 제주의 어린이 독서교육을 위해 3만권의 책을 기증할 예정이다. 롯데관광개발은 우선 제주 드림타워 복합리조트 인근 13개 초·중·고교 재학생 300명에게 3년간 9억원을 장학금으로 지급하기로 했다. 이와 함께 제주 대학생(도외 포함) 240명에게는 3년간 6억원의 장학금이 주어진다. 또한 롯데관광개발은 맞춤형 인재양성을 위해 제주 도내 5개 대학에 계약학과를 신설하는 방안을 협의하기로 하고 3년간 7억5000만원을 투자하기로 했다. 계약학과는 기업의 수요를 충족하기 위해 운영하는 맞춤형 학위 과정으로 입학과 동시에 취업이 최대한 보장되는 것이 큰 장점이다. 롯데관광개발은 이미 산학협력 협약을 맺은 대학 및 특성화고의 인턴십 지원은 물론 관광전문인력 양성 등 각종 교육프로그램을 위해서도 6억9000만원을 지원할 예정이다. 롯데관광개발 김진희 인사총괄 상무는 “제주 드림타워 복합리조트의 3100명 고급 일자리 중 80% 이상을 제주 도민으로 우선 채용하기 위해서라도 중장기 차원의 인재양성 프로그램이 꼭 필요하다”고 밝혔다. 이와 관련 롯데관광개발은 어린 시절 좋은 책읽기 습관이 개인과 사회의 미래를 결정한다는 인식 하에 사회공헌활동의 일환으로 어린이 독서교육을 위한 ‘(가칭) 씨앗문고’ 캠페인을 시작하기로 했다. 롯데관광개발은 민간독서모임과 협력해 도내 전체 초등학교와 희망 교사를 대상으로 마을책방에서 쓸 수 있는 바우처(교환권)를 지급하고 취약계층 어린이들을 위해서도 제주 지역아동센터 등에 필요한 책을 보급할 계획이다. 롯데관광개발은 단순히 책 보급에만 그치지 않고 교사와 부모들이 어린이들이 좋은 책을 즐겁게 읽을 수 있도록 이끌어주기 위해 독서교육 연수프로그램을 실시하는 등 각종 지원방안도 마련할 예정이다. 롯데관광개발 김기병 회장은 “미래세대를 위해 교육만큼 좋은 투자가 없다”면서 “일자리 일등, 세금 일등인 일등 향토기업이 되기 위해 제주 인재양성에 혼신의 노력을 다하겠다”고 밝혔다. 저작권자 © 미디어제주 무단전재 및 재배포 금지 김형훈 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 댓글입력 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 실시간 댓글 동굴 몇개 살리자구 하수처리장 이전하면 그돈은 니그들이 낼거냐 일본 후쿠시마 원전페수 방수하는데가서 아주 죽 욱 살면서 대모혀라 실제 월정리 주민들은 그간 동굴과 하수처리장 문제로 골머리를 앓고 있어 새로운 동굴이 발견되면 보호구역 확대에 의한 토지 수용이나 제한으로 재산상 손해가 생길까봐 동굴이 없는게 오히려 좋겠다는 분들도 계십니다. 월정리가 동굴마을로 지정되어 제한만 할께 아니라 하수처리장 철거로 완전한 동굴보호 마을의 역할을 하게해서 마을에 실질적 도움이 될 수 있는 조처도 취해져야 합니다 오늘 강순석 제주지질연구소장님의 새로운 본류 동굴 존재 할 수 있다는 기자회견은 다년간 지질연구하시면서 현장에서 느끼는 전문가의 촉이 있으신것 같습니다. 제주의회 정밀탐사 촉구도 있었으니 하수처리장 존재에 영향을 받지 않을 학술적 가치에 중점인 정밀 지질 탐사가 다시 이루어지기를 기대해 봅니다. 2009년 이후 탐사기법도 더욱 발전 했으니 더 정밀한 탐사가 가능할 것 입니다. 월정리는 만장굴. 사굴과도 마을 경계상에 위치해 있고 그 밑으로 용천굴. 당처물 동굴. 남지미 동굴이 계속 발견되었는데 올 6월에는 제주 의회에서도 정밀 탐사가 필요하다는 의견이 있었습니다만 구체적 탐사 움직임은 보이지 않는것 같습니다 2007년 탐사 ~2009년 보고서는 매우 과학적 동굴탐사인 지표투과 레이더 탐사도 했다지만 그 당시 현장을 지켜본 마을분 증언에 의하면 하수처리장 근처로는 탐사를 회피하는 듯 했다고도 합니다. 지금까지 과정을 보면 보호구역도 하수처리장 경계로 갑자기 2구역에서 4구역으로 완화되게 설정되어 있습니다. 문제의 하수처리장 보호를 위해 안간힘을 써 온것 같은데 하수처리장 철거가 되어야 동굴 탐사도 객관적으로 학술적으로 실제적으로 가능한게 아닌가 의구심을 가져 봅니다 가장 많이 읽은 기사 1제주시, 청년월세 월 20만원씩 최대 12개월 지원 2일상의 배려, 성숙된 시민의식 빛낸다. 3서귀포시, 올해 교통유발부담금 21억 원 부과 4‘2022 Trans Jeju 국제 트레일러닝대회’ 성황리에 폐막 5&lt;정정보도&gt; 해수부 규정 어긴 영상 공모전 입상 의혹, 사실 아닌 것으로 확인 6코로나19 이후 큰 폭 증가 제주 실업자수, 점차 회복세 7최고가 다투는 제주 휘발유 값, 제주도 2차 민간조사 돌입 SPONSORED 신문사소개 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 중앙로 270-1 5층(이도이동, 백두빌딩) 대표전화 : 064-725-3456 팩스 : 064-725-3458 명칭 : (주) 미디어제주 제호 : 미디어제주 등록번호 : 제주 아 01003 등록일 : 2005-10-17 발행인 : 고승영 편집인 : 고승영 청소년보호책임자 : 고승영 미디어제주 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 미디어제주. All rights reserved. mail to mediajeju@mediajeju.com 위로</t>
+  </si>
+  <si>
+    <t>코로나19로 '무사증' 중단…제주도 중국인 관광객 97.3%↓ - 파이낸셜뉴스 메뉴 펼치기 기사 검색 검색 취소 검색 파이낸셜뉴스닫기 검색 경제 정치 사회 IT 국제 라이프 기자ON 사설 칼럼 fnSURVEY 구독신청 광고/제휴문의 네이버 MY뉴스 설정 부산파이낸셜뉴스 블록포스트 가이드포스트 fn아이포커스 파이낸셜뉴스재팬 fnMICE fn이노에듀 fn투어 파이낸셜뉴스 사회 이벤트메뉴 경제 금융 증권 부동산 산업 경제 일반 정치 청와대 국회·정당 북한 외교·국방 사회 사건·사고 검찰·법원 행정·지자체 교육 IT 통신·방송 게임 인터넷 블록체인 의학·과학 국제 국제경제 국제정치 국제사회 라이프 생활경제 연예 스포츠 푸드·리빙 레저·문화 Special 기자ON 파인애플 fnSurvey 검색 경제 금융 증권 부동산 산업 경제 일반 정치 청와대 국회·정당 북한 외교·국방 사회 사건·사고 검찰·법원 행정·지자체 교육 IT 통신·방송 게임 인터넷 블록체인 의학·과학 국제 국제경제 국제정치 국제사회 라이프 생활경제 연예 스포츠 푸드·리빙 레저·문화 Special 기자ON 파인애플 fnSurvey fn특별기획 검색 사회 &gt; 코로나19로 '무사증' 중단…제주도 중국인 관광객 97.3%↓ 파이낸셜뉴스입력 2020.03.04 12:31수정 2020.03.04 12:33 페이스북 공유하기 트위터 공유하기 블로그 공유하기 카카오톡 공유하기 파인애플 페이지 URL 복사하기 인쇄 글자 작게 글자 크게 페이스북 공유하기 트위터 공유하기 블로그 공유하기 카카오톡 공유하기 파인애플 페이지 URL 복사하기 2월4∼3월3일 한달간 1922명 입도…발길 ‘뚝’ 제주시 연동 번화가인 '누웨모루'거리(옛 바오젠거리). 한한령 이전, 중국 단체 관광객들이 즐겨 찾던 곳이다. /사진=fnDB [제주=좌승훈 기자] 코로나19 확산을 막기 위해 무사증(노비자) 입국제도가 일시 중단된 이후 제주도를 찾는 중국인 관광객의 발길이 사실상 끊긴 것으로 나타났다. 정부는 지난달 4일 0시를 기해 무사증 입국제도를 일시 중단했다. 이는 지난 2002년 제도 도입 이후 18년 만이다. 제주도에 따르면, 무사증 제도가 중단된 지난달 4일부터 3일까지 한 달 동안 제주를 찾은 외국인 관광객은 지난해 같은 기간 11만6216명에 비해 82% 감소한 2만926명으로 집계됐다. 특히 외국인 관광객 중 가장 큰 비중을 차지하고 있는 중국인 관광객은 1922명에 불과했다. 이는 지난해 같은 기간의 7만118명에 비해 무려 97.3%가 감소했다. 무사증 입국제도는 ‘제주특별자치도 설치 및 국제자유도시 조성을 위한 특별법’에 따라 법무부장관이 정해 고시하는 국가의 국민을 제외한 외국인이 관광 또는 방문 목적 등으로 입국하고자 하는 경우 30일에 한해 사증 없이 입국이 가능하도록 하는 제도다. 무사증 입국제도는 그동안 제주 지역산업인 관광산업을 활성화 하는데 큰 기여를 했다는 평가를 얻어왔다. 하지만 제주도는 코로나19 발생 이후 도민 안전과 ‘청정’ 제주를 유지하기 위해 지난 1월29일 정부에 일시 중단을 요구했다. 무사증 입국제도는 코로나19 확산 사태가 계속되면서 재개 시기는 불투명한 상태다. jpen21@fnnews.com 좌승훈 기자 ※ 저작권자 ⓒ 파이낸셜뉴스, 무단전재-재배포 금지 fn 회사소개 광고/제휴문의 개인정보취급방침 저작권규약 이메일주소무단수집거부 구독신청 고충처리 rss 사이트맵 주소: 서울 서초구 강남대로 315 Tel. 02-2003-7114 인터넷신문 등록번호: 서울 아04510 등록일자: 2017.05.08 회장: 전재호 부회장·발행인: 전선익 사장·인쇄인·편집인: 변동식 편집국장: 양형욱 청소년보호정책(책임자:이대율) Copyright ⓒ파이낸셜뉴스. All rights reserved. 회사소개 지면보기 사이트맵 Copyright ⓒ파이낸셜뉴스. All rights reserved.</t>
+  </si>
+  <si>
+    <t>제주도, 코로나19 위기극복 관광·건설경기 부양 ‘잰걸음’ - 파이낸셜뉴스 메뉴 펼치기 기사 검색 검색 취소 검색 파이낸셜뉴스닫기 검색 경제 정치 사회 IT 국제 라이프 기자ON 사설 칼럼 fnSURVEY 구독신청 광고/제휴문의 네이버 MY뉴스 설정 부산파이낸셜뉴스 블록포스트 가이드포스트 fn아이포커스 파이낸셜뉴스재팬 fnMICE fn이노에듀 fn투어 파이낸셜뉴스 사회 이벤트메뉴 경제 금융 증권 부동산 산업 경제 일반 정치 청와대 국회·정당 북한 외교·국방 사회 사건·사고 검찰·법원 행정·지자체 교육 IT 통신·방송 게임 인터넷 블록체인 의학·과학 국제 국제경제 국제정치 국제사회 라이프 생활경제 연예 스포츠 푸드·리빙 레저·문화 Special 기자ON 파인애플 fnSurvey 검색 경제 금융 증권 부동산 산업 경제 일반 정치 청와대 국회·정당 북한 외교·국방 사회 사건·사고 검찰·법원 행정·지자체 교육 IT 통신·방송 게임 인터넷 블록체인 의학·과학 국제 국제경제 국제정치 국제사회 라이프 생활경제 연예 스포츠 푸드·리빙 레저·문화 Special 기자ON 파인애플 fnSurvey fn특별기획 검색 사회 &gt; 제주도, 코로나19 위기극복 관광·건설경기 부양 ‘잰걸음’ 파이낸셜뉴스입력 2020.03.07 18:03수정 2020.03.07 18:03 페이스북 공유하기 트위터 공유하기 블로그 공유하기 카카오톡 공유하기 파인애플 페이지 URL 복사하기 인쇄 글자 작게 글자 크게 페이스북 공유하기 트위터 공유하기 블로그 공유하기 카카오톡 공유하기 파인애플 페이지 URL 복사하기 경영난 렌터카·전세버스 차량구입 할부금 유예, 정부에 건의농업용수 광역화 조기 심의·공항 입주업체 임대료 인하 촉구 제주도청 전경 /사진=fnDB [제주=좌승훈 기자] 제주도는 7일 코로나19(신종 코로나바이러스 감염증) 위기 극복을 위해 제도 개선 과제 19건을 발굴해 정부에 건의하고, 일부는 긍정적인 답변을 받았다고 밝혔다. 앞서 도는 지난달 26일 관광객 감소로 경영난을 겪고 있는 운수여행업계가 대해 차량 구입 할부금을 유예 받을 수 있도록 정부에 지원을 요청했다. 이는 최근 도내 렌터카 예약 취소율이 90%에 이르고, 전세버스 가동률도 5% 이하로 떨어져 휴·폐업 업체가 잇달아 발생하고 있는 데 따른 조치다. 도는 이에 따라 캐피탈업계가 대출할부금을 6개월간 유예할 수 있도록 금융감독원에 지원을 요청했다. 금융감독원도 한국여신전문금융협회를 통해 회원사에 할부금 납부유예를 요청하는 협조 공문을 발송토록 조치했다. 제주지역 농업용수 통합 광역화 사업도 빠르면 6월 착공이 가능할 것으로 전망된다. 도는 일자리 창출과 건설경기 활성화를 위해 농업용수 통합 광역화 사업 조기 시행 건의했고, 기획재정부가 이를 수용한 것이다. 기획재정부는 '국가재정법'에 따라 총사업비에 대한 심의를 5월 중 진행할 계획이었지만, 도의 건의로 3월 중 총사업비 확정 심의를 개최하기로 했다. 도는 총사업비가 확정되는 대로 오는 4월에 사업시행계획 승인과 조달청 발주를 추진해 6월 중 착공할 계획이다. 도는 농업용수 통합 광역화사업을 통해 ▷관정 58개 ▷용천수 6곳 ▷대용량저수조 54개 ▷관로 470km를 개발하고, 용수관리 자동화 시스템도 구축한다. 총사업비는 1375억원이다. 코로나19 사태로 관광객이 크게 줄어들면서 경영난을 겪고 있는 제주국제공항 상업시설 입주업체에 대해 임대료를 30~40% 감면해줄 것도 건의했다. 이에 대해 기획재정부는 제주도의 건의사항을 국토교통부에 전달했고, 국토교통부는 관계기관과의 협의해 검토하겠다는 입장을 제주도에 알려왔다. 지난해 말을 기준으로 제주국제공항 상업시설 입주업체는 72곳이며, 3247명이 근무하고 있다. 한편 국토교통부는 2017년 사드(THAAD·고고도미사일방어체제) 배치에 따른 한·중 갈등으로 중국인 단체관광객이 크게 떨어지자 당시 임대료를 30% 감면한 바 있다. jpen21@fnnews.com 좌승훈 기자 ※ 저작권자 ⓒ 파이낸셜뉴스, 무단전재-재배포 금지 fn 회사소개 광고/제휴문의 개인정보취급방침 저작권규약 이메일주소무단수집거부 구독신청 고충처리 rss 사이트맵 주소: 서울 서초구 강남대로 315 Tel. 02-2003-7114 인터넷신문 등록번호: 서울 아04510 등록일자: 2017.05.08 회장: 전재호 부회장·발행인: 전선익 사장·인쇄인·편집인: 변동식 편집국장: 양형욱 청소년보호정책(책임자:이대율) Copyright ⓒ파이낸셜뉴스. All rights reserved. 회사소개 지면보기 사이트맵 Copyright ⓒ파이낸셜뉴스. All rights reserved.</t>
+  </si>
+  <si>
+    <t>제주도 관광사업체, 매주 금요일 코로나19 일제 방역 실시  - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 14:46 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도 관광사업체, 매주 금요일 코로나19 일제 방역 실시 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 경제 제주도 관광사업체, 매주 금요일 코로나19 일제 방역 실시 원성심 기자 headlinejeju@headlinejeju.co.kr 승인 2020.03.15 14:44 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주특별자치도가 지역 내 코로나19 감염 확산 차단을 위해 매주 금요일을 '일제 방역소독의 날'로 지정한데 따라 지난 13일 도내 관광사업체에서 일제 방역이 실시됐다. 제주도는 제주관광공사와 제주도관광협회, 컨벤션뷰로 합동으로 호텔업, 관광음식점, 유원시설 등 다중이용시설 관광사업체 138개소에 대해 사업체와 함께 방역을 실시했다. 이날 방역에서는 손소독제 비치 및 종사자 마스크 착용 여부, 화장실 비누비치, 예방포스터 부착 여부 등 위생관리 상황도 함께 점검도 함께 이뤄졌다. 호텔업 및 관광식당업은 매일 또는 주 1~3회 이상 고강도 방역으로 사업장별 코로나19 확산 예방에 나서고 있다. &lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 원성심 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 제주 병설유치원 매운급식 논란..."아이들이 밥을 못 먹어" 제주, 택배 추가배송비 부당 요구사례 접수 창구 운영 제주, 전국에서 가장 비싼 기름값 문제 대응 시장조사 나선다 제주도 실업급여 수급자↓...고용상황 회복세 전환 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 3 서귀포시, 2022년 교통유발부담금 21억원 부과 4 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 5 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 6 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 7 세상을 웃게 만드는 친절 8 제주시, 하반기 사무관 승진의결자 6명 승진 임용 9 서귀포시, 사무관 승진의결자 8명 승진임용 10 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 1 안녕하세요 2 네 3 네 4 지난 회차 이후 오랜만에 글 올려주셔서 너무 반가운 마음에 푹 빠져들어 읽었습니다. 오늘도 공감가는 좋은 글 올려주셔서 감사합니다. 따뜻한 마음의 양식 얻어갑니다. 저만 알고싶은 글 맛집이네요.^^. 5 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 6 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 7 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 8 지역발전의 초석이 되었으면 한다 9 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 10 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>미디어제주 × 전체기사 뉴스 전체 정치 경제 사회 문화 교육 스포츠 사람들 포토뉴스 Advertorial section 기획특집 전체 생생스포츠현장 박물관, 그리고 제주 이야기 이사람 이주민, 그들을 말한다 다 함께 사는 세상 해외 특파원 보고 교육! 학교 현장 기획특집 미디어누리 전체 어린이기자 시민기자 청소년기자 오피니언 전체 미디어窓 미디어칼럼 건강칼럼 기고 미디어TV 전체 영상뉴스 UCC동영상콘테스트 유치부축구대회 시정가이드 전체 제주시 서귀포시 최종편집 2022-10-11 14:45 (화) 로그인 회원가입 모바일웹 전체 뉴스 전체기사 정치 경제 사회 문화 교육 스포츠 사람들 포토뉴스 Advertorial section 기획특집 박물관, 그리고 제주 이야기 이사람 다 함께 사는 세상 해외 특파원 보고 교육! 학교 현장 미디어누리 어린이기자 시민기자 기사쓰기 오피니언 미디어窓 미디어칼럼 건강칼럼 기고 행사 유치부 축구대회 아름다운 동행 기사검색 검색 S2N2 이전 다음 제주도관광협회, 1·2월 ‘베스트 관광인’ 선정 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 뉴스 경제 제주도관광협회, 1·2월 ‘베스트 관광인’ 선정 김형훈 기자 승인 2020.03.16 14:26 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 제주특별자치도관광협회(회장 부동석)가 지난 12일 올해 1월과 2월의 ‘베스트 관광인’을 선정하고, 선정패를 전달했다. 1월의 베스트 관광인은 탐라승마장 강정열 팀장이다. 그는 항상 밝고 긍정적인 마인드로 관광객을 맞이하고 승마체험을 통해 관광객들에게 좋은 추억과 인상을 심어줄 수 있도록 노력했다. 2월 베스트 관광인으로 선정된 하나C&amp;C 이봉민 실장이다. 그는 은 제주관광과 관련된 디자인 및 출판물제작 업무를 책임지고 있으며 제주관광의 이미지 향상에 노력한 점이 인정을 받았다. 저작권자 © 미디어제주 무단전재 및 재배포 금지 김형훈 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 댓글입력 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 실시간 댓글 동굴 몇개 살리자구 하수처리장 이전하면 그돈은 니그들이 낼거냐 일본 후쿠시마 원전페수 방수하는데가서 아주 죽 욱 살면서 대모혀라 실제 월정리 주민들은 그간 동굴과 하수처리장 문제로 골머리를 앓고 있어 새로운 동굴이 발견되면 보호구역 확대에 의한 토지 수용이나 제한으로 재산상 손해가 생길까봐 동굴이 없는게 오히려 좋겠다는 분들도 계십니다. 월정리가 동굴마을로 지정되어 제한만 할께 아니라 하수처리장 철거로 완전한 동굴보호 마을의 역할을 하게해서 마을에 실질적 도움이 될 수 있는 조처도 취해져야 합니다 오늘 강순석 제주지질연구소장님의 새로운 본류 동굴 존재 할 수 있다는 기자회견은 다년간 지질연구하시면서 현장에서 느끼는 전문가의 촉이 있으신것 같습니다. 제주의회 정밀탐사 촉구도 있었으니 하수처리장 존재에 영향을 받지 않을 학술적 가치에 중점인 정밀 지질 탐사가 다시 이루어지기를 기대해 봅니다. 2009년 이후 탐사기법도 더욱 발전 했으니 더 정밀한 탐사가 가능할 것 입니다. 월정리는 만장굴. 사굴과도 마을 경계상에 위치해 있고 그 밑으로 용천굴. 당처물 동굴. 남지미 동굴이 계속 발견되었는데 올 6월에는 제주 의회에서도 정밀 탐사가 필요하다는 의견이 있었습니다만 구체적 탐사 움직임은 보이지 않는것 같습니다 2007년 탐사 ~2009년 보고서는 매우 과학적 동굴탐사인 지표투과 레이더 탐사도 했다지만 그 당시 현장을 지켜본 마을분 증언에 의하면 하수처리장 근처로는 탐사를 회피하는 듯 했다고도 합니다. 지금까지 과정을 보면 보호구역도 하수처리장 경계로 갑자기 2구역에서 4구역으로 완화되게 설정되어 있습니다. 문제의 하수처리장 보호를 위해 안간힘을 써 온것 같은데 하수처리장 철거가 되어야 동굴 탐사도 객관적으로 학술적으로 실제적으로 가능한게 아닌가 의구심을 가져 봅니다 가장 많이 읽은 기사 1제주시, 청년월세 월 20만원씩 최대 12개월 지원 2일상의 배려, 성숙된 시민의식 빛낸다. 3서귀포시, 올해 교통유발부담금 21억 원 부과 4‘2022 Trans Jeju 국제 트레일러닝대회’ 성황리에 폐막 5&lt;정정보도&gt; 해수부 규정 어긴 영상 공모전 입상 의혹, 사실 아닌 것으로 확인 6코로나19 이후 큰 폭 증가 제주 실업자수, 점차 회복세 7최고가 다투는 제주 휘발유 값, 제주도 2차 민간조사 돌입 SPONSORED 신문사소개 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 중앙로 270-1 5층(이도이동, 백두빌딩) 대표전화 : 064-725-3456 팩스 : 064-725-3458 명칭 : (주) 미디어제주 제호 : 미디어제주 등록번호 : 제주 아 01003 등록일 : 2005-10-17 발행인 : 고승영 편집인 : 고승영 청소년보호책임자 : 고승영 미디어제주 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 미디어제주. All rights reserved. mail to mediajeju@mediajeju.com 위로</t>
+  </si>
+  <si>
+    <t>제주도관광협회 1·2월 베스트 관광인 시상 &lt; 동네방네 &lt; 일과 사람들 &lt; 기사본문 - 제민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 로그인 회원가입 구독신청 한국어 영어 중국어 일본어 베트남어 스페인어 러시아어 일과 사람들 최종편집 2022-10-11 (화) 14:38 facebook twitter instagram youtube 기사검색 검색 제민방송 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 뉴스 정치 경제 사회/복지 교육 스포츠/레져 기획 진행 연재 지난 연재 오피니언 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 문화뉴스 공연/전시 출판/문학 방송/영화 Life/건강 WEEK&amp;팡 종교 연예 일과 사람들 동네방네 인사 화촉 부음 WeLove 진행 프로젝트 지난 프로젝트 해녀 특별기획 4∙3 4·3뉴스 4·3은 말한다 4·3기획 WEEK&amp;팡 진행연재 지난연재 コリアニユ-ス 동네방네 인사 화촉 부음 본문영역 이전 기사보기 다음 기사보기 제주도관광협회 1·2월 베스트 관광인 시상 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 일과 사람들 동네방네 제주도관광협회 1·2월 베스트 관광인 시상 기자명 고 미 기자 입력 2020.03.15 14:51 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 탐라승마장 팀장 강정열(사진 왼쪽)과 이봉민 하나 C&amp;C실장강정열 탐라승마장 팀장·이봉민 하나C&amp;C 실장제주특별자치도관광협회(회장 부동석)의 1·2월 베스트 관광인에 강정열 탐라승마장 팀장과 이봉민 하나C&amp;C 실장이 각각 선정됐다. 강 팀장은 밝은 미소와 긍정적인 마인드로 이용객 만족도 극대화에 노력하며 동종 업계의 모범이 됐다. 이 실장은 관광 관련 디자인과 출판물 제작에 힘쓰며 관련 공모전에서 입상하는 등 제주 관광 이미지 제고에 노력한 점을 인정받았다. 도관광협회는 이들 베스트 관광인들에게 선정패와 친절 키움 꽃 화분을 전달했다. 고 미 기자 popmee@hanmail.net 다른기사 보기 저작권자 © 제민일보 무단전재 및 재배포 금지 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 최신뉴스 제주대병원 권역정신응급의료센터 개소 [본사내방] 2022년 10월 11일 한경농협, 취약계층 주택용 소방시설 기증 제주, 서울대 지역균형전형 비율 2.4%...전국 최하위 제주타요렌터카, 매월 국·내외 아동에 정기 후원 포토뉴스 [포토뉴스] 은색 물드는 새별오름 [포토뉴스] 오늘은 犬이 주인공 [사진뉴스] "우리의 소중한 유산 무형문화재 함께 즐겨요" [포토뉴스] 추석 분위가 나는 제주시오일장 인기뉴스 1 오늘의운세 10월11일(음력9월16일) 2 제61회 탐라문화제 9일 일부 일정 10일로 연기 3 제103회 전국체전 4일차...메달 레이스 이어가 4 [제민포럼] 테슬라와 한라산소주 5 일본시장 활짝 제주관광 기대감속 우려도 6 1600여명 발 구름에 서귀포 가을 들썩 희망 의지 불끈 7 제주시 수중·핀수영협회 소속 8명 수상구조사 '합격' 8 장 발장 이야기 하단영역 하단메뉴 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 RSS 매체정보 발행·편집인 : 양치석 청소년보호책임자 : 김태음 제주특별자치도 제주시 평화로 2700 제민일보사 등록번호 : 제주특별자치도 아01133 등록일 : 2021-09-06 대표전화 : (064) 741-3111 팩스 : (064) 741-3117 기사제보 : (064) 741-3220 광고문의 : (064) 741-3121 제민일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제민일보. All rights reserved. mail to edijemin@chol.com 위로 전체메뉴 전체기사 제민방송 전체 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 정치 전체 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 경제 전체 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 사회 전체 사회종합 사건/사고 환경 해양 노동 복지 도민기자 마당 청소년기자 마당 날씨 교육 전체 교육종합 대학가 입시정보 우리학교소식 청소년/어린이 스포츠/레져 전체 스포츠종합 축구 야구 농구/배구 골프 경마 평화마라톤 백록기 제민기 기획 전체 진행 연재 지난 연재 오피니언 전체 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 전체 문화뉴스 공연/전시 출판/문학 방송/영화 연예 Life/건강 WEEK&amp;팡 종교 책 읽어주는 남자 강혜명의 제주아리아 일과 사람들 전체 동네방네 인사 화촉 부음 WeLove 전체 진행 프로젝트 지난 프로젝트 해녀 전체 특별기획 4∙3 전체 4·3뉴스 4·3은 말한다 4·3기획 제주4·3 이제는 기록유산으로 コリアニユ-ス 핫뉴스 전체 무공침 제민포커스 와이드 진단 해설 제민현장 지역뉴스 전체 종합 제주시 서귀포시 읍면동 농사정보 WEEK&amp;팡 전체 진행연재 지난연재 News Archive 전체 신년∙창간특집호 Voice 만화/만평 오늘의 운세 기타 독자게시판 제민일보 안내 전체 알림/사고 올해의 제주인 독자위원회의/윤리교육 주요 사업 코로나19 [6·1 지방선거] 안테나 전체 제주도지사 제주도교육감 도의원(제주시) 도의원(서귀포시) 교육의원 제주시을 국회의원 보궐선거 [2022 6·1지방선거] 우리동네 현안 해결사는 [2022 6·1지방선거] 파워인터뷰 [6·1 지방선거 및 보궐선거] 후보 주요 일정 제민일보 소개 회장인사말 비전 연혁 사업 출판 찾아오시는길 PDF 보기 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>장애물 없는 관광환경 조성...제주도 리프트차량 지원사업 추진 &lt; 정치 &lt; 기사본문 - 제민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 로그인 회원가입 구독신청 한국어 영어 중국어 일본어 베트남어 스페인어 러시아어 정치 최종편집 2022-10-11 (화) 14:38 facebook twitter instagram youtube 기사검색 검색 제민방송 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 뉴스 정치 경제 사회/복지 교육 스포츠/레져 기획 진행 연재 지난 연재 오피니언 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 문화뉴스 공연/전시 출판/문학 방송/영화 Life/건강 WEEK&amp;팡 종교 연예 일과 사람들 동네방네 인사 화촉 부음 WeLove 진행 프로젝트 지난 프로젝트 해녀 특별기획 4∙3 4·3뉴스 4·3은 말한다 4·3기획 WEEK&amp;팡 진행연재 지난연재 コリアニユ-ス 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 본문영역 이전 기사보기 다음 기사보기 장애물 없는 관광환경 조성...제주도 리프트차량 지원사업 추진 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 정치 장애물 없는 관광환경 조성...제주도 리프트차량 지원사업 추진 기자명 이은지 기자 입력 2020.03.15 13:49 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 27일까지 전세버스 업자 대상 모집…최대 2억원 지원 제주도가 장애물 없는 관광환경 조성을 위해 '관광약자 전용 리프트차량 지원사업'을 추진한다. 제주도는 오는 27일까지 관광약자 전용 리프트차량 지원사업을 홈페이지에 공고하고 사업에 참여할 전세버스 업체를 공모한다고 15일 밝혔다. 올해에는 기존 3대 지원 규모에서 1대를 추가, 모두 4대를 지원할 계획이다. 선정업체는 2억원 범위 내에서 리프트차량 도입비용의 90%를 지원받을 수 있다. 참여를 희망하는 업체는 오는 27일까지 공고문에 첨부된 신청 서식의 사업계획서, 재무제표 등 구비서류를 갖춰 제주도 관광정책과로 제출하면 된다. 이은지 기자 이은지 기자 ez1707@daum.net 다른기사 보기 저작권자 © 제민일보 무단전재 및 재배포 금지 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 최신뉴스 제주대병원 권역정신응급의료센터 개소 [본사내방] 2022년 10월 11일 한경농협, 취약계층 주택용 소방시설 기증 제주, 서울대 지역균형전형 비율 2.4%...전국 최하위 제주타요렌터카, 매월 국·내외 아동에 정기 후원 포토뉴스 [포토뉴스] 은색 물드는 새별오름 [포토뉴스] 오늘은 犬이 주인공 [사진뉴스] "우리의 소중한 유산 무형문화재 함께 즐겨요" [포토뉴스] 추석 분위가 나는 제주시오일장 인기뉴스 1 오늘의운세 10월11일(음력9월16일) 2 제61회 탐라문화제 9일 일부 일정 10일로 연기 3 제103회 전국체전 4일차...메달 레이스 이어가 4 [제민포럼] 테슬라와 한라산소주 5 일본시장 활짝 제주관광 기대감속 우려도 6 1600여명 발 구름에 서귀포 가을 들썩 희망 의지 불끈 7 제주시 수중·핀수영협회 소속 8명 수상구조사 '합격' 8 장 발장 이야기 하단영역 하단메뉴 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 RSS 매체정보 발행·편집인 : 양치석 청소년보호책임자 : 김태음 제주특별자치도 제주시 평화로 2700 제민일보사 등록번호 : 제주특별자치도 아01133 등록일 : 2021-09-06 대표전화 : (064) 741-3111 팩스 : (064) 741-3117 기사제보 : (064) 741-3220 광고문의 : (064) 741-3121 제민일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제민일보. All rights reserved. mail to edijemin@chol.com 위로 전체메뉴 전체기사 제민방송 전체 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 정치 전체 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 경제 전체 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 사회 전체 사회종합 사건/사고 환경 해양 노동 복지 도민기자 마당 청소년기자 마당 날씨 교육 전체 교육종합 대학가 입시정보 우리학교소식 청소년/어린이 스포츠/레져 전체 스포츠종합 축구 야구 농구/배구 골프 경마 평화마라톤 백록기 제민기 기획 전체 진행 연재 지난 연재 오피니언 전체 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 전체 문화뉴스 공연/전시 출판/문학 방송/영화 연예 Life/건강 WEEK&amp;팡 종교 책 읽어주는 남자 강혜명의 제주아리아 일과 사람들 전체 동네방네 인사 화촉 부음 WeLove 전체 진행 프로젝트 지난 프로젝트 해녀 전체 특별기획 4∙3 전체 4·3뉴스 4·3은 말한다 4·3기획 제주4·3 이제는 기록유산으로 コリアニユ-ス 핫뉴스 전체 무공침 제민포커스 와이드 진단 해설 제민현장 지역뉴스 전체 종합 제주시 서귀포시 읍면동 농사정보 WEEK&amp;팡 전체 진행연재 지난연재 News Archive 전체 신년∙창간특집호 Voice 만화/만평 오늘의 운세 기타 독자게시판 제민일보 안내 전체 알림/사고 올해의 제주인 독자위원회의/윤리교육 주요 사업 코로나19 [6·1 지방선거] 안테나 전체 제주도지사 제주도교육감 도의원(제주시) 도의원(서귀포시) 교육의원 제주시을 국회의원 보궐선거 [2022 6·1지방선거] 우리동네 현안 해결사는 [2022 6·1지방선거] 파워인터뷰 [6·1 지방선거 및 보궐선거] 후보 주요 일정 제민일보 소개 회장인사말 비전 연혁 사업 출판 찾아오시는길 PDF 보기 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도 중문관광단지 맛집 ‘색달식당 중문본점’ 향토맛을 그대로 살린 갈치조림 이목 받아 &lt; 일반 &lt; 사회문화 &lt; 기사본문 - 뉴스저널리즘 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 편집. 2022-10-11 14:51 (화) 로그인 회원가입 모바일웹 naver post Mobile 종합뉴스 정치 경제 사회문화 영화 공연·전시 미디어 라이프 일반 대중문학 문학 시·시 비평 소설 작가의 시선 포토 · 영상 전체메뉴 버튼 검색버튼 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도 중문관광단지 맛집 ‘색달식당 중문본점’ 향토맛을 그대로 살린 갈치조림 이목 받아 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 일반 제주도 중문관광단지 맛집 ‘색달식당 중문본점’ 향토맛을 그대로 살린 갈치조림 이목 받아 기자명 최태협 입력 2020.03.14 11:00 댓글 0 다른 공유 찾기 바로가기 본문 글씨 키우기 본문 글씨 줄이기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 구글+(으)로 기사보내기 네이버밴드(으)로 기사보내기 네이버블로그(으)로 기사보내기 핀터레스트(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 봄철 푸른 바다와 봄 꽃들이 만개한 제주도를 찾는 여행객들이 늘고 있다. 3월 제주도는 제주유채꽃축제 등 봄 내음이 물씬 풍기는 축제들과 행사들이 열린다. 또한 서귀포 상효원과 튤립 축제가 펼쳐지는 한림공원도 빼놓기엔 아쉽다. 특히 제주도 여행의 힐링코스라 할 수 있는 오설록 티 뮤지엄은 녹차밭을 보며 녹차로 만든 디저트와 함께 여행으로 지친 몸을 달래면서 낭만과 여유를 느낄 수 있어 많은 여행객들이 찾는 곳이다.또한 제주도의 봄철여행과 함께 놓칠 수 없는 것이 바로 맛집이다. 제주도에는 특색 있는 맛집들이 많아 식도락 여행지로도 더할 나위 없이 좋은 여행지중 한곳이다. 이중 색달식당 중문본점은 중문관광단지에서 1분 거리에 위치해 있으며 이곳의 메인 요리는 통갈치조림으로 생물갈치다.또한 더불어 세트메뉴도 가성비 좋게 먹을 수 있어 가성비를 챙길 수가 있으며 이곳은 픽업서비스를 제공해서 근처 숙소에서 편하게 갈 수 있다.제주 서귀포 맛집으로 손꼽히고 있을 정도로 정갈하고 맛 좋은 메뉴들이 인기가 많으며 기본적으로 많이 인기가 있는 메뉴는 문어통갈치세트 메뉴이다. 이는 고등어구이가 서비스로 나오고 돌솥밥과 성게미역국이 기본으로 포함 되어 나오기 때문에 가격대 또한 합리적이라고 유명하다. 손질도 직원분들이 다 하고 있기 때문에 편안하게 먹을 수 있는 중문관광단지 맛집이다.또한 근처에 있는 관광지 중문색달해변 등은 필수 제주도 방문 코스이며, 제주신라호텔 숙소 근처에 위치하고 있어 많은 사람들에게 사랑받고 있다.제주도 명소를 돌다 보면 허기가져 많은 사람들이 맛집을 검색하지만 대부분 다 비슷한 메뉴들과는 차원이 다른 색달식당 중문점으로 중문관광단지 입구에서 1분 거리에 대표적으로 즐길 수 있으며 모든 메뉴의 구성이 잘 되어 있어 합리적으로 식사를 할 수 있고 부드러운 식감도 느껴볼 수 있다.가족들이나 연인, 친구끼리 가기에도 좋은 가격대와 코스요리를 준비하고 있어 저녁시간에 식사하기에 전혀 부족함이 없다. 또한 이곳은 오랫동안 연구해온 방법으로 조리하고 있어 부담이 없으며 건강에도 좋은 재료들을 사용하고 있기 때문에, 남녀노소 누구나 편하게 즐길 수 있는 맛도 느낄 수 있다.친철한 서비스는 물론 알찬 구성을 통해서 손님들에게 만족감을 제공하고 있어 꾸준한 인기를 받고 있다. 제주 갈치조림 맛집 알아보는 사람들이라면 중문관광단지 맛집 ‘색달식당 중문본점’ 방문해 볼 수 있다. 최태협 newspaper3859@naver.com 저작권자 © 뉴스저널리즘 무단전재 및 재배포 금지 SNS 기사보내기 공유 이메일 기사저장 주요기사 롯데제과, 빵빠레 샌드카스타드 자진회수…"세균 수 기준 초과" 도심 속 장미 축제 '로즈 아워 페스타', 내년 5월 다시 돌아온다 DGB금융지주, 대한민국 교육기부 대상 수상 카카오뱅크 임원진, 자사주 5만 5천주 매입 "주가 부양과 주주 가치 제고" 신한은행, 뉴 쏠 광고모델에 ‘뉴진스’ 발탁 카카오페이손보, 첫 상품 출시 '함께하는 금융안심보험' 이 시각 추천뉴스 카카오뱅크 주가 추락에 우리사주 “신불자 위기” 호소 토요타 노조와 대조되는 현대차·기아 노조 [게임썰전] 출시 2년이 지난 중국게임 '원신'을 왜 지금 얘기해야 하는가 하림펫푸드, 반려동물용 닭고기 가격 인상 도심에서 만나는 장미 축제…'로즈 아워 페스타' 올림픽공원서 개최 NH농협은행 ‘2022년 환율전망 세미나’ 개최 하이트진로, 맥주는 '테라' 소주는 '참이슬과 진로'...사상최대 실적 토요타 노조와 대조되는 현대차·기아 노조 개의 댓글 회원로그인 댓글 내용입력 0 / 400 등록 댓글 정렬 BEST댓글 BEST 댓글 답글과 추천수를 합산하여 자동으로 노출됩니다. 닫기 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 [재계산책] [재계산책] 제약업계 오너 2·3세 전면 배치...'경영권 바통터치' 많이 본 뉴스 1 카카오뱅크 주가 추락에 우리사주 “신불자 위기” 호소 2 토요타 노조와 대조되는 현대차·기아 노조 3 [게임썰전] 출시 2년이 지난 중국게임 '원신'을 왜 지금 얘기해야 하는가 4 하림펫푸드, 반려동물용 닭고기 가격 인상 5 도심에서 만나는 장미 축제…'로즈 아워 페스타' 올림픽공원서 개최 6 NH농협은행 ‘2022년 환율전망 세미나’ 개최 7 하이트진로, 맥주는 '테라' 소주는 '참이슬과 진로'...사상최대 실적 8 뮤지컬 '광주', 美 브로드웨이서 쇼케이스…현지 배우·스태프 참여 9 삼성전자, 2025년 2나노·2027년 1.4나노 양산 돌입 10 CJ제일제당, 삼양식품과 손잡고 불닭소스 컵밥 내놓는다 Opinion [키워드로 본 2021] 재계, 성과급 논란·재벌가 집안 싸움 '시끌' [키워드로 보는 2021] 자동차업계, 반도체 공급부족·현대차그룹 내수지배력 확대·전기차 시대 개화 등 [키워드로 본 2021] IT·전자업계, LG폰 철수·반도체 공급부족·미국 투자 붐·빨라진 세대교체 등 이슈 [재계산책] 제약업계 오너 2·3세 전면 배치...'경영권 바통터치' 이 시각 헤드라인 롯데제과, 빵빠레 샌드카스타드 자진회수…"세균 수 기준 초과" 토요타 노조와 대조되는 현대차·기아 노조 현대차, 수소차 보급으로 제주 그린수소 글로벌 허브 구축 "이기적이고 악랄하다"...현대제철 당진 노조를 바라보는 수요업체의 비판 치킨업계 1위 윤진호 교촌 대표 국감 소환 이유는? NJ Fact Chack [NJ Fact Check] 우리금융 민영화, 비가격 요소로 판가름 [NJ Fact Check] 루이비통, 亞 전초기지 한국에서 중국으로 [NJ Fact Check] 메리츠금융, 주주가치보다 기업가치 생각할 때 매체소개 찾아오시는 길 개인정보처리방침 청소년보호정책 저작권보호정책 기사제보 광고문의 매체정보 서울특별시 중구 서소문로 38 (센트럴타워) 610호 대표전화 : 02-393-9400 팩스 : 02-393-4242 청소년보호책임자 : 이재우 법인명 : (주)이도문화 제호 : 뉴스저널리즘 등록번호 : 경기,아53038 등록일 : 2018-01-03 발행일 : 2018-01-03 발행인 : 원경민 편집인 : 서영백 뉴스저널리즘 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. 「열린보도원칙」 당 매체는 독자와 취재원 등 뉴스이용자의 권리 보장을 위해 반론이나 정정보도, 추후보도를 요청할 수 있는 창구를 열어두고 있음을 알려드립니다. 고충처리인 신용준 02-393-9400 comaritime@naver.com Copyright © 2022 뉴스저널리즘. All rights reserved. mail to mibking@ngetnews.com 위로 전체메뉴 전체기사 정치 경제 사회문화 전체 영화 공연·전시 미디어 라이프 기획특집 대중문학 전체 문학 시·시 비평 소설 작가의 시선 인사동정 포토 · 영상 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도 내국인 관광객 70% 줄었다...외국인은 90% 감소 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 14:46 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도 내국인 관광객 70% 줄었다...외국인은 90% 감소 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 경제 제주도 내국인 관광객 70% 줄었다...외국인은 90% 감소 원성심 기자 headlinejeju@headlinejeju.co.kr 승인 2020.03.02 18:16 댓글 3 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 코로나19 직격탄 제주도 관광시장 초토화 코로나19 위기경보가 '심각' 단계로 격상된 후 제주도를 방문한 관광객이 무려 70% 정도 감소한 것으로 나타났다. 2일 제주특별자치도와 제주도관광협회의 관광객 통계자료에 따르면, 삼일절인 1일 제주도를 찾은 관광객은 1만 3739명에 불과했다. 지난해 삼일절에 4만6664명이 방문했던 것과 비교하면 3분 1수준으로, 무려 70.6%의 감소율을 보였다. 외국인은 337명이 입도해 지난해 같은 날(3820명)과 비교해 91.2% 감소한 것으로 나타났다. 지난달 4일 '무비자 입국'이 중단된 후 제주국제공항의 중국노선 항공편이 완전히 끊기면서 비자를 발급받아 방문하는 중국인은 하루 몇십에 불과한 상황이다. 여기에 국내 코로나19 확산으로 일본인 관광객은 완전히 끊겼다. 1일 제주를 방문한 일본인은 단 '8명'에 불과했다. 외국인 시장이 완전히 초토화된데 이어, 내국인 관광객도 하루가 다르게 감소폭이 커지고 있다. 1일 제주도를 방문한 내국인은 1만3402명으로 지난해 같은 날 4만2884명과 비교해 68.7% 줄었다. 내국인 관광객은 지난 2월 중순까지만 하더라도 30~40%의 감소율을 보였으나, 지난달 23일 코로나19 위기경보가 심각단계로 격상된 후에는 감소율이 50%대에 이어 60%대로 급격히 높아졌고, 현재 70% 수준에 달했다. 문제는 현재 국내 코로나19 사태 추이를 볼 때 앞으로 내국인 방문객의 감소폭은 더 커질 수 있다는 것. 호텔업계의 한 관계자는 "관광시장이 현 시점이 최악으로 바닥을 친 것이라면 좋은데, 아직 바닥을 친 것이 아닌 것으로 보인다"면서 "3월 중순까지는 더 추락할 수도 있어 걱정이 크다"고 말했다. 한편, 관광객이 크게 줄어들면서 제주국제공항은 국제선은 물론이고 국내선도 매우 한산한 분위기가 이어지고 있다. 국내 일부 저비용항공사에서는 고육지책으로 김포 출발 제주행 항공권을 단돈 1만원도 안되는 가격에 판매하는 초저가 특판을 이어가고 있다. &lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 원성심 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 관련기사 비행기 탑승객 65% 감소...제주행 '3500원' 항공권 다시 등장 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 3 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 멍개 2020-03-03 18:52:01 | 223.***.***.56 더보기 삭제하기 수정하기 제주경제 큰 걱정입니다. 다 죽게됐어요. 중국을 막아야 하는데~ 답글쓰기 1 2 이지히 2020-03-02 22:25:32 | 211.***.***.17 더보기 삭제하기 수정하기 중국비행기 다시들어오기 시작하던데 답글쓰기 0 1 도민 2020-03-02 19:41:59 | 14.***.***.188 더보기 삭제하기 수정하기 아주 돟아요 도로가 뻥뚫어 대박이고 짱개 개소리 없고.. 쓰레기 엊ㅅ고...... 답글쓰기 5 3 오늘의 주요 뉴스 제주 병설유치원 매운급식 논란..."아이들이 밥을 못 먹어" 제주, 택배 추가배송비 부당 요구사례 접수 창구 운영 제주, 전국에서 가장 비싼 기름값 문제 대응 시장조사 나선다 제주도 실업급여 수급자↓...고용상황 회복세 전환 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 3 서귀포시, 2022년 교통유발부담금 21억원 부과 4 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 5 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 6 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 7 세상을 웃게 만드는 친절 8 제주시, 하반기 사무관 승진의결자 6명 승진 임용 9 서귀포시, 사무관 승진의결자 8명 승진임용 10 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 1 안녕하세요 2 네 3 네 4 지난 회차 이후 오랜만에 글 올려주셔서 너무 반가운 마음에 푹 빠져들어 읽었습니다. 오늘도 공감가는 좋은 글 올려주셔서 감사합니다. 따뜻한 마음의 양식 얻어갑니다. 저만 알고싶은 글 맛집이네요.^^. 5 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 6 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 7 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 8 지역발전의 초석이 되었으면 한다 9 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 10 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>제주도 중문관광단지 맛집 ‘색달식당 중문본점’ 제주도 갈치조림 현지인들 즐겨찾는 곳으로 이목 &lt; 일반 &lt; 사회문화 &lt; 기사본문 - 뉴스저널리즘 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 편집. 2022-10-11 14:51 (화) 로그인 회원가입 모바일웹 naver post Mobile 종합뉴스 정치 경제 사회문화 영화 공연·전시 미디어 라이프 일반 대중문학 문학 시·시 비평 소설 작가의 시선 포토 · 영상 전체메뉴 버튼 검색버튼 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도 중문관광단지 맛집 ‘색달식당 중문본점’ 제주도 갈치조림 현지인들 즐겨찾는 곳으로 이목 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 일반 제주도 중문관광단지 맛집 ‘색달식당 중문본점’ 제주도 갈치조림 현지인들 즐겨찾는 곳으로 이목 기자명 최태협 입력 2020.03.09 11:00 댓글 0 다른 공유 찾기 바로가기 본문 글씨 키우기 본문 글씨 줄이기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 구글+(으)로 기사보내기 네이버밴드(으)로 기사보내기 네이버블로그(으)로 기사보내기 핀터레스트(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 2월이 가고 3월이 찾아오며 선선한 날씨의 봄이 다가오고 있다. 봄 하면 가장 먼저 떠오르는 여행지인 제주도를 찾는 여행객도 많아지고 있다. 제주도하면 가장 먼저 떠오르는 것은 서귀포이다. 사면이 바다로 둘러싸여 있는 관광명소답게 아름다운 바다를 즐겨볼 수 있다.색달식당은 제주도 맛집, 서귀포 맛집으로 유명하다. 메인 요리는 통갈치 조림으로 제주 갈치조림 맛집으로도 불리고 있다.중문관광단지에서 약 1분거리에 위치하고 있는데 제주 중문 맛집, 중문관광단지 맛집을 찾는 관광객들로 연일 북새통이다. 세트메뉴 또한 가성비 좋게 식사를 즐겨볼 수 있다는 장점이 있어 제주 갈치조림 맛집인 색달식당을 찾는 이들이 늘어나고 있다.픽업서비스 또한 제공하고 있기 때문에 근처 숙소를 예약하면 식사를 하러 편히 방문할 수 있다.친절한 서비스는 물론이고 속이 꽉 찬 구성을 통하여 찾는 손님들의 만족도가 높다. 통갈치 조림 외에도 인기가 좋은 메뉴는 문어 통갈치 세트메뉴이다. 통갈치와 문어를 함께 즐겨볼 수 있는 메뉴로 고등어구이가 서비스로 제공이 된다. 돌솥밥과 성게 미역국또한 기본으로 포함이 되어 제공되며, 손질도 직원이 전부 해주기 때문에 편하게 식사가 가능하다.산방산과 카멜리아힐, 중문 색달 해변과 같은 관광 명소들이 주변에 있기 때문에 관광을 하다가 허기가 질 때 찾기 좋다. 제주 롯데호텔과 제주 신라호텔과도 인접하여있기 때문에 관광객들이 찾아오기 좋은 장소에 위치하고 있다는 평이 많다.생물갈치를 사용하여 쫀득한 식감과 신선함을 살려 식사가 가능한 제주도 맛집 색달식당은 단품과 세트메뉴 모두 알차고 가성비 좋은 구성으로 남녀노소를 불문하고 편하게 즐겨볼 수 있다.중문관광단지 맛집 색달식당 중문본점은 오전 9시부터 오후 9시 30분까지 영업을 하기 때문에 허기지고 편한 시간대에 방문하여 식사를 할 수 있다. 푸짐한 양과 오랜 시간 동안 숙달된 손맛으로 특히나 가족 단위 여행객들에게 인기가 높다.마지막 주문 시간은 오후 8시 30분이며, 여유로운 식사가 가능하다. 자세한 내용은 전화문의나, 중문 맛집 홈페이지서 확인이 가능하다. 최태협 newspaper3859@naver.com 저작권자 © 뉴스저널리즘 무단전재 및 재배포 금지 SNS 기사보내기 공유 이메일 기사저장 주요기사 롯데제과, 빵빠레 샌드카스타드 자진회수…"세균 수 기준 초과" 도심 속 장미 축제 '로즈 아워 페스타', 내년 5월 다시 돌아온다 DGB금융지주, 대한민국 교육기부 대상 수상 카카오뱅크 임원진, 자사주 5만 5천주 매입 "주가 부양과 주주 가치 제고" 신한은행, 뉴 쏠 광고모델에 ‘뉴진스’ 발탁 카카오페이손보, 첫 상품 출시 '함께하는 금융안심보험' 이 시각 추천뉴스 카카오뱅크 주가 추락에 우리사주 “신불자 위기” 호소 토요타 노조와 대조되는 현대차·기아 노조 [게임썰전] 출시 2년이 지난 중국게임 '원신'을 왜 지금 얘기해야 하는가 하림펫푸드, 반려동물용 닭고기 가격 인상 도심에서 만나는 장미 축제…'로즈 아워 페스타' 올림픽공원서 개최 NH농협은행 ‘2022년 환율전망 세미나’ 개최 하이트진로, 맥주는 '테라' 소주는 '참이슬과 진로'...사상최대 실적 토요타 노조와 대조되는 현대차·기아 노조 개의 댓글 회원로그인 댓글 내용입력 0 / 400 등록 댓글 정렬 BEST댓글 BEST 댓글 답글과 추천수를 합산하여 자동으로 노출됩니다. 닫기 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 [재계산책] [재계산책] 제약업계 오너 2·3세 전면 배치...'경영권 바통터치' 많이 본 뉴스 1 카카오뱅크 주가 추락에 우리사주 “신불자 위기” 호소 2 토요타 노조와 대조되는 현대차·기아 노조 3 [게임썰전] 출시 2년이 지난 중국게임 '원신'을 왜 지금 얘기해야 하는가 4 하림펫푸드, 반려동물용 닭고기 가격 인상 5 도심에서 만나는 장미 축제…'로즈 아워 페스타' 올림픽공원서 개최 6 NH농협은행 ‘2022년 환율전망 세미나’ 개최 7 하이트진로, 맥주는 '테라' 소주는 '참이슬과 진로'...사상최대 실적 8 뮤지컬 '광주', 美 브로드웨이서 쇼케이스…현지 배우·스태프 참여 9 삼성전자, 2025년 2나노·2027년 1.4나노 양산 돌입 10 CJ제일제당, 삼양식품과 손잡고 불닭소스 컵밥 내놓는다 Opinion [키워드로 본 2021] 재계, 성과급 논란·재벌가 집안 싸움 '시끌' [키워드로 보는 2021] 자동차업계, 반도체 공급부족·현대차그룹 내수지배력 확대·전기차 시대 개화 등 [키워드로 본 2021] IT·전자업계, LG폰 철수·반도체 공급부족·미국 투자 붐·빨라진 세대교체 등 이슈 [재계산책] 제약업계 오너 2·3세 전면 배치...'경영권 바통터치' 이 시각 헤드라인 롯데제과, 빵빠레 샌드카스타드 자진회수…"세균 수 기준 초과" 토요타 노조와 대조되는 현대차·기아 노조 현대차, 수소차 보급으로 제주 그린수소 글로벌 허브 구축 "이기적이고 악랄하다"...현대제철 당진 노조를 바라보는 수요업체의 비판 치킨업계 1위 윤진호 교촌 대표 국감 소환 이유는? NJ Fact Chack [NJ Fact Check] 우리금융 민영화, 비가격 요소로 판가름 [NJ Fact Check] 루이비통, 亞 전초기지 한국에서 중국으로 [NJ Fact Check] 메리츠금융, 주주가치보다 기업가치 생각할 때 매체소개 찾아오시는 길 개인정보처리방침 청소년보호정책 저작권보호정책 기사제보 광고문의 매체정보 서울특별시 중구 서소문로 38 (센트럴타워) 610호 대표전화 : 02-393-9400 팩스 : 02-393-4242 청소년보호책임자 : 이재우 법인명 : (주)이도문화 제호 : 뉴스저널리즘 등록번호 : 경기,아53038 등록일 : 2018-01-03 발행일 : 2018-01-03 발행인 : 원경민 편집인 : 서영백 뉴스저널리즘 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. 「열린보도원칙」 당 매체는 독자와 취재원 등 뉴스이용자의 권리 보장을 위해 반론이나 정정보도, 추후보도를 요청할 수 있는 창구를 열어두고 있음을 알려드립니다. 고충처리인 신용준 02-393-9400 comaritime@naver.com Copyright © 2022 뉴스저널리즘. All rights reserved. mail to mibking@ngetnews.com 위로 전체메뉴 전체기사 정치 경제 사회문화 전체 영화 공연·전시 미디어 라이프 기획특집 대중문학 전체 문학 시·시 비평 소설 작가의 시선 인사동정 포토 · 영상 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도 중문관광단지 맛집 ‘색달식당 중문본점’ 갈치조림 만족스러운 퀄리티로 이목 끌어 &lt; 일반 &lt; 사회문화 &lt; 기사본문 - 뉴스저널리즘 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 편집. 2022-10-11 14:51 (화) 로그인 회원가입 모바일웹 naver post Mobile 종합뉴스 정치 경제 사회문화 영화 공연·전시 미디어 라이프 일반 대중문학 문학 시·시 비평 소설 작가의 시선 포토 · 영상 전체메뉴 버튼 검색버튼 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도 중문관광단지 맛집 ‘색달식당 중문본점’ 갈치조림 만족스러운 퀄리티로 이목 끌어 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 일반 제주도 중문관광단지 맛집 ‘색달식당 중문본점’ 갈치조림 만족스러운 퀄리티로 이목 끌어 기자명 최태협 입력 2020.03.07 11:00 댓글 0 다른 공유 찾기 바로가기 본문 글씨 키우기 본문 글씨 줄이기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 구글+(으)로 기사보내기 네이버밴드(으)로 기사보내기 네이버블로그(으)로 기사보내기 핀터레스트(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 제주도 여행을 선택하는 사람들이 제주도 중문 맛집으로 방문하는 색달식당 중문본점이 인기가 많다. 최근에는 평일에도 많은 사람들이 제주도 여행을 하고 있지만 사실상 짧은 기간동안 맛집을 찾기에는 시간이 부족할 수 있다.이에 유명한 색달식당은 중문관광단지에서 1분 거리에 위치해 있으며 이곳의 메인 요리는 통갈치조림으로 생물갈치다.또한 더불어 세트메뉴도 가성비 좋게 먹을 수 있어 가성비를 챙길 수가 있으며 이곳은 픽업서비스를 제공해서 근처 숙소에서 편하게 갈 수 있다.제주 서귀포 맛집으로 손꼽히고 있을 정도로 정갈하고 맛좋은 메뉴들이 인기가 많으며 기본적으로 많이 인기가 있는 메뉴는 문어통갈치세트 메뉴이다. 이는 고등어구이가 서비스로 나오고 돌솥밥과 성게미역국이 기본으로 포함되서 나오기 때문에 가격대 또한 합리적이라고 유명하다. 손질도 직원분들이 다 하고 있기 때문에 편안하게 먹을 수 있는 중문관광단지 맛집이다.또한 근처에 있는 관광지 산방산, 카멜리아힐은 필수 제주도 방문 코스이며, 호텔 숙소 근처에 위치하고 있어 많은 사람들에게 사랑받고 있다.제주도 명소를 돌다 보면 허기가져 많은 사람들이 맛집을 검색하지만 대부분 다 비슷한 메뉴들과는 차원이 다른 색달식당 중문점으로 중문관광단지 입구에서 1분 거리에 대표적으로 즐길 수 있으며 모든 메뉴의 구성이 잘 되어 있어 합리적으로 식사를 할 수 있고 부드러운 식감도 느껴볼 수 있다.가족들이나 연인, 친구끼리 가기에도 좋은 가격대와 코스요리를 준비하고 있어 저녁시간에 식사하기에 전혀 부족함이 없다. 또한 이곳은 오랫동안 연구해온 방법으로 조리하고 있어 부담이 없으며 건강에도 좋은 재료들을 사용하고 있기 때문에, 남녀노소 누구나 편하게 즐길 수 있는 맛도 느낄 수 있다.친철한 서비스는 물론 알찬 구성을 통해서 손님들에게 만족감을 제공하고 있어 꾸준한 인기를 받고 있다. 제주 갈치조림을 알아보는 사람들이라면 중문관광단지 맛집 ‘색달식당 중문본점’ 방문해 볼 수 있다. 최태협 newspaper3859@naver.com 저작권자 © 뉴스저널리즘 무단전재 및 재배포 금지 SNS 기사보내기 공유 이메일 기사저장 주요기사 롯데제과, 빵빠레 샌드카스타드 자진회수…"세균 수 기준 초과" 도심 속 장미 축제 '로즈 아워 페스타', 내년 5월 다시 돌아온다 DGB금융지주, 대한민국 교육기부 대상 수상 카카오뱅크 임원진, 자사주 5만 5천주 매입 "주가 부양과 주주 가치 제고" 신한은행, 뉴 쏠 광고모델에 ‘뉴진스’ 발탁 카카오페이손보, 첫 상품 출시 '함께하는 금융안심보험' 이 시각 추천뉴스 카카오뱅크 주가 추락에 우리사주 “신불자 위기” 호소 토요타 노조와 대조되는 현대차·기아 노조 [게임썰전] 출시 2년이 지난 중국게임 '원신'을 왜 지금 얘기해야 하는가 하림펫푸드, 반려동물용 닭고기 가격 인상 도심에서 만나는 장미 축제…'로즈 아워 페스타' 올림픽공원서 개최 NH농협은행 ‘2022년 환율전망 세미나’ 개최 하이트진로, 맥주는 '테라' 소주는 '참이슬과 진로'...사상최대 실적 토요타 노조와 대조되는 현대차·기아 노조 개의 댓글 회원로그인 댓글 내용입력 0 / 400 등록 댓글 정렬 BEST댓글 BEST 댓글 답글과 추천수를 합산하여 자동으로 노출됩니다. 닫기 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 [재계산책] [재계산책] 제약업계 오너 2·3세 전면 배치...'경영권 바통터치' 많이 본 뉴스 1 카카오뱅크 주가 추락에 우리사주 “신불자 위기” 호소 2 토요타 노조와 대조되는 현대차·기아 노조 3 [게임썰전] 출시 2년이 지난 중국게임 '원신'을 왜 지금 얘기해야 하는가 4 하림펫푸드, 반려동물용 닭고기 가격 인상 5 도심에서 만나는 장미 축제…'로즈 아워 페스타' 올림픽공원서 개최 6 NH농협은행 ‘2022년 환율전망 세미나’ 개최 7 하이트진로, 맥주는 '테라' 소주는 '참이슬과 진로'...사상최대 실적 8 뮤지컬 '광주', 美 브로드웨이서 쇼케이스…현지 배우·스태프 참여 9 삼성전자, 2025년 2나노·2027년 1.4나노 양산 돌입 10 CJ제일제당, 삼양식품과 손잡고 불닭소스 컵밥 내놓는다 Opinion [키워드로 본 2021] 재계, 성과급 논란·재벌가 집안 싸움 '시끌' [키워드로 보는 2021] 자동차업계, 반도체 공급부족·현대차그룹 내수지배력 확대·전기차 시대 개화 등 [키워드로 본 2021] IT·전자업계, LG폰 철수·반도체 공급부족·미국 투자 붐·빨라진 세대교체 등 이슈 [재계산책] 제약업계 오너 2·3세 전면 배치...'경영권 바통터치' 이 시각 헤드라인 롯데제과, 빵빠레 샌드카스타드 자진회수…"세균 수 기준 초과" 토요타 노조와 대조되는 현대차·기아 노조 현대차, 수소차 보급으로 제주 그린수소 글로벌 허브 구축 "이기적이고 악랄하다"...현대제철 당진 노조를 바라보는 수요업체의 비판 치킨업계 1위 윤진호 교촌 대표 국감 소환 이유는? NJ Fact Chack [NJ Fact Check] 우리금융 민영화, 비가격 요소로 판가름 [NJ Fact Check] 루이비통, 亞 전초기지 한국에서 중국으로 [NJ Fact Check] 메리츠금융, 주주가치보다 기업가치 생각할 때 매체소개 찾아오시는 길 개인정보처리방침 청소년보호정책 저작권보호정책 기사제보 광고문의 매체정보 서울특별시 중구 서소문로 38 (센트럴타워) 610호 대표전화 : 02-393-9400 팩스 : 02-393-4242 청소년보호책임자 : 이재우 법인명 : (주)이도문화 제호 : 뉴스저널리즘 등록번호 : 경기,아53038 등록일 : 2018-01-03 발행일 : 2018-01-03 발행인 : 원경민 편집인 : 서영백 뉴스저널리즘 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. 「열린보도원칙」 당 매체는 독자와 취재원 등 뉴스이용자의 권리 보장을 위해 반론이나 정정보도, 추후보도를 요청할 수 있는 창구를 열어두고 있음을 알려드립니다. 고충처리인 신용준 02-393-9400 comaritime@naver.com Copyright © 2022 뉴스저널리즘. All rights reserved. mail to mibking@ngetnews.com 위로 전체메뉴 전체기사 정치 경제 사회문화 전체 영화 공연·전시 미디어 라이프 기획특집 대중문학 전체 문학 시·시 비평 소설 작가의 시선 인사동정 포토 · 영상 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도, 관광약자 리프트차량 지원사업 참여업체 모집 - 뉴제주일보 × 전체기사 정치/행정 전체 제주도정 청와대 도의회 국회 선거 후보자 정부 도내정가 재·보궐 선거 북한 社告 중앙정가 국정감사 조합장선거 제주시 갑 제주시 을 서귀포시 경제 전체 경제일반 금융 창립기념일 손해사정사 이명헌의보험이야기 사회 전체 사회일반 법원검찰 경찰 기상 사건·사고 사회단체 의료 횡단로 교육/과학 전체 대학 교육청 일반 과학 어린이판 지역 전체 제주시 서귀포시 문화 전체 일반 공연 영화/연예 전시 홈닥터 해연풍 사진으로 본 제주 시와 그림으로 보는 제주어 스포츠 전체 일반 백호기 야구 축구 육상 농구 배구 골프 동계스포츠 태권도 배드민턴 우슈 수영 탁구 체조 레슬링 유도 정구 양궁 격투기 검도 바둑 경마 댄스 올림픽 사람과 사람 전체 동정 프로필 인터뷰 오피니언 전체 사설 부영주 칼럼 "아침" 홍성배 칼럼 제주포럼 기자수첩 기자석 김미영의 뷰티톡 김태윤 박사의 환경, 그리고 인생 이야기 김호성의 정치·행정 이야기 정영민 변호사의 법 이야기 김원현의 아동성장 이야기 제주칼럼 제주시론 제주광장 정흥남 칼럼 강은숙의 가정법률이야기 김종배의 세상털기 배진섭의 공연 이야기 한동명 변호사의 법률 Q&amp;A 제주만평 열린페이지 전체 제주기고 결혼 부음 알림 인사 보도자료 제주 4·3 전체 4.3길을걷다 국제 진행중인 기획 전체 제주어바웃 食(식) 기행 문희주의 제주오롬 스토리 이세끼 주제주일본국총영사가 만난 제주 문화예술산책 송재웅의 책 이야기 김창집의 길이야기 임안순의 농농농 제주&amp;제주인 메이드인 제주 JDC와 함께하는 제주야 시민기자가 뛴다! 창간특집 신년특집 새해설계 기획총괄 특별기획 제주 커피로드 서재철의 섬기행, 섬을 걷다 셰프 인 제주 아이♥제주 제주 농업, 청년이 미래다 종료된 기획 전체 제주미래성장동력,자연에서 찾는다 jdc의 여정과미래 代를 잇는 제주기업 2017 생명을 지키는 약속 내일을 JOB자! 특성화GO! 희망! 나래를 펴다 新제주인 공감愛공간 탐라에서 세계로 제주&amp;제주인 더불어 제주 생존수영 경제매거진 IN제주 메이드인제주ll-향토기업 총선 열전현장 총선 일반 4.13 총선 여론조사 제20대 4.13총선후보에게듣는다 총선브리핑 2017 대권주자에게듣는다 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 유권자가 주인이다 민심탐방 포토에세이 제주의 독립운동가를 찾아서 제주경제, 위기를 기회로 제주인 life 국제전기자동차 엑스포 나눔ㆍ봉사ㆍ행복 삶다도 실력이 인정받는 제주 시네톡 제주한의약, 그 역사속으로 김창집의 올레이야기 2016 우리는 제주 인포그래픽 제주의 마을속으로 자연의 역습 기후변화 나눔이 희망 입니다 4·3 길을 걷다 희망을 나누는 사람들 특성화고 날개를 달다 10대, 나도 저자다! 위클리 커버 제주동네책방 탐방 사서가 추천하는 이달의 도서 시민 문화기획자를 만나다 서재철의 오지기행 화촉 라이프 전체 레저 건강 출판/문학 부고 동영상 인사 방송동영상 현안 진단 뉴스 전체 방송/연예 6·13 지방선거 LIFE in BIZ 전체 일반 최종편집일. 2022-10-11 14:50 (화) 로그인 회원가입 모바일웹 정치 경제 사회 교육/과학 지역 문화 스포츠 기획 오피니언 화촉 부음 기사검색 검색 제주해경, 겨울철 어선 화재 예방 나선다 제주해경, 겨울철 어선 화재 예방 나선다 제주지방해양경찰청(청장 김인창)은 겨울철 어선 화재 예방 홍보 캠페인과 관계기관 합동 점검에 나선다고 11일 밝혔다.제주해경에 따르면 2019년부터 지난해까지 도내에서 발생한 선박... 제주경찰, 찾아가는 가해자 교화 프로그램 운영 제주경찰, 찾아가는 가해자 교화 프로그램 운영 제주경찰청(청장 이상률)은 11일부터 '찾아가는 가해자 교화 프로그램'을 운영한다.찾아가는 가해자 교화 프로그램은 경찰서 유치장에 유치된 '고위험군 여성폭력 ... SNS P  D  F 지면보기 이전 다음 제주도, 관광약자 리프트차량 지원사업 참여업체 모집 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 정치/행정 제주도정 제주도, 관광약자 리프트차량 지원사업 참여업체 모집 현대성 기자 승인 2020.03.13 11:05 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 제주특별자치도는 오는 27일까지 도내 전세버스 업체를 대상으로 관광약자 전용 리프트차량 지원사업 참여 희망 업체를 공모한다고 13일 밝혔다. 제주도는 2억원 범위 내에서 리프트차량 도입 비용의 90%를 지원한다. 올해 지원 대상은 기존 3대에서 4대로 확대됐다. 제주도는 이번 사업이 마무리되면 전세버스 리프트차량이 12대로 늘어나 관광약자의 제주 나들이가 훨씬 수월해질 것으로 전망하고 있다. 사업 신청을 희망하는 업체는 사업계획서, 재무재표 등 관련 서류를 제주도 관광정책과로 제출하면 된다. 문의=710-3310(제주도 관광정책과). 현대성 기자  cannon@jejuilbo.net 저작권자 © 뉴제주일보 무단전재 및 재배포 금지 현대성 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 제8회 전국동시지방선거 (예비)후보자 및 그의 배우자, 직계존·비속이나 형제자매에 관하여 허위의 사실을 유포하거나, 이들을 비방하는 경우 「공직선거법」에 위반됩니다.대한민국의 깨끗한 선거문화 실현에 동참하여 주시기 바랍니다. - 중앙선거관리위원회- 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 인기기사 1파란하늘 2제주 남서부 지역 올 가을 최저기온…당분간 쌀쌀한 날씨 3제주선수단, 전국체육대회 메달 목표 달성 4제주 들개 계속 잡아도 가축 피해 증가세 5오토바이 단독 교통사고로 40대 중상 6‘60돌’ 탐라문화제 대장정 마무리…‘제주인 화합 대축제’ 입증 7외국인 렌터카 과태료 ‘먹튀’, 차단 왜 머뭇거리나 8조선시대 노블레스 오블리주 ‘거상 김만덕’ 나눔행렬 잇따라 9"척박한 제주에서 돕지 않으면 생존 불가능…힘들 때일수록 도와야" 10제주지검 스토킹범 구속률 33.3% 전국 세번째 높아 신문사소개 고충처리인 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 서사로 25 3-5층(삼도이동, 수정빌딩) 대표전화 : 064-757-3114 광고·구독 : 064-757-5000 편집국 FAX : 064-756-7114 영업본부 : 064-702-7114 법인명(단체명) : 주식회사 제주일보방송 등록번호 : 제주 아01134 등록일 : 2021-09-07 대표자 : 김대형 발행인 : 김대형 주필 : 부영주 편집인 : 부영주 편집국장 : 부남철 뉴제주일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. 청소년보호책임자 : 김대형 Copyright © 2022 뉴제주일보. All rights reserved. mail to webmaster@jejuilbo.net 위로</t>
+  </si>
+  <si>
+    <t>제주도 갈치조림 중문관광단지 맛집 '색달식당 중문본점' 이색적인 갈치조림으로 범국민적인 인기 &lt; 일반 &lt; 사회문화 &lt; 기사본문 - 뉴스저널리즘 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 편집. 2022-10-11 14:51 (화) 로그인 회원가입 모바일웹 naver post Mobile 종합뉴스 정치 경제 사회문화 영화 공연·전시 미디어 라이프 일반 대중문학 문학 시·시 비평 소설 작가의 시선 포토 · 영상 전체메뉴 버튼 검색버튼 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도 갈치조림 중문관광단지 맛집 '색달식당 중문본점' 이색적인 갈치조림으로 범국민적인 인기 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 일반 제주도 갈치조림 중문관광단지 맛집 '색달식당 중문본점' 이색적인 갈치조림으로 범국민적인 인기 기자명 최태협 입력 2020.03.02 11:00 댓글 0 다른 공유 찾기 바로가기 본문 글씨 키우기 본문 글씨 줄이기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 구글+(으)로 기사보내기 네이버밴드(으)로 기사보내기 네이버블로그(으)로 기사보내기 핀터레스트(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 제주도는 우리나라의 대표적인 관광 명소 임과 더불어 대표적인 수산지이기도 하다. 그래서 해산물 요리로 제주도 맛집으로 칭송받는 곳들은 무수히 많으며, 지역 주민들과 더불어 관광객의 발길을 사로잡고 있다. 최근에는 제주도 맛집, 중문관광단지 맛집을 넘어서 전국적인 인지도를 자랑하는 맛집들도 속속들이 등장하고 있는데, 그 중에서 현재 가장 주목받고 있는 맛집은 '색달식당 중문본점'이다.색달식당 중문본점은 중문관광단지와 불과 1분 거리에 위치하고 있기 때문에, 중문관광단지를 찾는 사람들은 물론이고, 인접한 카멜리아 힐, 성산 일출봉 등을 방문하는 사람들이 주로 이용하곤 한다. 픽업도 함께 운영하고 있어서 인접한 제주롯데호텔, 제주신라호텔 등에 묵는 손님들의 아침, 저녁을 책임지는 식당으로도 유명한데, 색달식당 중문본점을 대표하는 메뉴는 '통문어갈치세트'이다.이는 갈치조림에 문어와 전복, 대하를 통째로 넣고 손님 상에서 조리해먹는 것으로, 갈치조림의 호화판이라고 생각하면 이해가 쉽다. 이와 함께 성게미역국과 돌솥밥, 고등어구이 등이 차례로 상에 올라오는데, 한 상 가득한 차림새가 어느 일류 레스토랑 부럽지 않은 푸짐한 구성을 자랑한다. 그러나 갈치조림은 우리가 일상에서도 흔하게 먹는 메뉴이기 때문에, 갈치조림이라는 단어만 듣고서는 색달식당의 특색에 대해서 확실히 이해할 수 없다. 색달식당은 제주도 향토 음식을 표방하여 운영하고 있으며, 대표 메뉴인 갈치조림 또한 제주 전통의 방식으로 조리하는 것이기 때문에, 주로 내륙 지방에서 건너오는 관광객들의 경우에는 아주 독특한 인상을 받기도 한다.여기서는 오직 싱싱한 생물 갈치만을 사용하여 요리를 하고 있는데, 서두에서 말했다시피 제주도는 우리나라의 대표적인 수산지이다. 갈치의 특성상 장거리 운송이 불가능하기 때문에, 싱싱한 생물 갈치는 오직 제주도처럼 수산지와 인접한 곳에서나 먹을 수 있으며, 내륙 지방 사람들이 먹는 것은 대부분이 냉동 갈치이다. 색달식당 갈치는 냉동의 과정이 없는 생물 갈치이기 때문에 생선살이 보다 탄력있고 담백한 맛을 낼 뿐만 아니라, 양념장이 살 속 깊이까지 베어들기 때문에 훨씬 맛있는 조림이 가능하다.또한 여기서 조림에 사용하는 양념장 또한 아주 독특한 맛을 내는 데, 우리가 일반적으로 먹는 갈치조림의 맛은 국간장의 짜디짠 맛에 고춧가루의 매콤한 향내가 살짝 터지는 것일 것이다. 그러나 색달식당은 제주도 전통의 방식 그대로 조리하기 때문에 짠맛 보다는 매콤한 맛이 강하게 풍기며, 국물도 깊고 진한 맛을 내는 것이 특징이다. 그래서 식사류로는 물론이고, 술안주로도 각광받고 있어, 아침부터 저녁까지 손님들로 문전성시를 이루는데, 색달식당의 갈치조림은 관광객의 입소문을 타고 널리 퍼져, 지금은 범국민적인 인지도를 자랑하고 있다.서귀포 맛집 '색달식당 중문본점'은 매일 오전 9시부터 오후 9시 30분까지 넉넉한 시간 운영하고 있으며, 예약 문의나 기타 자세한 사항은 대표전화를 통해서 알아볼 수 있다. 최태협 newspaper3859@naver.com 저작권자 © 뉴스저널리즘 무단전재 및 재배포 금지 SNS 기사보내기 공유 이메일 기사저장 주요기사 롯데제과, 빵빠레 샌드카스타드 자진회수…"세균 수 기준 초과" 도심 속 장미 축제 '로즈 아워 페스타', 내년 5월 다시 돌아온다 DGB금융지주, 대한민국 교육기부 대상 수상 카카오뱅크 임원진, 자사주 5만 5천주 매입 "주가 부양과 주주 가치 제고" 신한은행, 뉴 쏠 광고모델에 ‘뉴진스’ 발탁 카카오페이손보, 첫 상품 출시 '함께하는 금융안심보험' 이 시각 추천뉴스 카카오뱅크 주가 추락에 우리사주 “신불자 위기” 호소 토요타 노조와 대조되는 현대차·기아 노조 [게임썰전] 출시 2년이 지난 중국게임 '원신'을 왜 지금 얘기해야 하는가 하림펫푸드, 반려동물용 닭고기 가격 인상 도심에서 만나는 장미 축제…'로즈 아워 페스타' 올림픽공원서 개최 NH농협은행 ‘2022년 환율전망 세미나’ 개최 하이트진로, 맥주는 '테라' 소주는 '참이슬과 진로'...사상최대 실적 토요타 노조와 대조되는 현대차·기아 노조 개의 댓글 회원로그인 댓글 내용입력 0 / 400 등록 댓글 정렬 BEST댓글 BEST 댓글 답글과 추천수를 합산하여 자동으로 노출됩니다. 닫기 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 [재계산책] [재계산책] 제약업계 오너 2·3세 전면 배치...'경영권 바통터치' 많이 본 뉴스 1 카카오뱅크 주가 추락에 우리사주 “신불자 위기” 호소 2 토요타 노조와 대조되는 현대차·기아 노조 3 [게임썰전] 출시 2년이 지난 중국게임 '원신'을 왜 지금 얘기해야 하는가 4 하림펫푸드, 반려동물용 닭고기 가격 인상 5 도심에서 만나는 장미 축제…'로즈 아워 페스타' 올림픽공원서 개최 6 NH농협은행 ‘2022년 환율전망 세미나’ 개최 7 하이트진로, 맥주는 '테라' 소주는 '참이슬과 진로'...사상최대 실적 8 뮤지컬 '광주', 美 브로드웨이서 쇼케이스…현지 배우·스태프 참여 9 삼성전자, 2025년 2나노·2027년 1.4나노 양산 돌입 10 CJ제일제당, 삼양식품과 손잡고 불닭소스 컵밥 내놓는다 Opinion [키워드로 본 2021] 재계, 성과급 논란·재벌가 집안 싸움 '시끌' [키워드로 보는 2021] 자동차업계, 반도체 공급부족·현대차그룹 내수지배력 확대·전기차 시대 개화 등 [키워드로 본 2021] IT·전자업계, LG폰 철수·반도체 공급부족·미국 투자 붐·빨라진 세대교체 등 이슈 [재계산책] 제약업계 오너 2·3세 전면 배치...'경영권 바통터치' 이 시각 헤드라인 롯데제과, 빵빠레 샌드카스타드 자진회수…"세균 수 기준 초과" 토요타 노조와 대조되는 현대차·기아 노조 현대차, 수소차 보급으로 제주 그린수소 글로벌 허브 구축 "이기적이고 악랄하다"...현대제철 당진 노조를 바라보는 수요업체의 비판 치킨업계 1위 윤진호 교촌 대표 국감 소환 이유는? NJ Fact Chack [NJ Fact Check] 우리금융 민영화, 비가격 요소로 판가름 [NJ Fact Check] 루이비통, 亞 전초기지 한국에서 중국으로 [NJ Fact Check] 메리츠금융, 주주가치보다 기업가치 생각할 때 매체소개 찾아오시는 길 개인정보처리방침 청소년보호정책 저작권보호정책 기사제보 광고문의 매체정보 서울특별시 중구 서소문로 38 (센트럴타워) 610호 대표전화 : 02-393-9400 팩스 : 02-393-4242 청소년보호책임자 : 이재우 법인명 : (주)이도문화 제호 : 뉴스저널리즘 등록번호 : 경기,아53038 등록일 : 2018-01-03 발행일 : 2018-01-03 발행인 : 원경민 편집인 : 서영백 뉴스저널리즘 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. 「열린보도원칙」 당 매체는 독자와 취재원 등 뉴스이용자의 권리 보장을 위해 반론이나 정정보도, 추후보도를 요청할 수 있는 창구를 열어두고 있음을 알려드립니다. 고충처리인 신용준 02-393-9400 comaritime@naver.com Copyright © 2022 뉴스저널리즘. All rights reserved. mail to mibking@ngetnews.com 위로 전체메뉴 전체기사 정치 경제 사회문화 전체 영화 공연·전시 미디어 라이프 기획특집 대중문학 전체 문학 시·시 비평 소설 작가의 시선 인사동정 포토 · 영상 전체메뉴닫기</t>
   </si>
 </sst>
 </file>
@@ -434,7 +551,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -456,7 +573,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -467,7 +584,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -478,7 +595,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -488,6 +605,9 @@
       <c r="B5" t="s">
         <v>5</v>
       </c>
+      <c r="C5" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1">
@@ -497,7 +617,7 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -507,9 +627,6 @@
       <c r="B7" t="s">
         <v>7</v>
       </c>
-      <c r="C7" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1">
@@ -519,7 +636,7 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -530,7 +647,7 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -541,7 +658,7 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -552,7 +669,224 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
         <v>20</v>
+      </c>
+      <c r="C20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
